--- a/tabular/eve/parvovirinae/epv-dependo-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA2D8E0-4A52-9741-8659-0E754E83F4B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B990C1D-BC42-7049-AC0B-60C14E35AC65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12180" yWindow="2180" windowWidth="35000" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7483,7 +7483,7 @@
   <dimension ref="A1:AH334"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="A229" sqref="A1:AG334"/>
+      <selection activeCell="E232" sqref="E232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/parvovirinae/epv-dependo-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B990C1D-BC42-7049-AC0B-60C14E35AC65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D34B0DB-F95B-1549-A432-F8B5BFF6BD67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12180" yWindow="2180" windowWidth="35000" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/tabular/eve/parvovirinae/epv-dependo-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D34B0DB-F95B-1549-A432-F8B5BFF6BD67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E64EE0-A4D7-6940-AEA1-1FABFF596A8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12180" yWindow="2180" windowWidth="35000" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7483,7 +7483,7 @@
   <dimension ref="A1:AH334"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="E232" sqref="E232"/>
+      <selection activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/parvovirinae/epv-dependo-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-side-data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E64EE0-A4D7-6940-AEA1-1FABFF596A8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384C694D-857B-F041-BEEB-45FC016DC154}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="2180" windowWidth="35000" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="2160" windowWidth="35000" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DONE" sheetId="2" r:id="rId1"/>
-    <sheet name="Problematic" sheetId="12" r:id="rId2"/>
-    <sheet name="Unclassified" sheetId="5" r:id="rId3"/>
-    <sheet name="Short ones" sheetId="11" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId2"/>
+    <sheet name="Problematic" sheetId="12" r:id="rId3"/>
+    <sheet name="Unclassified" sheetId="5" r:id="rId4"/>
+    <sheet name="short-ones" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -7480,10 +7481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH334"/>
+  <dimension ref="A1:AH329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="C223" sqref="C223"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="A275" sqref="A1:AG329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33559,19 +33560,19 @@
     </row>
     <row r="259" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>1715</v>
+        <v>2132</v>
       </c>
       <c r="C259" s="12">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D259" s="13" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="E259" s="13" t="s">
-        <v>503</v>
+        <v>895</v>
       </c>
       <c r="F259" s="13" t="s">
         <v>30</v>
@@ -33586,55 +33587,55 @@
         <v>497</v>
       </c>
       <c r="J259" s="13" t="s">
-        <v>504</v>
+        <v>896</v>
       </c>
       <c r="K259" s="13" t="s">
-        <v>503</v>
+        <v>895</v>
       </c>
       <c r="L259" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M259" s="13" t="s">
-        <v>505</v>
+        <v>897</v>
       </c>
       <c r="N259" s="13" t="s">
-        <v>506</v>
+        <v>898</v>
       </c>
       <c r="O259" s="13" t="s">
-        <v>1635</v>
+        <v>1139</v>
       </c>
       <c r="P259" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q259" s="13">
-        <v>47532</v>
+        <v>34938448</v>
       </c>
       <c r="R259" s="13">
-        <v>50801</v>
+        <v>34942308</v>
       </c>
       <c r="S259" s="13" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T259" s="13">
-        <v>1</v>
+        <v>677</v>
       </c>
       <c r="U259" s="13">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="V259" s="13">
-        <v>1</v>
+        <v>2749</v>
       </c>
       <c r="W259" s="13">
-        <v>3270</v>
+        <v>3861</v>
       </c>
       <c r="X259" s="13">
-        <v>1090</v>
+        <v>371</v>
       </c>
       <c r="Y259" s="13">
-        <v>2132</v>
+        <v>531</v>
       </c>
       <c r="Z259" s="13">
-        <v>100</v>
+        <v>76.55</v>
       </c>
       <c r="AA259" s="13">
         <v>0</v>
@@ -33643,16 +33644,16 @@
         <v>1</v>
       </c>
       <c r="AC259" s="13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD259" s="13">
         <v>0</v>
       </c>
       <c r="AE259" s="13" t="s">
-        <v>2137</v>
+        <v>1142</v>
       </c>
       <c r="AF259" s="13">
-        <v>3270</v>
+        <v>3861</v>
       </c>
       <c r="AG259" s="13" t="s">
         <v>2080</v>
@@ -33660,19 +33661,19 @@
     </row>
     <row r="260" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>1715</v>
+        <v>1582</v>
       </c>
       <c r="C260" s="12">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D260" s="13" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="E260" s="13" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="F260" s="13" t="s">
         <v>30</v>
@@ -33687,55 +33688,55 @@
         <v>497</v>
       </c>
       <c r="J260" s="13" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="K260" s="13" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="L260" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M260" s="13" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="N260" s="13" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="O260" s="13" t="s">
-        <v>1637</v>
+        <v>1584</v>
       </c>
       <c r="P260" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q260" s="13">
-        <v>312771</v>
+        <v>43352</v>
       </c>
       <c r="R260" s="13">
-        <v>315833</v>
+        <v>46501</v>
       </c>
       <c r="S260" s="13" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T260" s="13">
-        <v>200</v>
+        <v>277</v>
       </c>
       <c r="U260" s="13">
-        <v>1022</v>
+        <v>585</v>
       </c>
       <c r="V260" s="13">
-        <v>607</v>
+        <v>687</v>
       </c>
       <c r="W260" s="13">
-        <v>3063</v>
+        <v>1613</v>
       </c>
       <c r="X260" s="13">
-        <v>847</v>
+        <v>309</v>
       </c>
       <c r="Y260" s="13">
-        <v>822</v>
+        <v>641</v>
       </c>
       <c r="Z260" s="13">
-        <v>61.274999999999999</v>
+        <v>100</v>
       </c>
       <c r="AA260" s="13">
         <v>0</v>
@@ -33744,7 +33745,7 @@
         <v>1</v>
       </c>
       <c r="AC260" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD260" s="13">
         <v>0</v>
@@ -33753,7 +33754,7 @@
         <v>1585</v>
       </c>
       <c r="AF260" s="13">
-        <v>3063</v>
+        <v>3150</v>
       </c>
       <c r="AG260" s="13" t="s">
         <v>2080</v>
@@ -33761,19 +33762,19 @@
     </row>
     <row r="261" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>1715</v>
+        <v>1582</v>
       </c>
       <c r="C261" s="12">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D261" s="13" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="E261" s="13" t="s">
-        <v>514</v>
+        <v>895</v>
       </c>
       <c r="F261" s="13" t="s">
         <v>30</v>
@@ -33788,55 +33789,55 @@
         <v>497</v>
       </c>
       <c r="J261" s="13" t="s">
-        <v>515</v>
+        <v>896</v>
       </c>
       <c r="K261" s="13" t="s">
-        <v>514</v>
+        <v>895</v>
       </c>
       <c r="L261" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M261" s="13" t="s">
-        <v>516</v>
+        <v>897</v>
       </c>
       <c r="N261" s="13" t="s">
-        <v>517</v>
+        <v>898</v>
       </c>
       <c r="O261" s="13" t="s">
-        <v>1636</v>
+        <v>1581</v>
       </c>
       <c r="P261" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q261" s="13">
-        <v>8525</v>
+        <v>13086036</v>
       </c>
       <c r="R261" s="13">
-        <v>11485</v>
+        <v>13087249</v>
       </c>
       <c r="S261" s="13" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T261" s="13">
-        <v>700</v>
+        <v>789</v>
       </c>
       <c r="U261" s="13">
-        <v>1077</v>
+        <v>1128</v>
       </c>
       <c r="V261" s="13">
-        <v>1795</v>
+        <v>192</v>
       </c>
       <c r="W261" s="13">
-        <v>2934</v>
+        <v>1211</v>
       </c>
       <c r="X261" s="13">
-        <v>402</v>
+        <v>340</v>
       </c>
       <c r="Y261" s="13">
-        <v>407</v>
+        <v>629</v>
       </c>
       <c r="Z261" s="13">
-        <v>59.95</v>
+        <v>89.706000000000003</v>
       </c>
       <c r="AA261" s="13">
         <v>0</v>
@@ -33845,16 +33846,16 @@
         <v>1</v>
       </c>
       <c r="AC261" s="13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD261" s="13">
         <v>0</v>
       </c>
       <c r="AE261" s="13" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="AF261" s="13">
-        <v>2961</v>
+        <v>1214</v>
       </c>
       <c r="AG261" s="13" t="s">
         <v>2080</v>
@@ -33862,19 +33863,19 @@
     </row>
     <row r="262" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
-        <v>2017</v>
+        <v>2140</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>1715</v>
+        <v>2141</v>
       </c>
       <c r="C262" s="12">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D262" s="13" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="E262" s="13" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="F262" s="13" t="s">
         <v>30</v>
@@ -33889,55 +33890,55 @@
         <v>497</v>
       </c>
       <c r="J262" s="13" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="K262" s="13" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L262" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M262" s="13" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="N262" s="13" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="O262" s="13" t="s">
-        <v>1638</v>
+        <v>1570</v>
       </c>
       <c r="P262" s="13" t="s">
         <v>35</v>
       </c>
       <c r="Q262" s="13">
-        <v>3395</v>
+        <v>5470</v>
       </c>
       <c r="R262" s="13">
-        <v>6086</v>
+        <v>8475</v>
       </c>
       <c r="S262" s="13" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T262" s="13">
-        <v>649</v>
+        <v>743</v>
       </c>
       <c r="U262" s="13">
-        <v>961</v>
+        <v>1203</v>
       </c>
       <c r="V262" s="13">
-        <v>1278</v>
+        <v>1615</v>
       </c>
       <c r="W262" s="13">
-        <v>2219</v>
+        <v>3006</v>
       </c>
       <c r="X262" s="13">
-        <v>315</v>
+        <v>474</v>
       </c>
       <c r="Y262" s="13">
-        <v>354</v>
+        <v>511</v>
       </c>
       <c r="Z262" s="13">
-        <v>63.174999999999997</v>
+        <v>62.658000000000001</v>
       </c>
       <c r="AA262" s="13">
         <v>0</v>
@@ -33946,16 +33947,16 @@
         <v>1</v>
       </c>
       <c r="AC262" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD262" s="13">
         <v>0</v>
       </c>
       <c r="AE262" s="13" t="s">
-        <v>1639</v>
+        <v>2134</v>
       </c>
       <c r="AF262" s="13">
-        <v>2692</v>
+        <v>3006</v>
       </c>
       <c r="AG262" s="13" t="s">
         <v>2080</v>
@@ -33963,10 +33964,10 @@
     </row>
     <row r="263" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
-        <v>2019</v>
+        <v>2142</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>2132</v>
+        <v>2141</v>
       </c>
       <c r="C263" s="12">
         <v>86</v>
@@ -33975,7 +33976,7 @@
         <v>1778</v>
       </c>
       <c r="E263" s="13" t="s">
-        <v>895</v>
+        <v>496</v>
       </c>
       <c r="F263" s="13" t="s">
         <v>30</v>
@@ -33990,55 +33991,55 @@
         <v>497</v>
       </c>
       <c r="J263" s="13" t="s">
-        <v>896</v>
+        <v>498</v>
       </c>
       <c r="K263" s="13" t="s">
-        <v>895</v>
+        <v>496</v>
       </c>
       <c r="L263" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M263" s="13" t="s">
-        <v>897</v>
+        <v>499</v>
       </c>
       <c r="N263" s="13" t="s">
-        <v>898</v>
+        <v>500</v>
       </c>
       <c r="O263" s="13" t="s">
-        <v>1139</v>
+        <v>1571</v>
       </c>
       <c r="P263" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q263" s="13">
-        <v>34938448</v>
+        <v>1038</v>
       </c>
       <c r="R263" s="13">
-        <v>34942308</v>
+        <v>3744</v>
       </c>
       <c r="S263" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T263" s="13">
-        <v>677</v>
+        <v>594</v>
       </c>
       <c r="U263" s="13">
-        <v>1034</v>
+        <v>1007</v>
       </c>
       <c r="V263" s="13">
-        <v>2749</v>
+        <v>832</v>
       </c>
       <c r="W263" s="13">
-        <v>3861</v>
+        <v>2091</v>
       </c>
       <c r="X263" s="13">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="Y263" s="13">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="Z263" s="13">
-        <v>76.55</v>
+        <v>69.834000000000003</v>
       </c>
       <c r="AA263" s="13">
         <v>0</v>
@@ -34047,16 +34048,16 @@
         <v>1</v>
       </c>
       <c r="AC263" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD263" s="13">
         <v>0</v>
       </c>
       <c r="AE263" s="13" t="s">
-        <v>1142</v>
+        <v>1572</v>
       </c>
       <c r="AF263" s="13">
-        <v>3861</v>
+        <v>2707</v>
       </c>
       <c r="AG263" s="13" t="s">
         <v>2080</v>
@@ -34064,7 +34065,7 @@
     </row>
     <row r="264" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>1582</v>
@@ -34076,7 +34077,7 @@
         <v>1778</v>
       </c>
       <c r="E264" s="13" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F264" s="13" t="s">
         <v>30</v>
@@ -34091,55 +34092,55 @@
         <v>497</v>
       </c>
       <c r="J264" s="13" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="K264" s="13" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="L264" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M264" s="13" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="N264" s="13" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="O264" s="13" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="P264" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q264" s="13">
-        <v>43352</v>
+        <v>121141</v>
       </c>
       <c r="R264" s="13">
-        <v>46501</v>
+        <v>124165</v>
       </c>
       <c r="S264" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T264" s="13">
-        <v>277</v>
+        <v>96</v>
       </c>
       <c r="U264" s="13">
-        <v>585</v>
+        <v>497</v>
       </c>
       <c r="V264" s="13">
-        <v>687</v>
+        <v>22</v>
       </c>
       <c r="W264" s="13">
-        <v>1613</v>
+        <v>1215</v>
       </c>
       <c r="X264" s="13">
-        <v>309</v>
+        <v>405</v>
       </c>
       <c r="Y264" s="13">
-        <v>641</v>
+        <v>454</v>
       </c>
       <c r="Z264" s="13">
-        <v>100</v>
+        <v>63.21</v>
       </c>
       <c r="AA264" s="13">
         <v>0</v>
@@ -34148,7 +34149,7 @@
         <v>1</v>
       </c>
       <c r="AC264" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD264" s="13">
         <v>0</v>
@@ -34157,7 +34158,7 @@
         <v>1585</v>
       </c>
       <c r="AF264" s="13">
-        <v>3150</v>
+        <v>3025</v>
       </c>
       <c r="AG264" s="13" t="s">
         <v>2080</v>
@@ -34165,10 +34166,10 @@
     </row>
     <row r="265" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
-        <v>2019</v>
+        <v>2143</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>1582</v>
+        <v>2141</v>
       </c>
       <c r="C265" s="12">
         <v>86</v>
@@ -34177,7 +34178,7 @@
         <v>1778</v>
       </c>
       <c r="E265" s="13" t="s">
-        <v>895</v>
+        <v>514</v>
       </c>
       <c r="F265" s="13" t="s">
         <v>30</v>
@@ -34192,73 +34193,73 @@
         <v>497</v>
       </c>
       <c r="J265" s="13" t="s">
-        <v>896</v>
+        <v>515</v>
       </c>
       <c r="K265" s="13" t="s">
-        <v>895</v>
+        <v>514</v>
       </c>
       <c r="L265" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M265" s="13" t="s">
-        <v>897</v>
+        <v>516</v>
       </c>
       <c r="N265" s="13" t="s">
-        <v>898</v>
+        <v>517</v>
       </c>
       <c r="O265" s="13" t="s">
-        <v>1581</v>
+        <v>1573</v>
       </c>
       <c r="P265" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q265" s="13">
-        <v>13086036</v>
+        <v>554</v>
       </c>
       <c r="R265" s="13">
-        <v>13087249</v>
+        <v>4026</v>
       </c>
       <c r="S265" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T265" s="13">
-        <v>789</v>
+        <v>364</v>
       </c>
       <c r="U265" s="13">
-        <v>1128</v>
+        <v>741</v>
       </c>
       <c r="V265" s="13">
-        <v>192</v>
+        <v>912</v>
       </c>
       <c r="W265" s="13">
-        <v>1211</v>
+        <v>2036</v>
       </c>
       <c r="X265" s="13">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="Y265" s="13">
-        <v>629</v>
+        <v>427</v>
       </c>
       <c r="Z265" s="13">
-        <v>89.706000000000003</v>
+        <v>72.486999999999995</v>
       </c>
       <c r="AA265" s="13">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AB265" s="13">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="AC265" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD265" s="13">
         <v>0</v>
       </c>
       <c r="AE265" s="13" t="s">
-        <v>1583</v>
+        <v>2135</v>
       </c>
       <c r="AF265" s="13">
-        <v>1214</v>
+        <v>3473</v>
       </c>
       <c r="AG265" s="13" t="s">
         <v>2080</v>
@@ -34266,7 +34267,7 @@
     </row>
     <row r="266" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
-        <v>2140</v>
+        <v>2018</v>
       </c>
       <c r="B266" s="4" t="s">
         <v>2141</v>
@@ -34278,7 +34279,7 @@
         <v>1778</v>
       </c>
       <c r="E266" s="13" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="F266" s="13" t="s">
         <v>30</v>
@@ -34293,73 +34294,73 @@
         <v>497</v>
       </c>
       <c r="J266" s="13" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
       <c r="K266" s="13" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="L266" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M266" s="13" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="N266" s="13" t="s">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="O266" s="13" t="s">
-        <v>1570</v>
+        <v>1574</v>
       </c>
       <c r="P266" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q266" s="13">
-        <v>5470</v>
+        <v>13800</v>
       </c>
       <c r="R266" s="13">
-        <v>8475</v>
+        <v>17595</v>
       </c>
       <c r="S266" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T266" s="13">
-        <v>743</v>
+        <v>812</v>
       </c>
       <c r="U266" s="13">
-        <v>1203</v>
+        <v>1121</v>
       </c>
       <c r="V266" s="13">
-        <v>1615</v>
+        <v>2587</v>
       </c>
       <c r="W266" s="13">
-        <v>3006</v>
+        <v>3507</v>
       </c>
       <c r="X266" s="13">
-        <v>474</v>
+        <v>317</v>
       </c>
       <c r="Y266" s="13">
-        <v>511</v>
+        <v>345</v>
       </c>
       <c r="Z266" s="13">
-        <v>62.658000000000001</v>
+        <v>64.352999999999994</v>
       </c>
       <c r="AA266" s="13">
-        <v>0</v>
+        <v>5.91</v>
       </c>
       <c r="AB266" s="13">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="AC266" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD266" s="13">
         <v>0</v>
       </c>
       <c r="AE266" s="13" t="s">
-        <v>2134</v>
+        <v>1575</v>
       </c>
       <c r="AF266" s="13">
-        <v>3006</v>
+        <v>3796</v>
       </c>
       <c r="AG266" s="13" t="s">
         <v>2080</v>
@@ -34367,7 +34368,7 @@
     </row>
     <row r="267" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>2141</v>
@@ -34379,7 +34380,7 @@
         <v>1778</v>
       </c>
       <c r="E267" s="13" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="F267" s="13" t="s">
         <v>30</v>
@@ -34394,55 +34395,55 @@
         <v>497</v>
       </c>
       <c r="J267" s="13" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="K267" s="13" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="L267" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M267" s="13" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="N267" s="13" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="O267" s="13" t="s">
-        <v>1571</v>
+        <v>1578</v>
       </c>
       <c r="P267" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q267" s="13">
-        <v>1038</v>
+        <v>189590</v>
       </c>
       <c r="R267" s="13">
-        <v>3744</v>
+        <v>193100</v>
       </c>
       <c r="S267" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T267" s="13">
-        <v>594</v>
+        <v>1</v>
       </c>
       <c r="U267" s="13">
-        <v>1007</v>
+        <v>208</v>
       </c>
       <c r="V267" s="13">
-        <v>832</v>
+        <v>7</v>
       </c>
       <c r="W267" s="13">
-        <v>2091</v>
+        <v>636</v>
       </c>
       <c r="X267" s="13">
-        <v>421</v>
+        <v>211</v>
       </c>
       <c r="Y267" s="13">
-        <v>509</v>
+        <v>345</v>
       </c>
       <c r="Z267" s="13">
-        <v>69.834000000000003</v>
+        <v>81.991</v>
       </c>
       <c r="AA267" s="13">
         <v>0</v>
@@ -34451,16 +34452,16 @@
         <v>1</v>
       </c>
       <c r="AC267" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD267" s="13">
         <v>0</v>
       </c>
       <c r="AE267" s="13" t="s">
-        <v>1572</v>
+        <v>1579</v>
       </c>
       <c r="AF267" s="13">
-        <v>2707</v>
+        <v>3511</v>
       </c>
       <c r="AG267" s="13" t="s">
         <v>2080</v>
@@ -34471,7 +34472,7 @@
         <v>2020</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>1582</v>
+        <v>2141</v>
       </c>
       <c r="C268" s="12">
         <v>86</v>
@@ -34510,40 +34511,40 @@
         <v>523</v>
       </c>
       <c r="O268" s="13" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="P268" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q268" s="13">
-        <v>121141</v>
+        <v>70846</v>
       </c>
       <c r="R268" s="13">
-        <v>124165</v>
+        <v>74183</v>
       </c>
       <c r="S268" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T268" s="13">
-        <v>96</v>
+        <v>753</v>
       </c>
       <c r="U268" s="13">
-        <v>497</v>
+        <v>925</v>
       </c>
       <c r="V268" s="13">
-        <v>22</v>
+        <v>2198</v>
       </c>
       <c r="W268" s="13">
-        <v>1215</v>
+        <v>2719</v>
       </c>
       <c r="X268" s="13">
-        <v>405</v>
+        <v>174</v>
       </c>
       <c r="Y268" s="13">
-        <v>454</v>
+        <v>319</v>
       </c>
       <c r="Z268" s="13">
-        <v>63.21</v>
+        <v>88.506</v>
       </c>
       <c r="AA268" s="13">
         <v>0</v>
@@ -34552,16 +34553,16 @@
         <v>1</v>
       </c>
       <c r="AC268" s="13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AD268" s="13">
         <v>0</v>
       </c>
       <c r="AE268" s="13" t="s">
-        <v>1585</v>
+        <v>2136</v>
       </c>
       <c r="AF268" s="13">
-        <v>3025</v>
+        <v>3338</v>
       </c>
       <c r="AG268" s="13" t="s">
         <v>2080</v>
@@ -34569,7 +34570,7 @@
     </row>
     <row r="269" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>2141</v>
@@ -34581,7 +34582,7 @@
         <v>1778</v>
       </c>
       <c r="E269" s="13" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="F269" s="13" t="s">
         <v>30</v>
@@ -34596,73 +34597,73 @@
         <v>497</v>
       </c>
       <c r="J269" s="13" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="K269" s="13" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="L269" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M269" s="13" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="N269" s="13" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="O269" s="13" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="P269" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q269" s="13">
-        <v>554</v>
+        <v>412191</v>
       </c>
       <c r="R269" s="13">
-        <v>4026</v>
+        <v>412460</v>
       </c>
       <c r="S269" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T269" s="13">
-        <v>364</v>
+        <v>204</v>
       </c>
       <c r="U269" s="13">
-        <v>741</v>
+        <v>293</v>
       </c>
       <c r="V269" s="13">
-        <v>912</v>
+        <v>1</v>
       </c>
       <c r="W269" s="13">
-        <v>2036</v>
+        <v>270</v>
       </c>
       <c r="X269" s="13">
-        <v>378</v>
+        <v>90</v>
       </c>
       <c r="Y269" s="13">
-        <v>427</v>
+        <v>119</v>
       </c>
       <c r="Z269" s="13">
-        <v>72.486999999999995</v>
+        <v>77.778000000000006</v>
       </c>
       <c r="AA269" s="13">
-        <v>1.77</v>
+        <v>5.79</v>
       </c>
       <c r="AB269" s="13">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="AC269" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD269" s="13">
         <v>0</v>
       </c>
       <c r="AE269" s="13" t="s">
-        <v>2135</v>
+        <v>1577</v>
       </c>
       <c r="AF269" s="13">
-        <v>3473</v>
+        <v>270</v>
       </c>
       <c r="AG269" s="13" t="s">
         <v>2080</v>
@@ -34670,19 +34671,19 @@
     </row>
     <row r="270" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>2141</v>
+        <v>1722</v>
       </c>
       <c r="C270" s="12">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D270" s="13" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="E270" s="13" t="s">
-        <v>528</v>
+        <v>110</v>
       </c>
       <c r="F270" s="13" t="s">
         <v>30</v>
@@ -34694,76 +34695,76 @@
         <v>59</v>
       </c>
       <c r="I270" s="13" t="s">
-        <v>497</v>
+        <v>111</v>
       </c>
       <c r="J270" s="13" t="s">
-        <v>529</v>
+        <v>112</v>
       </c>
       <c r="K270" s="13" t="s">
-        <v>528</v>
+        <v>110</v>
       </c>
       <c r="L270" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M270" s="13" t="s">
-        <v>530</v>
+        <v>113</v>
       </c>
       <c r="N270" s="13" t="s">
-        <v>531</v>
+        <v>114</v>
       </c>
       <c r="O270" s="13" t="s">
-        <v>1574</v>
+        <v>1692</v>
       </c>
       <c r="P270" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q270" s="13">
-        <v>13800</v>
+        <v>334419</v>
       </c>
       <c r="R270" s="13">
-        <v>17595</v>
+        <v>336723</v>
       </c>
       <c r="S270" s="13" t="s">
-        <v>36</v>
+        <v>290</v>
       </c>
       <c r="T270" s="13">
-        <v>812</v>
+        <v>1</v>
       </c>
       <c r="U270" s="13">
-        <v>1121</v>
+        <v>768</v>
       </c>
       <c r="V270" s="13">
-        <v>2587</v>
+        <v>1</v>
       </c>
       <c r="W270" s="13">
-        <v>3507</v>
+        <v>2304</v>
       </c>
       <c r="X270" s="13">
-        <v>317</v>
+        <v>768</v>
       </c>
       <c r="Y270" s="13">
-        <v>345</v>
+        <v>1360</v>
       </c>
       <c r="Z270" s="13">
-        <v>64.352999999999994</v>
+        <v>100</v>
       </c>
       <c r="AA270" s="13">
-        <v>5.91</v>
+        <v>0</v>
       </c>
       <c r="AB270" s="13">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="AC270" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AD270" s="13">
         <v>0</v>
       </c>
       <c r="AE270" s="13" t="s">
-        <v>1575</v>
+        <v>1693</v>
       </c>
       <c r="AF270" s="13">
-        <v>3796</v>
+        <v>2305</v>
       </c>
       <c r="AG270" s="13" t="s">
         <v>2080</v>
@@ -34771,100 +34772,100 @@
     </row>
     <row r="271" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
-        <v>2144</v>
+        <v>2023</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>2141</v>
+        <v>289</v>
       </c>
       <c r="C271" s="12">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D271" s="13" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="E271" s="13" t="s">
-        <v>508</v>
+        <v>283</v>
       </c>
       <c r="F271" s="13" t="s">
         <v>30</v>
       </c>
       <c r="G271" s="13" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="H271" s="13" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="I271" s="13" t="s">
-        <v>497</v>
+        <v>284</v>
       </c>
       <c r="J271" s="13" t="s">
-        <v>509</v>
+        <v>285</v>
       </c>
       <c r="K271" s="13" t="s">
-        <v>508</v>
+        <v>283</v>
       </c>
       <c r="L271" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M271" s="13" t="s">
-        <v>510</v>
+        <v>286</v>
       </c>
       <c r="N271" s="13" t="s">
-        <v>511</v>
+        <v>287</v>
       </c>
       <c r="O271" s="13" t="s">
-        <v>1578</v>
+        <v>288</v>
       </c>
       <c r="P271" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q271" s="13">
-        <v>189590</v>
+        <v>1004</v>
       </c>
       <c r="R271" s="13">
-        <v>193100</v>
+        <v>1654</v>
       </c>
       <c r="S271" s="13" t="s">
-        <v>36</v>
+        <v>290</v>
       </c>
       <c r="T271" s="13">
         <v>1</v>
       </c>
       <c r="U271" s="13">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="V271" s="13">
         <v>7</v>
       </c>
       <c r="W271" s="13">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="X271" s="13">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Y271" s="13">
-        <v>345</v>
+        <v>441</v>
       </c>
       <c r="Z271" s="13">
-        <v>81.991</v>
+        <v>100</v>
       </c>
       <c r="AA271" s="13">
-        <v>0</v>
+        <v>3.37</v>
       </c>
       <c r="AB271" s="13">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="AC271" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD271" s="13">
         <v>0</v>
       </c>
       <c r="AE271" s="13" t="s">
-        <v>1579</v>
+        <v>291</v>
       </c>
       <c r="AF271" s="13">
-        <v>3511</v>
+        <v>651</v>
       </c>
       <c r="AG271" s="13" t="s">
         <v>2080</v>
@@ -34872,19 +34873,19 @@
     </row>
     <row r="272" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>2141</v>
+        <v>415</v>
       </c>
       <c r="C272" s="12">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="D272" s="13" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E272" s="13" t="s">
-        <v>520</v>
+        <v>409</v>
       </c>
       <c r="F272" s="13" t="s">
         <v>30</v>
@@ -34896,58 +34897,58 @@
         <v>59</v>
       </c>
       <c r="I272" s="13" t="s">
-        <v>497</v>
+        <v>410</v>
       </c>
       <c r="J272" s="13" t="s">
-        <v>521</v>
+        <v>411</v>
       </c>
       <c r="K272" s="13" t="s">
-        <v>520</v>
+        <v>409</v>
       </c>
       <c r="L272" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M272" s="13" t="s">
-        <v>522</v>
+        <v>412</v>
       </c>
       <c r="N272" s="13" t="s">
-        <v>523</v>
+        <v>413</v>
       </c>
       <c r="O272" s="13" t="s">
-        <v>1580</v>
+        <v>414</v>
       </c>
       <c r="P272" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q272" s="13">
-        <v>70846</v>
+        <v>228360</v>
       </c>
       <c r="R272" s="13">
-        <v>74183</v>
+        <v>236911</v>
       </c>
       <c r="S272" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T272" s="13">
-        <v>753</v>
+        <v>372</v>
       </c>
       <c r="U272" s="13">
-        <v>925</v>
+        <v>506</v>
       </c>
       <c r="V272" s="13">
-        <v>2198</v>
+        <v>1146</v>
       </c>
       <c r="W272" s="13">
-        <v>2719</v>
+        <v>1550</v>
       </c>
       <c r="X272" s="13">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="Y272" s="13">
-        <v>319</v>
+        <v>246</v>
       </c>
       <c r="Z272" s="13">
-        <v>88.506</v>
+        <v>100</v>
       </c>
       <c r="AA272" s="13">
         <v>0</v>
@@ -34956,16 +34957,16 @@
         <v>1</v>
       </c>
       <c r="AC272" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD272" s="13">
         <v>0</v>
       </c>
       <c r="AE272" s="13" t="s">
-        <v>2136</v>
+        <v>416</v>
       </c>
       <c r="AF272" s="13">
-        <v>3338</v>
+        <v>8552</v>
       </c>
       <c r="AG272" s="13" t="s">
         <v>2080</v>
@@ -34973,19 +34974,19 @@
     </row>
     <row r="273" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
-        <v>2140</v>
+        <v>2025</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>2141</v>
+        <v>415</v>
       </c>
       <c r="C273" s="12">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="D273" s="13" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E273" s="13" t="s">
-        <v>503</v>
+        <v>417</v>
       </c>
       <c r="F273" s="13" t="s">
         <v>30</v>
@@ -34997,76 +34998,76 @@
         <v>59</v>
       </c>
       <c r="I273" s="13" t="s">
-        <v>497</v>
+        <v>410</v>
       </c>
       <c r="J273" s="13" t="s">
-        <v>504</v>
+        <v>418</v>
       </c>
       <c r="K273" s="13" t="s">
-        <v>503</v>
+        <v>417</v>
       </c>
       <c r="L273" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M273" s="13" t="s">
-        <v>505</v>
+        <v>419</v>
       </c>
       <c r="N273" s="13" t="s">
-        <v>506</v>
+        <v>420</v>
       </c>
       <c r="O273" s="13" t="s">
-        <v>1576</v>
+        <v>421</v>
       </c>
       <c r="P273" s="13" t="s">
         <v>35</v>
       </c>
       <c r="Q273" s="13">
-        <v>412191</v>
+        <v>9090</v>
       </c>
       <c r="R273" s="13">
-        <v>412460</v>
+        <v>9527</v>
       </c>
       <c r="S273" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T273" s="13">
-        <v>204</v>
+        <v>1121</v>
       </c>
       <c r="U273" s="13">
-        <v>293</v>
+        <v>1267</v>
       </c>
       <c r="V273" s="13">
         <v>1</v>
       </c>
       <c r="W273" s="13">
-        <v>270</v>
+        <v>438</v>
       </c>
       <c r="X273" s="13">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="Y273" s="13">
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="Z273" s="13">
-        <v>77.778000000000006</v>
+        <v>75.510000000000005</v>
       </c>
       <c r="AA273" s="13">
-        <v>5.79</v>
+        <v>1.3</v>
       </c>
       <c r="AB273" s="13">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="AC273" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD273" s="13">
         <v>0</v>
       </c>
       <c r="AE273" s="13" t="s">
-        <v>1577</v>
+        <v>422</v>
       </c>
       <c r="AF273" s="13">
-        <v>270</v>
+        <v>438</v>
       </c>
       <c r="AG273" s="13" t="s">
         <v>2080</v>
@@ -35074,82 +35075,82 @@
     </row>
     <row r="274" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
-        <v>2021</v>
+        <v>2087</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>1722</v>
+        <v>2082</v>
       </c>
       <c r="C274" s="12">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="D274" s="13" t="s">
-        <v>1779</v>
+        <v>1783</v>
       </c>
       <c r="E274" s="13" t="s">
-        <v>110</v>
+        <v>1539</v>
       </c>
       <c r="F274" s="13" t="s">
         <v>30</v>
       </c>
       <c r="G274" s="13" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H274" s="13" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="I274" s="13" t="s">
-        <v>111</v>
+        <v>1540</v>
       </c>
       <c r="J274" s="13" t="s">
-        <v>112</v>
+        <v>1541</v>
       </c>
       <c r="K274" s="13" t="s">
-        <v>110</v>
+        <v>1539</v>
       </c>
       <c r="L274" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M274" s="13" t="s">
-        <v>113</v>
+        <v>1542</v>
       </c>
       <c r="N274" s="13" t="s">
-        <v>114</v>
+        <v>1543</v>
       </c>
       <c r="O274" s="13" t="s">
-        <v>1692</v>
+        <v>1544</v>
       </c>
       <c r="P274" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q274" s="13">
-        <v>334419</v>
+        <v>238713</v>
       </c>
       <c r="R274" s="13">
-        <v>336723</v>
+        <v>242586</v>
       </c>
       <c r="S274" s="13" t="s">
-        <v>290</v>
+        <v>36</v>
       </c>
       <c r="T274" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U274" s="13">
-        <v>768</v>
+        <v>695</v>
       </c>
       <c r="V274" s="13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="W274" s="13">
-        <v>2304</v>
+        <v>2103</v>
       </c>
       <c r="X274" s="13">
-        <v>768</v>
+        <v>708</v>
       </c>
       <c r="Y274" s="13">
-        <v>1360</v>
+        <v>1147</v>
       </c>
       <c r="Z274" s="13">
-        <v>100</v>
+        <v>86.722999999999999</v>
       </c>
       <c r="AA274" s="13">
         <v>0</v>
@@ -35158,16 +35159,16 @@
         <v>1</v>
       </c>
       <c r="AC274" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD274" s="13">
         <v>0</v>
       </c>
       <c r="AE274" s="13" t="s">
-        <v>1693</v>
+        <v>1545</v>
       </c>
       <c r="AF274" s="13">
-        <v>2305</v>
+        <v>3874</v>
       </c>
       <c r="AG274" s="13" t="s">
         <v>2080</v>
@@ -35175,58 +35176,58 @@
     </row>
     <row r="275" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
-        <v>2022</v>
+        <v>2155</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>1729</v>
+        <v>2083</v>
       </c>
       <c r="C275" s="12">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="D275" s="13" t="s">
-        <v>1780</v>
+        <v>2085</v>
       </c>
       <c r="E275" s="13" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F275" s="13" t="s">
         <v>30</v>
       </c>
       <c r="G275" s="13" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H275" s="13" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="I275" s="13" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="J275" s="13" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="K275" s="13" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="L275" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M275" s="13" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="N275" s="13" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="O275" s="13" t="s">
-        <v>115</v>
+        <v>1546</v>
       </c>
       <c r="P275" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q275" s="13">
-        <v>14612</v>
+        <v>10412</v>
       </c>
       <c r="R275" s="13">
-        <v>16090</v>
+        <v>10987</v>
       </c>
       <c r="S275" s="13" t="s">
         <v>76</v>
@@ -35235,28 +35236,28 @@
         <v>1</v>
       </c>
       <c r="U275" s="13">
-        <v>493</v>
+        <v>192</v>
       </c>
       <c r="V275" s="13">
         <v>1</v>
       </c>
       <c r="W275" s="13">
-        <v>1479</v>
+        <v>576</v>
       </c>
       <c r="X275" s="13">
-        <v>493</v>
+        <v>192</v>
       </c>
       <c r="Y275" s="13">
-        <v>917</v>
+        <v>380</v>
       </c>
       <c r="Z275" s="13">
         <v>100</v>
       </c>
       <c r="AA275" s="13">
-        <v>0</v>
+        <v>5.03</v>
       </c>
       <c r="AB275" s="13">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="AC275" s="13">
         <v>0</v>
@@ -35265,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="AE275" s="13" t="s">
-        <v>117</v>
+        <v>1547</v>
       </c>
       <c r="AF275" s="13">
-        <v>1479</v>
+        <v>576</v>
       </c>
       <c r="AG275" s="13" t="s">
         <v>2080</v>
@@ -35276,88 +35277,88 @@
     </row>
     <row r="276" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
-        <v>2023</v>
+        <v>2154</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>289</v>
+        <v>2084</v>
       </c>
       <c r="C276" s="12">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="D276" s="13" t="s">
-        <v>1781</v>
+        <v>2086</v>
       </c>
       <c r="E276" s="13" t="s">
-        <v>283</v>
+        <v>127</v>
       </c>
       <c r="F276" s="13" t="s">
         <v>30</v>
       </c>
       <c r="G276" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H276" s="13" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="I276" s="13" t="s">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="J276" s="13" t="s">
-        <v>285</v>
+        <v>130</v>
       </c>
       <c r="K276" s="13" t="s">
-        <v>283</v>
+        <v>127</v>
       </c>
       <c r="L276" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M276" s="13" t="s">
-        <v>286</v>
+        <v>131</v>
       </c>
       <c r="N276" s="13" t="s">
-        <v>287</v>
+        <v>132</v>
       </c>
       <c r="O276" s="13" t="s">
-        <v>288</v>
+        <v>1604</v>
       </c>
       <c r="P276" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q276" s="13">
-        <v>1004</v>
+        <v>7173</v>
       </c>
       <c r="R276" s="13">
-        <v>1654</v>
+        <v>9111</v>
       </c>
       <c r="S276" s="13" t="s">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="T276" s="13">
         <v>1</v>
       </c>
       <c r="U276" s="13">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="V276" s="13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="W276" s="13">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="X276" s="13">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Y276" s="13">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="Z276" s="13">
         <v>100</v>
       </c>
       <c r="AA276" s="13">
-        <v>3.37</v>
+        <v>1.31</v>
       </c>
       <c r="AB276" s="13">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="AC276" s="13">
         <v>0</v>
@@ -35366,10 +35367,10 @@
         <v>0</v>
       </c>
       <c r="AE276" s="13" t="s">
-        <v>291</v>
+        <v>1605</v>
       </c>
       <c r="AF276" s="13">
-        <v>651</v>
+        <v>1939</v>
       </c>
       <c r="AG276" s="13" t="s">
         <v>2080</v>
@@ -35377,100 +35378,100 @@
     </row>
     <row r="277" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
-        <v>2024</v>
+        <v>2121</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>415</v>
+        <v>2122</v>
       </c>
       <c r="C277" s="12">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D277" s="13" t="s">
-        <v>1782</v>
+        <v>2123</v>
       </c>
       <c r="E277" s="13" t="s">
-        <v>409</v>
+        <v>127</v>
       </c>
       <c r="F277" s="13" t="s">
         <v>30</v>
       </c>
       <c r="G277" s="13" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H277" s="13" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="I277" s="13" t="s">
-        <v>410</v>
+        <v>129</v>
       </c>
       <c r="J277" s="13" t="s">
-        <v>411</v>
+        <v>130</v>
       </c>
       <c r="K277" s="13" t="s">
-        <v>409</v>
+        <v>127</v>
       </c>
       <c r="L277" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M277" s="13" t="s">
-        <v>412</v>
+        <v>131</v>
       </c>
       <c r="N277" s="13" t="s">
-        <v>413</v>
+        <v>132</v>
       </c>
       <c r="O277" s="13" t="s">
-        <v>414</v>
+        <v>136</v>
       </c>
       <c r="P277" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q277" s="13">
-        <v>228360</v>
+        <v>572</v>
       </c>
       <c r="R277" s="13">
-        <v>236911</v>
+        <v>2239</v>
       </c>
       <c r="S277" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T277" s="13">
-        <v>372</v>
+        <v>64</v>
       </c>
       <c r="U277" s="13">
-        <v>506</v>
+        <v>230</v>
       </c>
       <c r="V277" s="13">
-        <v>1146</v>
+        <v>1668</v>
       </c>
       <c r="W277" s="13">
-        <v>1550</v>
+        <v>1117</v>
       </c>
       <c r="X277" s="13">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="Y277" s="13">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="Z277" s="13">
-        <v>100</v>
+        <v>42.104999999999997</v>
       </c>
       <c r="AA277" s="13">
-        <v>0</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="AB277" s="13">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="AC277" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD277" s="13">
         <v>0</v>
       </c>
       <c r="AE277" s="13" t="s">
-        <v>416</v>
+        <v>137</v>
       </c>
       <c r="AF277" s="13">
-        <v>8552</v>
+        <v>1668</v>
       </c>
       <c r="AG277" s="13" t="s">
         <v>2080</v>
@@ -35478,19 +35479,19 @@
     </row>
     <row r="278" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="C278" s="12">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D278" s="13" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="E278" s="13" t="s">
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="F278" s="13" t="s">
         <v>30</v>
@@ -35502,76 +35503,76 @@
         <v>59</v>
       </c>
       <c r="I278" s="13" t="s">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="J278" s="13" t="s">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="K278" s="13" t="s">
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="L278" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M278" s="13" t="s">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="N278" s="13" t="s">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="O278" s="13" t="s">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="P278" s="13" t="s">
         <v>35</v>
       </c>
       <c r="Q278" s="13">
-        <v>9090</v>
+        <v>121789</v>
       </c>
       <c r="R278" s="13">
-        <v>9527</v>
+        <v>125514</v>
       </c>
       <c r="S278" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T278" s="13">
-        <v>1121</v>
+        <v>1</v>
       </c>
       <c r="U278" s="13">
-        <v>1267</v>
+        <v>539</v>
       </c>
       <c r="V278" s="13">
         <v>1</v>
       </c>
       <c r="W278" s="13">
-        <v>438</v>
+        <v>1617</v>
       </c>
       <c r="X278" s="13">
-        <v>147</v>
+        <v>539</v>
       </c>
       <c r="Y278" s="13">
-        <v>218</v>
+        <v>1130</v>
       </c>
       <c r="Z278" s="13">
-        <v>75.510000000000005</v>
+        <v>99.813999999999993</v>
       </c>
       <c r="AA278" s="13">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AB278" s="13">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="AC278" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD278" s="13">
         <v>0</v>
       </c>
       <c r="AE278" s="13" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
       <c r="AF278" s="13">
-        <v>438</v>
+        <v>3726</v>
       </c>
       <c r="AG278" s="13" t="s">
         <v>2080</v>
@@ -35579,82 +35580,82 @@
     </row>
     <row r="279" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
-        <v>2087</v>
+        <v>2027</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>2082</v>
+        <v>476</v>
       </c>
       <c r="C279" s="12">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D279" s="13" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="E279" s="13" t="s">
-        <v>1539</v>
+        <v>49</v>
       </c>
       <c r="F279" s="13" t="s">
         <v>30</v>
       </c>
       <c r="G279" s="13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H279" s="13" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="I279" s="13" t="s">
-        <v>1540</v>
+        <v>45</v>
       </c>
       <c r="J279" s="13" t="s">
-        <v>1541</v>
+        <v>50</v>
       </c>
       <c r="K279" s="13" t="s">
-        <v>1539</v>
+        <v>49</v>
       </c>
       <c r="L279" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M279" s="13" t="s">
-        <v>1542</v>
+        <v>51</v>
       </c>
       <c r="N279" s="13" t="s">
-        <v>1543</v>
+        <v>52</v>
       </c>
       <c r="O279" s="13" t="s">
-        <v>1544</v>
+        <v>478</v>
       </c>
       <c r="P279" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q279" s="13">
-        <v>238713</v>
+        <v>37881</v>
       </c>
       <c r="R279" s="13">
-        <v>242586</v>
+        <v>39623</v>
       </c>
       <c r="S279" s="13" t="s">
-        <v>36</v>
+        <v>290</v>
       </c>
       <c r="T279" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U279" s="13">
-        <v>695</v>
+        <v>581</v>
       </c>
       <c r="V279" s="13">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="W279" s="13">
-        <v>2103</v>
+        <v>1743</v>
       </c>
       <c r="X279" s="13">
-        <v>708</v>
+        <v>581</v>
       </c>
       <c r="Y279" s="13">
-        <v>1147</v>
+        <v>1167</v>
       </c>
       <c r="Z279" s="13">
-        <v>86.722999999999999</v>
+        <v>100</v>
       </c>
       <c r="AA279" s="13">
         <v>0</v>
@@ -35663,16 +35664,16 @@
         <v>1</v>
       </c>
       <c r="AC279" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD279" s="13">
         <v>0</v>
       </c>
       <c r="AE279" s="13" t="s">
-        <v>1545</v>
+        <v>479</v>
       </c>
       <c r="AF279" s="13">
-        <v>3874</v>
+        <v>1743</v>
       </c>
       <c r="AG279" s="13" t="s">
         <v>2080</v>
@@ -35680,88 +35681,88 @@
     </row>
     <row r="280" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
-        <v>2155</v>
+        <v>2028</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>2083</v>
+        <v>476</v>
       </c>
       <c r="C280" s="12">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D280" s="13" t="s">
-        <v>2085</v>
+        <v>1785</v>
       </c>
       <c r="E280" s="13" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="F280" s="13" t="s">
         <v>30</v>
       </c>
       <c r="G280" s="13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H280" s="13" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="I280" s="13" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="J280" s="13" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="K280" s="13" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="L280" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M280" s="13" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="N280" s="13" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="O280" s="13" t="s">
-        <v>1546</v>
+        <v>475</v>
       </c>
       <c r="P280" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q280" s="13">
-        <v>10412</v>
+        <v>20227</v>
       </c>
       <c r="R280" s="13">
-        <v>10987</v>
+        <v>21970</v>
       </c>
       <c r="S280" s="13" t="s">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="T280" s="13">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="U280" s="13">
-        <v>192</v>
+        <v>480</v>
       </c>
       <c r="V280" s="13">
-        <v>1</v>
+        <v>1148</v>
       </c>
       <c r="W280" s="13">
-        <v>576</v>
+        <v>303</v>
       </c>
       <c r="X280" s="13">
-        <v>192</v>
+        <v>282</v>
       </c>
       <c r="Y280" s="13">
-        <v>380</v>
+        <v>509</v>
       </c>
       <c r="Z280" s="13">
-        <v>100</v>
+        <v>92.552999999999997</v>
       </c>
       <c r="AA280" s="13">
-        <v>5.03</v>
+        <v>0</v>
       </c>
       <c r="AB280" s="13">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="AC280" s="13">
         <v>0</v>
@@ -35770,10 +35771,10 @@
         <v>0</v>
       </c>
       <c r="AE280" s="13" t="s">
-        <v>1547</v>
+        <v>477</v>
       </c>
       <c r="AF280" s="13">
-        <v>576</v>
+        <v>1744</v>
       </c>
       <c r="AG280" s="13" t="s">
         <v>2080</v>
@@ -35781,100 +35782,100 @@
     </row>
     <row r="281" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
-        <v>2154</v>
+        <v>2029</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>2084</v>
+        <v>489</v>
       </c>
       <c r="C281" s="12">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="D281" s="13" t="s">
-        <v>2086</v>
+        <v>1786</v>
       </c>
       <c r="E281" s="13" t="s">
-        <v>127</v>
+        <v>491</v>
       </c>
       <c r="F281" s="13" t="s">
         <v>30</v>
       </c>
       <c r="G281" s="13" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="H281" s="13" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="I281" s="13" t="s">
-        <v>129</v>
+        <v>484</v>
       </c>
       <c r="J281" s="13" t="s">
-        <v>130</v>
+        <v>485</v>
       </c>
       <c r="K281" s="13" t="s">
-        <v>127</v>
+        <v>491</v>
       </c>
       <c r="L281" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M281" s="13" t="s">
-        <v>131</v>
+        <v>492</v>
       </c>
       <c r="N281" s="13" t="s">
-        <v>132</v>
+        <v>493</v>
       </c>
       <c r="O281" s="13" t="s">
-        <v>1604</v>
+        <v>494</v>
       </c>
       <c r="P281" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q281" s="13">
-        <v>7173</v>
+        <v>1655</v>
       </c>
       <c r="R281" s="13">
-        <v>9111</v>
+        <v>3726</v>
       </c>
       <c r="S281" s="13" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T281" s="13">
-        <v>1</v>
+        <v>710</v>
       </c>
       <c r="U281" s="13">
-        <v>221</v>
+        <v>1182</v>
       </c>
       <c r="V281" s="13">
-        <v>1</v>
+        <v>657</v>
       </c>
       <c r="W281" s="13">
-        <v>663</v>
+        <v>2072</v>
       </c>
       <c r="X281" s="13">
-        <v>221</v>
+        <v>487</v>
       </c>
       <c r="Y281" s="13">
-        <v>446</v>
+        <v>538</v>
       </c>
       <c r="Z281" s="13">
-        <v>100</v>
+        <v>67.146000000000001</v>
       </c>
       <c r="AA281" s="13">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AB281" s="13">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="AC281" s="13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD281" s="13">
         <v>0</v>
       </c>
       <c r="AE281" s="13" t="s">
-        <v>1605</v>
+        <v>495</v>
       </c>
       <c r="AF281" s="13">
-        <v>1939</v>
+        <v>2072</v>
       </c>
       <c r="AG281" s="13" t="s">
         <v>2080</v>
@@ -35882,183 +35883,183 @@
     </row>
     <row r="282" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
-        <v>2121</v>
+        <v>2030</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>2122</v>
+        <v>489</v>
       </c>
       <c r="C282" s="12">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="D282" s="13" t="s">
-        <v>2123</v>
+        <v>1786</v>
       </c>
       <c r="E282" s="13" t="s">
-        <v>127</v>
+        <v>483</v>
       </c>
       <c r="F282" s="13" t="s">
         <v>30</v>
       </c>
       <c r="G282" s="13" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="H282" s="13" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="I282" s="13" t="s">
-        <v>129</v>
+        <v>484</v>
       </c>
       <c r="J282" s="13" t="s">
-        <v>130</v>
+        <v>485</v>
       </c>
       <c r="K282" s="13" t="s">
-        <v>127</v>
+        <v>483</v>
       </c>
       <c r="L282" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M282" s="13" t="s">
-        <v>131</v>
+        <v>486</v>
       </c>
       <c r="N282" s="13" t="s">
-        <v>132</v>
+        <v>487</v>
       </c>
       <c r="O282" s="13" t="s">
-        <v>136</v>
+        <v>488</v>
       </c>
       <c r="P282" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q282" s="13">
-        <v>572</v>
+        <v>3582</v>
       </c>
       <c r="R282" s="13">
-        <v>2239</v>
+        <v>7150</v>
       </c>
       <c r="S282" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T282" s="13">
-        <v>64</v>
+        <v>457</v>
       </c>
       <c r="U282" s="13">
-        <v>230</v>
+        <v>718</v>
       </c>
       <c r="V282" s="13">
-        <v>1668</v>
+        <v>1381</v>
       </c>
       <c r="W282" s="13">
-        <v>1117</v>
+        <v>2172</v>
       </c>
       <c r="X282" s="13">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="Y282" s="13">
-        <v>106</v>
+        <v>410</v>
       </c>
       <c r="Z282" s="13">
-        <v>42.104999999999997</v>
+        <v>87.5</v>
       </c>
       <c r="AA282" s="13">
-        <v>4.1900000000000004</v>
+        <v>0</v>
       </c>
       <c r="AB282" s="13">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="AC282" s="13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AD282" s="13">
         <v>0</v>
       </c>
       <c r="AE282" s="13" t="s">
-        <v>137</v>
+        <v>490</v>
       </c>
       <c r="AF282" s="13">
-        <v>1668</v>
+        <v>3569</v>
       </c>
       <c r="AG282" s="13" t="s">
         <v>2080</v>
       </c>
     </row>
     <row r="283" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A283" s="6" t="s">
-        <v>2026</v>
-      </c>
-      <c r="B283" s="4" t="s">
-        <v>462</v>
+      <c r="A283" s="11" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B283" s="11" t="s">
+        <v>2104</v>
       </c>
       <c r="C283" s="12">
-        <v>174</v>
-      </c>
-      <c r="D283" s="13" t="s">
-        <v>1784</v>
+        <v>187</v>
+      </c>
+      <c r="D283" s="15" t="s">
+        <v>2105</v>
       </c>
       <c r="E283" s="13" t="s">
-        <v>457</v>
+        <v>2098</v>
       </c>
       <c r="F283" s="13" t="s">
         <v>30</v>
       </c>
       <c r="G283" s="13" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="H283" s="13" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="I283" s="13" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="J283" s="13" t="s">
-        <v>458</v>
+        <v>2099</v>
       </c>
       <c r="K283" s="13" t="s">
-        <v>457</v>
+        <v>2098</v>
       </c>
       <c r="L283" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M283" s="13" t="s">
-        <v>459</v>
+        <v>2100</v>
       </c>
       <c r="N283" s="13" t="s">
-        <v>460</v>
+        <v>2101</v>
       </c>
       <c r="O283" s="13" t="s">
-        <v>461</v>
+        <v>2102</v>
       </c>
       <c r="P283" s="13" t="s">
         <v>35</v>
       </c>
       <c r="Q283" s="13">
-        <v>121789</v>
+        <v>17725</v>
       </c>
       <c r="R283" s="13">
-        <v>125514</v>
+        <v>18784</v>
       </c>
       <c r="S283" s="13" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T283" s="13">
         <v>1</v>
       </c>
       <c r="U283" s="13">
-        <v>539</v>
+        <v>353</v>
       </c>
       <c r="V283" s="13">
         <v>1</v>
       </c>
       <c r="W283" s="13">
-        <v>1617</v>
+        <v>1059</v>
       </c>
       <c r="X283" s="13">
-        <v>539</v>
+        <v>353</v>
       </c>
       <c r="Y283" s="13">
-        <v>1130</v>
+        <v>682</v>
       </c>
       <c r="Z283" s="13">
-        <v>99.813999999999993</v>
+        <v>100</v>
       </c>
       <c r="AA283" s="13">
         <v>0</v>
@@ -36073,10 +36074,10 @@
         <v>0</v>
       </c>
       <c r="AE283" s="13" t="s">
-        <v>463</v>
+        <v>2103</v>
       </c>
       <c r="AF283" s="13">
-        <v>3726</v>
+        <v>1060</v>
       </c>
       <c r="AG283" s="13" t="s">
         <v>2080</v>
@@ -36084,79 +36085,79 @@
     </row>
     <row r="284" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
-        <v>2027</v>
+        <v>2130</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>476</v>
+        <v>2130</v>
       </c>
       <c r="C284" s="12">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="D284" s="13" t="s">
-        <v>1785</v>
+        <v>2131</v>
       </c>
       <c r="E284" s="13" t="s">
-        <v>49</v>
+        <v>1694</v>
       </c>
       <c r="F284" s="13" t="s">
         <v>30</v>
       </c>
       <c r="G284" s="13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H284" s="13" t="s">
-        <v>44</v>
+        <v>1695</v>
       </c>
       <c r="I284" s="13" t="s">
-        <v>45</v>
+        <v>1696</v>
       </c>
       <c r="J284" s="13" t="s">
-        <v>50</v>
+        <v>1697</v>
       </c>
       <c r="K284" s="13" t="s">
-        <v>49</v>
+        <v>1694</v>
       </c>
       <c r="L284" s="13" t="s">
-        <v>34</v>
+        <v>333</v>
       </c>
       <c r="M284" s="13" t="s">
-        <v>51</v>
+        <v>1698</v>
       </c>
       <c r="N284" s="13" t="s">
-        <v>52</v>
+        <v>1699</v>
       </c>
       <c r="O284" s="13" t="s">
-        <v>478</v>
+        <v>1700</v>
       </c>
       <c r="P284" s="13" t="s">
         <v>35</v>
       </c>
       <c r="Q284" s="13">
-        <v>37881</v>
+        <v>1041831</v>
       </c>
       <c r="R284" s="13">
-        <v>39623</v>
+        <v>1043041</v>
       </c>
       <c r="S284" s="13" t="s">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="T284" s="13">
         <v>1</v>
       </c>
       <c r="U284" s="13">
-        <v>581</v>
+        <v>403</v>
       </c>
       <c r="V284" s="13">
         <v>1</v>
       </c>
       <c r="W284" s="13">
-        <v>1743</v>
+        <v>1209</v>
       </c>
       <c r="X284" s="13">
-        <v>581</v>
+        <v>403</v>
       </c>
       <c r="Y284" s="13">
-        <v>1167</v>
+        <v>729</v>
       </c>
       <c r="Z284" s="13">
         <v>100</v>
@@ -36174,10 +36175,10 @@
         <v>0</v>
       </c>
       <c r="AE284" s="13" t="s">
-        <v>479</v>
+        <v>1078</v>
       </c>
       <c r="AF284" s="13">
-        <v>1743</v>
+        <v>1211</v>
       </c>
       <c r="AG284" s="13" t="s">
         <v>2080</v>
@@ -36185,82 +36186,82 @@
     </row>
     <row r="285" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>476</v>
+        <v>1725</v>
       </c>
       <c r="C285" s="12">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="D285" s="13" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="E285" s="13" t="s">
-        <v>42</v>
+        <v>648</v>
       </c>
       <c r="F285" s="13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G285" s="13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H285" s="13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I285" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J285" s="13" t="s">
-        <v>46</v>
+        <v>649</v>
       </c>
       <c r="K285" s="13" t="s">
-        <v>42</v>
+        <v>648</v>
       </c>
       <c r="L285" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M285" s="13" t="s">
-        <v>47</v>
+        <v>650</v>
       </c>
       <c r="N285" s="13" t="s">
-        <v>48</v>
+        <v>651</v>
       </c>
       <c r="O285" s="13" t="s">
-        <v>475</v>
+        <v>655</v>
       </c>
       <c r="P285" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q285" s="13">
-        <v>20227</v>
+        <v>15223162</v>
       </c>
       <c r="R285" s="13">
-        <v>21970</v>
+        <v>15227162</v>
       </c>
       <c r="S285" s="13" t="s">
-        <v>290</v>
+        <v>36</v>
       </c>
       <c r="T285" s="13">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="U285" s="13">
-        <v>480</v>
+        <v>1009</v>
       </c>
       <c r="V285" s="13">
-        <v>1148</v>
+        <v>854</v>
       </c>
       <c r="W285" s="13">
-        <v>303</v>
+        <v>3028</v>
       </c>
       <c r="X285" s="13">
-        <v>282</v>
+        <v>725</v>
       </c>
       <c r="Y285" s="13">
-        <v>509</v>
+        <v>1482</v>
       </c>
       <c r="Z285" s="13">
-        <v>92.552999999999997</v>
+        <v>100</v>
       </c>
       <c r="AA285" s="13">
         <v>0</v>
@@ -36275,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="AE285" s="13" t="s">
-        <v>477</v>
+        <v>656</v>
       </c>
       <c r="AF285" s="13">
-        <v>1744</v>
+        <v>4001</v>
       </c>
       <c r="AG285" s="13" t="s">
         <v>2080</v>
@@ -36286,82 +36287,82 @@
     </row>
     <row r="286" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
-        <v>2029</v>
+        <v>2032</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>489</v>
+        <v>653</v>
       </c>
       <c r="C286" s="12">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="D286" s="13" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="E286" s="13" t="s">
-        <v>491</v>
+        <v>648</v>
       </c>
       <c r="F286" s="13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G286" s="13" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H286" s="13" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I286" s="13" t="s">
-        <v>484</v>
+        <v>41</v>
       </c>
       <c r="J286" s="13" t="s">
-        <v>485</v>
+        <v>649</v>
       </c>
       <c r="K286" s="13" t="s">
-        <v>491</v>
+        <v>648</v>
       </c>
       <c r="L286" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M286" s="13" t="s">
-        <v>492</v>
+        <v>650</v>
       </c>
       <c r="N286" s="13" t="s">
-        <v>493</v>
+        <v>651</v>
       </c>
       <c r="O286" s="13" t="s">
-        <v>494</v>
+        <v>652</v>
       </c>
       <c r="P286" s="13" t="s">
         <v>35</v>
       </c>
       <c r="Q286" s="13">
-        <v>1655</v>
+        <v>807788</v>
       </c>
       <c r="R286" s="13">
-        <v>3726</v>
+        <v>809518</v>
       </c>
       <c r="S286" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T286" s="13">
-        <v>710</v>
+        <v>612</v>
       </c>
       <c r="U286" s="13">
-        <v>1182</v>
+        <v>1009</v>
       </c>
       <c r="V286" s="13">
-        <v>657</v>
+        <v>538</v>
       </c>
       <c r="W286" s="13">
-        <v>2072</v>
+        <v>1731</v>
       </c>
       <c r="X286" s="13">
-        <v>487</v>
+        <v>398</v>
       </c>
       <c r="Y286" s="13">
-        <v>538</v>
+        <v>788</v>
       </c>
       <c r="Z286" s="13">
-        <v>67.146000000000001</v>
+        <v>94.471999999999994</v>
       </c>
       <c r="AA286" s="13">
         <v>0</v>
@@ -36370,16 +36371,16 @@
         <v>1</v>
       </c>
       <c r="AC286" s="13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD286" s="13">
         <v>0</v>
       </c>
       <c r="AE286" s="13" t="s">
-        <v>495</v>
+        <v>654</v>
       </c>
       <c r="AF286" s="13">
-        <v>2072</v>
+        <v>1731</v>
       </c>
       <c r="AG286" s="13" t="s">
         <v>2080</v>
@@ -36387,180 +36388,180 @@
     </row>
     <row r="287" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>489</v>
+        <v>1724</v>
       </c>
       <c r="C287" s="12">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="D287" s="13" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="E287" s="13" t="s">
-        <v>483</v>
+        <v>641</v>
       </c>
       <c r="F287" s="13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G287" s="13" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H287" s="13" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I287" s="13" t="s">
-        <v>484</v>
+        <v>642</v>
       </c>
       <c r="J287" s="13" t="s">
-        <v>485</v>
+        <v>643</v>
       </c>
       <c r="K287" s="13" t="s">
-        <v>483</v>
+        <v>641</v>
       </c>
       <c r="L287" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M287" s="13" t="s">
-        <v>486</v>
+        <v>644</v>
       </c>
       <c r="N287" s="13" t="s">
-        <v>487</v>
+        <v>645</v>
       </c>
       <c r="O287" s="13" t="s">
-        <v>488</v>
+        <v>646</v>
       </c>
       <c r="P287" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q287" s="13">
-        <v>3582</v>
+        <v>278010</v>
       </c>
       <c r="R287" s="13">
-        <v>7150</v>
+        <v>278213</v>
       </c>
       <c r="S287" s="13" t="s">
-        <v>36</v>
+        <v>350</v>
       </c>
       <c r="T287" s="13">
-        <v>457</v>
+        <v>1</v>
       </c>
       <c r="U287" s="13">
-        <v>718</v>
+        <v>68</v>
       </c>
       <c r="V287" s="13">
-        <v>1381</v>
+        <v>1</v>
       </c>
       <c r="W287" s="13">
-        <v>2172</v>
+        <v>204</v>
       </c>
       <c r="X287" s="13">
-        <v>264</v>
+        <v>68</v>
       </c>
       <c r="Y287" s="13">
-        <v>410</v>
+        <v>140</v>
       </c>
       <c r="Z287" s="13">
-        <v>87.5</v>
+        <v>100</v>
       </c>
       <c r="AA287" s="13">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AB287" s="13">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="AC287" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD287" s="13">
         <v>0</v>
       </c>
       <c r="AE287" s="13" t="s">
-        <v>490</v>
+        <v>647</v>
       </c>
       <c r="AF287" s="13">
-        <v>3569</v>
+        <v>204</v>
       </c>
       <c r="AG287" s="13" t="s">
         <v>2080</v>
       </c>
     </row>
     <row r="288" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A288" s="11" t="s">
-        <v>2106</v>
-      </c>
-      <c r="B288" s="11" t="s">
-        <v>2104</v>
+      <c r="A288" s="6" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>964</v>
       </c>
       <c r="C288" s="12">
-        <v>187</v>
-      </c>
-      <c r="D288" s="15" t="s">
-        <v>2105</v>
+        <v>221</v>
+      </c>
+      <c r="D288" s="13" t="s">
+        <v>1790</v>
       </c>
       <c r="E288" s="13" t="s">
-        <v>2098</v>
+        <v>958</v>
       </c>
       <c r="F288" s="13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G288" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H288" s="13" t="s">
-        <v>32</v>
+        <v>959</v>
       </c>
       <c r="I288" s="13" t="s">
-        <v>95</v>
+        <v>960</v>
       </c>
       <c r="J288" s="13" t="s">
-        <v>2099</v>
+        <v>961</v>
       </c>
       <c r="K288" s="13" t="s">
-        <v>2098</v>
+        <v>958</v>
       </c>
       <c r="L288" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M288" s="13" t="s">
-        <v>2100</v>
+      <c r="M288" s="13">
+        <v>1</v>
       </c>
       <c r="N288" s="13" t="s">
-        <v>2101</v>
+        <v>962</v>
       </c>
       <c r="O288" s="13" t="s">
-        <v>2102</v>
+        <v>963</v>
       </c>
       <c r="P288" s="13" t="s">
         <v>35</v>
       </c>
       <c r="Q288" s="13">
-        <v>17725</v>
+        <v>456895</v>
       </c>
       <c r="R288" s="13">
-        <v>18784</v>
+        <v>459907</v>
       </c>
       <c r="S288" s="13" t="s">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="T288" s="13">
         <v>1</v>
       </c>
       <c r="U288" s="13">
-        <v>353</v>
+        <v>251</v>
       </c>
       <c r="V288" s="13">
-        <v>1</v>
+        <v>756</v>
       </c>
       <c r="W288" s="13">
-        <v>1059</v>
+        <v>4</v>
       </c>
       <c r="X288" s="13">
-        <v>353</v>
+        <v>251</v>
       </c>
       <c r="Y288" s="13">
-        <v>682</v>
+        <v>523</v>
       </c>
       <c r="Z288" s="13">
         <v>100</v>
@@ -36578,10 +36579,10 @@
         <v>0</v>
       </c>
       <c r="AE288" s="13" t="s">
-        <v>2103</v>
+        <v>965</v>
       </c>
       <c r="AF288" s="13">
-        <v>1060</v>
+        <v>3013</v>
       </c>
       <c r="AG288" s="13" t="s">
         <v>2080</v>
@@ -36589,100 +36590,100 @@
     </row>
     <row r="289" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
-        <v>2130</v>
+        <v>2035</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>2130</v>
+        <v>1153</v>
       </c>
       <c r="C289" s="12">
+        <v>365</v>
+      </c>
+      <c r="D289" s="13" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E289" s="13" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F289" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G289" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H289" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I289" s="13" t="s">
+        <v>1148</v>
+      </c>
+      <c r="J289" s="13" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K289" s="13" t="s">
+        <v>1171</v>
+      </c>
+      <c r="L289" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M289" s="13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="N289" s="13" t="s">
+        <v>1174</v>
+      </c>
+      <c r="O289" s="13" t="s">
+        <v>1175</v>
+      </c>
+      <c r="P289" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q289" s="13">
+        <v>425292</v>
+      </c>
+      <c r="R289" s="13">
+        <v>425618</v>
+      </c>
+      <c r="S289" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="T289" s="13">
+        <v>2</v>
+      </c>
+      <c r="U289" s="13">
+        <v>109</v>
+      </c>
+      <c r="V289" s="13">
+        <v>1</v>
+      </c>
+      <c r="W289" s="13">
+        <v>327</v>
+      </c>
+      <c r="X289" s="13">
+        <v>109</v>
+      </c>
+      <c r="Y289" s="13">
         <v>190</v>
       </c>
-      <c r="D289" s="13" t="s">
-        <v>2131</v>
-      </c>
-      <c r="E289" s="13" t="s">
-        <v>1694</v>
-      </c>
-      <c r="F289" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G289" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H289" s="13" t="s">
-        <v>1695</v>
-      </c>
-      <c r="I289" s="13" t="s">
-        <v>1696</v>
-      </c>
-      <c r="J289" s="13" t="s">
-        <v>1697</v>
-      </c>
-      <c r="K289" s="13" t="s">
-        <v>1694</v>
-      </c>
-      <c r="L289" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="M289" s="13" t="s">
-        <v>1698</v>
-      </c>
-      <c r="N289" s="13" t="s">
-        <v>1699</v>
-      </c>
-      <c r="O289" s="13" t="s">
-        <v>1700</v>
-      </c>
-      <c r="P289" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q289" s="13">
-        <v>1041831</v>
-      </c>
-      <c r="R289" s="13">
-        <v>1043041</v>
-      </c>
-      <c r="S289" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="T289" s="13">
-        <v>1</v>
-      </c>
-      <c r="U289" s="13">
-        <v>403</v>
-      </c>
-      <c r="V289" s="13">
-        <v>1</v>
-      </c>
-      <c r="W289" s="13">
-        <v>1209</v>
-      </c>
-      <c r="X289" s="13">
-        <v>403</v>
-      </c>
-      <c r="Y289" s="13">
-        <v>729</v>
-      </c>
       <c r="Z289" s="13">
-        <v>100</v>
+        <v>82.569000000000003</v>
       </c>
       <c r="AA289" s="13">
-        <v>0</v>
+        <v>3.83</v>
       </c>
       <c r="AB289" s="13">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="AC289" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD289" s="13">
         <v>0</v>
       </c>
       <c r="AE289" s="13" t="s">
-        <v>1078</v>
+        <v>1154</v>
       </c>
       <c r="AF289" s="13">
-        <v>1211</v>
+        <v>327</v>
       </c>
       <c r="AG289" s="13" t="s">
         <v>2080</v>
@@ -36690,100 +36691,100 @@
     </row>
     <row r="290" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
-        <v>2031</v>
+        <v>2036</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>1725</v>
+        <v>1153</v>
       </c>
       <c r="C290" s="12">
-        <v>201</v>
+        <v>365</v>
       </c>
       <c r="D290" s="13" t="s">
-        <v>1787</v>
+        <v>1791</v>
       </c>
       <c r="E290" s="13" t="s">
-        <v>648</v>
+        <v>1166</v>
       </c>
       <c r="F290" s="13" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G290" s="13" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H290" s="13" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I290" s="13" t="s">
-        <v>41</v>
+        <v>1167</v>
       </c>
       <c r="J290" s="13" t="s">
-        <v>649</v>
+        <v>1168</v>
       </c>
       <c r="K290" s="13" t="s">
-        <v>648</v>
+        <v>1166</v>
       </c>
       <c r="L290" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M290" s="13" t="s">
-        <v>650</v>
+      <c r="M290" s="13">
+        <v>1</v>
       </c>
       <c r="N290" s="13" t="s">
-        <v>651</v>
+        <v>1169</v>
       </c>
       <c r="O290" s="13" t="s">
-        <v>655</v>
+        <v>1170</v>
       </c>
       <c r="P290" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q290" s="13">
-        <v>15223162</v>
+        <v>13436801</v>
       </c>
       <c r="R290" s="13">
-        <v>15227162</v>
+        <v>13437160</v>
       </c>
       <c r="S290" s="13" t="s">
-        <v>36</v>
+        <v>290</v>
       </c>
       <c r="T290" s="13">
-        <v>285</v>
+        <v>1</v>
       </c>
       <c r="U290" s="13">
-        <v>1009</v>
+        <v>111</v>
       </c>
       <c r="V290" s="13">
-        <v>854</v>
+        <v>1</v>
       </c>
       <c r="W290" s="13">
-        <v>3028</v>
+        <v>336</v>
       </c>
       <c r="X290" s="13">
-        <v>725</v>
+        <v>112</v>
       </c>
       <c r="Y290" s="13">
-        <v>1482</v>
+        <v>189</v>
       </c>
       <c r="Z290" s="13">
-        <v>100</v>
+        <v>83.929000000000002</v>
       </c>
       <c r="AA290" s="13">
-        <v>0</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="AB290" s="13">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="AC290" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD290" s="13">
         <v>0</v>
       </c>
       <c r="AE290" s="13" t="s">
-        <v>656</v>
+        <v>1154</v>
       </c>
       <c r="AF290" s="13">
-        <v>4001</v>
+        <v>360</v>
       </c>
       <c r="AG290" s="13" t="s">
         <v>2080</v>
@@ -36791,100 +36792,100 @@
     </row>
     <row r="291" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
-        <v>2032</v>
+        <v>2037</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>653</v>
+        <v>1153</v>
       </c>
       <c r="C291" s="12">
-        <v>202</v>
+        <v>365</v>
       </c>
       <c r="D291" s="13" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="E291" s="13" t="s">
-        <v>648</v>
+        <v>1176</v>
       </c>
       <c r="F291" s="13" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G291" s="13" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H291" s="13" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I291" s="13" t="s">
-        <v>41</v>
+        <v>1167</v>
       </c>
       <c r="J291" s="13" t="s">
-        <v>649</v>
+        <v>1177</v>
       </c>
       <c r="K291" s="13" t="s">
-        <v>648</v>
+        <v>1176</v>
       </c>
       <c r="L291" s="13" t="s">
-        <v>34</v>
+        <v>333</v>
       </c>
       <c r="M291" s="13" t="s">
-        <v>650</v>
+        <v>1178</v>
       </c>
       <c r="N291" s="13" t="s">
-        <v>651</v>
+        <v>1179</v>
       </c>
       <c r="O291" s="13" t="s">
-        <v>652</v>
+        <v>1180</v>
       </c>
       <c r="P291" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q291" s="13">
-        <v>807788</v>
+        <v>14119006</v>
       </c>
       <c r="R291" s="13">
-        <v>809518</v>
+        <v>14119350</v>
       </c>
       <c r="S291" s="13" t="s">
-        <v>36</v>
+        <v>290</v>
       </c>
       <c r="T291" s="13">
-        <v>612</v>
+        <v>6</v>
       </c>
       <c r="U291" s="13">
-        <v>1009</v>
+        <v>111</v>
       </c>
       <c r="V291" s="13">
-        <v>538</v>
+        <v>1</v>
       </c>
       <c r="W291" s="13">
-        <v>1731</v>
+        <v>321</v>
       </c>
       <c r="X291" s="13">
-        <v>398</v>
+        <v>107</v>
       </c>
       <c r="Y291" s="13">
-        <v>788</v>
+        <v>188</v>
       </c>
       <c r="Z291" s="13">
-        <v>94.471999999999994</v>
+        <v>87.85</v>
       </c>
       <c r="AA291" s="13">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AB291" s="13">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="AC291" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD291" s="13">
         <v>0</v>
       </c>
       <c r="AE291" s="13" t="s">
-        <v>654</v>
+        <v>1154</v>
       </c>
       <c r="AF291" s="13">
-        <v>1731</v>
+        <v>345</v>
       </c>
       <c r="AG291" s="13" t="s">
         <v>2080</v>
@@ -36892,100 +36893,100 @@
     </row>
     <row r="292" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
-        <v>2033</v>
+        <v>2038</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>1724</v>
+        <v>1153</v>
       </c>
       <c r="C292" s="12">
-        <v>203</v>
+        <v>365</v>
       </c>
       <c r="D292" s="13" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="E292" s="13" t="s">
-        <v>641</v>
+        <v>1161</v>
       </c>
       <c r="F292" s="13" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G292" s="13" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H292" s="13" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I292" s="13" t="s">
-        <v>642</v>
+        <v>1148</v>
       </c>
       <c r="J292" s="13" t="s">
-        <v>643</v>
+        <v>1162</v>
       </c>
       <c r="K292" s="13" t="s">
-        <v>641</v>
+        <v>1161</v>
       </c>
       <c r="L292" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M292" s="13" t="s">
-        <v>644</v>
+        <v>1163</v>
       </c>
       <c r="N292" s="13" t="s">
-        <v>645</v>
+        <v>1164</v>
       </c>
       <c r="O292" s="13" t="s">
-        <v>646</v>
+        <v>1165</v>
       </c>
       <c r="P292" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q292" s="13">
-        <v>278010</v>
+        <v>7822470</v>
       </c>
       <c r="R292" s="13">
-        <v>278213</v>
+        <v>7822796</v>
       </c>
       <c r="S292" s="13" t="s">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="T292" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U292" s="13">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="V292" s="13">
         <v>1</v>
       </c>
       <c r="W292" s="13">
-        <v>204</v>
+        <v>327</v>
       </c>
       <c r="X292" s="13">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="Y292" s="13">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="Z292" s="13">
-        <v>100</v>
+        <v>81.650999999999996</v>
       </c>
       <c r="AA292" s="13">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="AB292" s="13">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="AC292" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD292" s="13">
         <v>0</v>
       </c>
       <c r="AE292" s="13" t="s">
-        <v>647</v>
+        <v>1154</v>
       </c>
       <c r="AF292" s="13">
-        <v>204</v>
+        <v>327</v>
       </c>
       <c r="AG292" s="13" t="s">
         <v>2080</v>
@@ -36993,100 +36994,100 @@
     </row>
     <row r="293" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
-        <v>2034</v>
+        <v>2039</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>964</v>
+        <v>1153</v>
       </c>
       <c r="C293" s="12">
-        <v>221</v>
+        <v>365</v>
       </c>
       <c r="D293" s="13" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="E293" s="13" t="s">
-        <v>958</v>
+        <v>1181</v>
       </c>
       <c r="F293" s="13" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G293" s="13" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H293" s="13" t="s">
-        <v>959</v>
+        <v>65</v>
       </c>
       <c r="I293" s="13" t="s">
-        <v>960</v>
+        <v>1182</v>
       </c>
       <c r="J293" s="13" t="s">
-        <v>961</v>
+        <v>1183</v>
       </c>
       <c r="K293" s="13" t="s">
-        <v>958</v>
+        <v>1181</v>
       </c>
       <c r="L293" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M293" s="13">
-        <v>1</v>
+      <c r="M293" s="13" t="s">
+        <v>1184</v>
       </c>
       <c r="N293" s="13" t="s">
-        <v>962</v>
+        <v>1185</v>
       </c>
       <c r="O293" s="13" t="s">
-        <v>963</v>
+        <v>1186</v>
       </c>
       <c r="P293" s="13" t="s">
         <v>35</v>
       </c>
       <c r="Q293" s="13">
-        <v>456895</v>
+        <v>15847874</v>
       </c>
       <c r="R293" s="13">
-        <v>459907</v>
+        <v>15848239</v>
       </c>
       <c r="S293" s="13" t="s">
         <v>290</v>
       </c>
       <c r="T293" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U293" s="13">
-        <v>251</v>
+        <v>111</v>
       </c>
       <c r="V293" s="13">
-        <v>756</v>
+        <v>7</v>
       </c>
       <c r="W293" s="13">
-        <v>4</v>
+        <v>339</v>
       </c>
       <c r="X293" s="13">
-        <v>251</v>
+        <v>111</v>
       </c>
       <c r="Y293" s="13">
-        <v>523</v>
+        <v>183</v>
       </c>
       <c r="Z293" s="13">
-        <v>100</v>
+        <v>82.882999999999996</v>
       </c>
       <c r="AA293" s="13">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="AB293" s="13">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="AC293" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD293" s="13">
         <v>0</v>
       </c>
       <c r="AE293" s="13" t="s">
-        <v>965</v>
+        <v>1187</v>
       </c>
       <c r="AF293" s="13">
-        <v>3013</v>
+        <v>366</v>
       </c>
       <c r="AG293" s="13" t="s">
         <v>2080</v>
@@ -37094,7 +37095,7 @@
     </row>
     <row r="294" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="B294" s="4" t="s">
         <v>1153</v>
@@ -37106,7 +37107,7 @@
         <v>1791</v>
       </c>
       <c r="E294" s="13" t="s">
-        <v>1171</v>
+        <v>1147</v>
       </c>
       <c r="F294" s="13" t="s">
         <v>53</v>
@@ -37121,31 +37122,31 @@
         <v>1148</v>
       </c>
       <c r="J294" s="13" t="s">
-        <v>1172</v>
+        <v>1149</v>
       </c>
       <c r="K294" s="13" t="s">
-        <v>1171</v>
+        <v>1147</v>
       </c>
       <c r="L294" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M294" s="13" t="s">
-        <v>1173</v>
+        <v>1150</v>
       </c>
       <c r="N294" s="13" t="s">
-        <v>1174</v>
+        <v>1151</v>
       </c>
       <c r="O294" s="13" t="s">
-        <v>1175</v>
+        <v>1152</v>
       </c>
       <c r="P294" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q294" s="13">
-        <v>425292</v>
+        <v>480521</v>
       </c>
       <c r="R294" s="13">
-        <v>425618</v>
+        <v>480847</v>
       </c>
       <c r="S294" s="13" t="s">
         <v>290</v>
@@ -37166,16 +37167,16 @@
         <v>109</v>
       </c>
       <c r="Y294" s="13">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="Z294" s="13">
-        <v>82.569000000000003</v>
+        <v>78.899000000000001</v>
       </c>
       <c r="AA294" s="13">
-        <v>3.83</v>
+        <v>1.57</v>
       </c>
       <c r="AB294" s="13">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AC294" s="13">
         <v>1</v>
@@ -37195,7 +37196,7 @@
     </row>
     <row r="295" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
-        <v>2036</v>
+        <v>2041</v>
       </c>
       <c r="B295" s="4" t="s">
         <v>1153</v>
@@ -37207,7 +37208,7 @@
         <v>1791</v>
       </c>
       <c r="E295" s="13" t="s">
-        <v>1166</v>
+        <v>1155</v>
       </c>
       <c r="F295" s="13" t="s">
         <v>53</v>
@@ -37219,67 +37220,67 @@
         <v>65</v>
       </c>
       <c r="I295" s="13" t="s">
-        <v>1167</v>
+        <v>1156</v>
       </c>
       <c r="J295" s="13" t="s">
-        <v>1168</v>
+        <v>1157</v>
       </c>
       <c r="K295" s="13" t="s">
-        <v>1166</v>
+        <v>1155</v>
       </c>
       <c r="L295" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M295" s="13">
-        <v>1</v>
+      <c r="M295" s="13" t="s">
+        <v>1158</v>
       </c>
       <c r="N295" s="13" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="O295" s="13" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="P295" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q295" s="13">
-        <v>13436801</v>
+        <v>12241871</v>
       </c>
       <c r="R295" s="13">
-        <v>13437160</v>
+        <v>12242338</v>
       </c>
       <c r="S295" s="13" t="s">
         <v>290</v>
       </c>
       <c r="T295" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U295" s="13">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V295" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W295" s="13">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="X295" s="13">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Y295" s="13">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="Z295" s="13">
-        <v>83.929000000000002</v>
+        <v>84.111999999999995</v>
       </c>
       <c r="AA295" s="13">
-        <v>8.0500000000000007</v>
+        <v>1.26</v>
       </c>
       <c r="AB295" s="13">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="AC295" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD295" s="13">
         <v>0</v>
@@ -37288,7 +37289,7 @@
         <v>1154</v>
       </c>
       <c r="AF295" s="13">
-        <v>360</v>
+        <v>468</v>
       </c>
       <c r="AG295" s="13" t="s">
         <v>2080</v>
@@ -37296,19 +37297,19 @@
     </row>
     <row r="296" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
-        <v>2037</v>
+        <v>2042</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>1153</v>
+        <v>1189</v>
       </c>
       <c r="C296" s="12">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D296" s="13" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="E296" s="13" t="s">
-        <v>1176</v>
+        <v>1191</v>
       </c>
       <c r="F296" s="13" t="s">
         <v>53</v>
@@ -37320,76 +37321,76 @@
         <v>65</v>
       </c>
       <c r="I296" s="13" t="s">
-        <v>1167</v>
+        <v>1192</v>
       </c>
       <c r="J296" s="13" t="s">
-        <v>1177</v>
+        <v>1193</v>
       </c>
       <c r="K296" s="13" t="s">
-        <v>1176</v>
+        <v>1191</v>
       </c>
       <c r="L296" s="13" t="s">
-        <v>333</v>
+        <v>34</v>
       </c>
       <c r="M296" s="13" t="s">
-        <v>1178</v>
+        <v>1194</v>
       </c>
       <c r="N296" s="13" t="s">
-        <v>1179</v>
+        <v>1195</v>
       </c>
       <c r="O296" s="13" t="s">
-        <v>1180</v>
+        <v>1196</v>
       </c>
       <c r="P296" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q296" s="13">
-        <v>14119006</v>
+        <v>166706</v>
       </c>
       <c r="R296" s="13">
-        <v>14119350</v>
+        <v>167673</v>
       </c>
       <c r="S296" s="13" t="s">
         <v>290</v>
       </c>
       <c r="T296" s="13">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="U296" s="13">
-        <v>111</v>
+        <v>277</v>
       </c>
       <c r="V296" s="13">
-        <v>1</v>
+        <v>378</v>
       </c>
       <c r="W296" s="13">
-        <v>321</v>
+        <v>968</v>
       </c>
       <c r="X296" s="13">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="Y296" s="13">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="Z296" s="13">
-        <v>87.85</v>
+        <v>62.871000000000002</v>
       </c>
       <c r="AA296" s="13">
-        <v>1.58</v>
+        <v>5.54</v>
       </c>
       <c r="AB296" s="13">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="AC296" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD296" s="13">
         <v>0</v>
       </c>
       <c r="AE296" s="13" t="s">
-        <v>1154</v>
+        <v>1197</v>
       </c>
       <c r="AF296" s="13">
-        <v>345</v>
+        <v>968</v>
       </c>
       <c r="AG296" s="13" t="s">
         <v>2080</v>
@@ -37397,19 +37398,19 @@
     </row>
     <row r="297" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="s">
-        <v>2038</v>
+        <v>2043</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>1153</v>
+        <v>1189</v>
       </c>
       <c r="C297" s="12">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D297" s="13" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="E297" s="13" t="s">
-        <v>1161</v>
+        <v>1236</v>
       </c>
       <c r="F297" s="13" t="s">
         <v>53</v>
@@ -37421,76 +37422,76 @@
         <v>65</v>
       </c>
       <c r="I297" s="13" t="s">
-        <v>1148</v>
+        <v>1199</v>
       </c>
       <c r="J297" s="13" t="s">
-        <v>1162</v>
+        <v>1237</v>
       </c>
       <c r="K297" s="13" t="s">
-        <v>1161</v>
+        <v>1236</v>
       </c>
       <c r="L297" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M297" s="13" t="s">
-        <v>1163</v>
+      <c r="M297" s="14">
+        <v>40844</v>
       </c>
       <c r="N297" s="13" t="s">
-        <v>1164</v>
+        <v>1238</v>
       </c>
       <c r="O297" s="13" t="s">
-        <v>1165</v>
+        <v>1239</v>
       </c>
       <c r="P297" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q297" s="13">
-        <v>7822470</v>
+        <v>152406</v>
       </c>
       <c r="R297" s="13">
-        <v>7822796</v>
+        <v>153310</v>
       </c>
       <c r="S297" s="13" t="s">
         <v>290</v>
       </c>
       <c r="T297" s="13">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="U297" s="13">
-        <v>109</v>
+        <v>257</v>
       </c>
       <c r="V297" s="13">
-        <v>1</v>
+        <v>384</v>
       </c>
       <c r="W297" s="13">
-        <v>327</v>
+        <v>902</v>
       </c>
       <c r="X297" s="13">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="Y297" s="13">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="Z297" s="13">
-        <v>81.650999999999996</v>
+        <v>64.286000000000001</v>
       </c>
       <c r="AA297" s="13">
-        <v>1.24</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="AB297" s="13">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AC297" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD297" s="13">
         <v>0</v>
       </c>
       <c r="AE297" s="13" t="s">
-        <v>1154</v>
+        <v>1218</v>
       </c>
       <c r="AF297" s="13">
-        <v>327</v>
+        <v>905</v>
       </c>
       <c r="AG297" s="13" t="s">
         <v>2080</v>
@@ -37498,19 +37499,19 @@
     </row>
     <row r="298" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
-        <v>2039</v>
+        <v>2044</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>1153</v>
+        <v>1189</v>
       </c>
       <c r="C298" s="12">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D298" s="13" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="E298" s="13" t="s">
-        <v>1181</v>
+        <v>1198</v>
       </c>
       <c r="F298" s="13" t="s">
         <v>53</v>
@@ -37522,76 +37523,76 @@
         <v>65</v>
       </c>
       <c r="I298" s="13" t="s">
-        <v>1182</v>
+        <v>1199</v>
       </c>
       <c r="J298" s="13" t="s">
-        <v>1183</v>
+        <v>1200</v>
       </c>
       <c r="K298" s="13" t="s">
-        <v>1181</v>
+        <v>1198</v>
       </c>
       <c r="L298" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M298" s="13" t="s">
-        <v>1184</v>
+        <v>1201</v>
       </c>
       <c r="N298" s="13" t="s">
-        <v>1185</v>
+        <v>1202</v>
       </c>
       <c r="O298" s="13" t="s">
-        <v>1186</v>
+        <v>1203</v>
       </c>
       <c r="P298" s="13" t="s">
         <v>35</v>
       </c>
       <c r="Q298" s="13">
-        <v>15847874</v>
+        <v>1179273</v>
       </c>
       <c r="R298" s="13">
-        <v>15848239</v>
+        <v>1180117</v>
       </c>
       <c r="S298" s="13" t="s">
         <v>290</v>
       </c>
       <c r="T298" s="13">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="U298" s="13">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="V298" s="13">
-        <v>7</v>
+        <v>384</v>
       </c>
       <c r="W298" s="13">
-        <v>339</v>
+        <v>845</v>
       </c>
       <c r="X298" s="13">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="Y298" s="13">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Z298" s="13">
-        <v>82.882999999999996</v>
+        <v>62.024999999999999</v>
       </c>
       <c r="AA298" s="13">
-        <v>3.19</v>
+        <v>1.54</v>
       </c>
       <c r="AB298" s="13">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AC298" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD298" s="13">
         <v>0</v>
       </c>
       <c r="AE298" s="13" t="s">
-        <v>1187</v>
+        <v>1197</v>
       </c>
       <c r="AF298" s="13">
-        <v>366</v>
+        <v>845</v>
       </c>
       <c r="AG298" s="13" t="s">
         <v>2080</v>
@@ -37599,19 +37600,19 @@
     </row>
     <row r="299" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
-        <v>2040</v>
+        <v>2045</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>1153</v>
+        <v>1189</v>
       </c>
       <c r="C299" s="12">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D299" s="13" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="E299" s="13" t="s">
-        <v>1147</v>
+        <v>1253</v>
       </c>
       <c r="F299" s="13" t="s">
         <v>53</v>
@@ -37623,76 +37624,76 @@
         <v>65</v>
       </c>
       <c r="I299" s="13" t="s">
-        <v>1148</v>
+        <v>1199</v>
       </c>
       <c r="J299" s="13" t="s">
-        <v>1149</v>
+        <v>1254</v>
       </c>
       <c r="K299" s="13" t="s">
-        <v>1147</v>
+        <v>1253</v>
       </c>
       <c r="L299" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M299" s="13" t="s">
-        <v>1150</v>
+      <c r="M299" s="13">
+        <v>1</v>
       </c>
       <c r="N299" s="13" t="s">
-        <v>1151</v>
+        <v>1255</v>
       </c>
       <c r="O299" s="13" t="s">
-        <v>1152</v>
+        <v>1256</v>
       </c>
       <c r="P299" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q299" s="13">
-        <v>480521</v>
+        <v>3627558</v>
       </c>
       <c r="R299" s="13">
-        <v>480847</v>
+        <v>3628402</v>
       </c>
       <c r="S299" s="13" t="s">
         <v>290</v>
       </c>
       <c r="T299" s="13">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="U299" s="13">
-        <v>109</v>
+        <v>233</v>
       </c>
       <c r="V299" s="13">
-        <v>1</v>
+        <v>384</v>
       </c>
       <c r="W299" s="13">
-        <v>327</v>
+        <v>845</v>
       </c>
       <c r="X299" s="13">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="Y299" s="13">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z299" s="13">
-        <v>78.899000000000001</v>
+        <v>61.392000000000003</v>
       </c>
       <c r="AA299" s="13">
-        <v>1.57</v>
+        <v>4.34</v>
       </c>
       <c r="AB299" s="13">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AC299" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD299" s="13">
         <v>0</v>
       </c>
       <c r="AE299" s="13" t="s">
-        <v>1154</v>
+        <v>1197</v>
       </c>
       <c r="AF299" s="13">
-        <v>327</v>
+        <v>845</v>
       </c>
       <c r="AG299" s="13" t="s">
         <v>2080</v>
@@ -37700,19 +37701,19 @@
     </row>
     <row r="300" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A300" s="6" t="s">
-        <v>2041</v>
+        <v>2046</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>1153</v>
+        <v>1189</v>
       </c>
       <c r="C300" s="12">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D300" s="13" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="E300" s="13" t="s">
-        <v>1155</v>
+        <v>1213</v>
       </c>
       <c r="F300" s="13" t="s">
         <v>53</v>
@@ -37724,76 +37725,76 @@
         <v>65</v>
       </c>
       <c r="I300" s="13" t="s">
-        <v>1156</v>
+        <v>1199</v>
       </c>
       <c r="J300" s="13" t="s">
-        <v>1157</v>
+        <v>1214</v>
       </c>
       <c r="K300" s="13" t="s">
-        <v>1155</v>
+        <v>1213</v>
       </c>
       <c r="L300" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M300" s="13" t="s">
-        <v>1158</v>
+        <v>1215</v>
       </c>
       <c r="N300" s="13" t="s">
-        <v>1159</v>
+        <v>1216</v>
       </c>
       <c r="O300" s="13" t="s">
-        <v>1160</v>
+        <v>1217</v>
       </c>
       <c r="P300" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q300" s="13">
-        <v>12241871</v>
+        <v>2683626</v>
       </c>
       <c r="R300" s="13">
-        <v>12242338</v>
+        <v>2684470</v>
       </c>
       <c r="S300" s="13" t="s">
         <v>290</v>
       </c>
       <c r="T300" s="13">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="U300" s="13">
-        <v>110</v>
+        <v>233</v>
       </c>
       <c r="V300" s="13">
-        <v>4</v>
+        <v>384</v>
       </c>
       <c r="W300" s="13">
-        <v>321</v>
+        <v>845</v>
       </c>
       <c r="X300" s="13">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="Y300" s="13">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Z300" s="13">
-        <v>84.111999999999995</v>
+        <v>60.127000000000002</v>
       </c>
       <c r="AA300" s="13">
-        <v>1.26</v>
+        <v>2.25</v>
       </c>
       <c r="AB300" s="13">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AC300" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD300" s="13">
         <v>0</v>
       </c>
       <c r="AE300" s="13" t="s">
-        <v>1154</v>
+        <v>1218</v>
       </c>
       <c r="AF300" s="13">
-        <v>468</v>
+        <v>845</v>
       </c>
       <c r="AG300" s="13" t="s">
         <v>2080</v>
@@ -37801,7 +37802,7 @@
     </row>
     <row r="301" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A301" s="6" t="s">
-        <v>2042</v>
+        <v>2047</v>
       </c>
       <c r="B301" s="4" t="s">
         <v>1189</v>
@@ -37813,7 +37814,7 @@
         <v>1792</v>
       </c>
       <c r="E301" s="13" t="s">
-        <v>1191</v>
+        <v>1232</v>
       </c>
       <c r="F301" s="13" t="s">
         <v>53</v>
@@ -37825,76 +37826,76 @@
         <v>65</v>
       </c>
       <c r="I301" s="13" t="s">
-        <v>1192</v>
+        <v>1148</v>
       </c>
       <c r="J301" s="13" t="s">
-        <v>1193</v>
+        <v>1209</v>
       </c>
       <c r="K301" s="13" t="s">
-        <v>1191</v>
+        <v>1232</v>
       </c>
       <c r="L301" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M301" s="13" t="s">
-        <v>1194</v>
+        <v>1233</v>
       </c>
       <c r="N301" s="13" t="s">
-        <v>1195</v>
+        <v>1234</v>
       </c>
       <c r="O301" s="13" t="s">
-        <v>1196</v>
+        <v>1235</v>
       </c>
       <c r="P301" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q301" s="13">
-        <v>166706</v>
+        <v>115318</v>
       </c>
       <c r="R301" s="13">
-        <v>167673</v>
+        <v>115713</v>
       </c>
       <c r="S301" s="13" t="s">
         <v>290</v>
       </c>
       <c r="T301" s="13">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="U301" s="13">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="V301" s="13">
-        <v>378</v>
+        <v>46</v>
       </c>
       <c r="W301" s="13">
-        <v>968</v>
+        <v>240</v>
       </c>
       <c r="X301" s="13">
-        <v>202</v>
+        <v>65</v>
       </c>
       <c r="Y301" s="13">
-        <v>221</v>
+        <v>119</v>
       </c>
       <c r="Z301" s="13">
-        <v>62.871000000000002</v>
+        <v>84.614999999999995</v>
       </c>
       <c r="AA301" s="13">
-        <v>5.54</v>
+        <v>5.13</v>
       </c>
       <c r="AB301" s="13">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="AC301" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD301" s="13">
         <v>0</v>
       </c>
       <c r="AE301" s="13" t="s">
-        <v>1197</v>
+        <v>1207</v>
       </c>
       <c r="AF301" s="13">
-        <v>968</v>
+        <v>396</v>
       </c>
       <c r="AG301" s="13" t="s">
         <v>2080</v>
@@ -37902,7 +37903,7 @@
     </row>
     <row r="302" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A302" s="6" t="s">
-        <v>2043</v>
+        <v>2048</v>
       </c>
       <c r="B302" s="4" t="s">
         <v>1189</v>
@@ -37914,7 +37915,7 @@
         <v>1792</v>
       </c>
       <c r="E302" s="13" t="s">
-        <v>1236</v>
+        <v>1147</v>
       </c>
       <c r="F302" s="13" t="s">
         <v>53</v>
@@ -37926,76 +37927,76 @@
         <v>65</v>
       </c>
       <c r="I302" s="13" t="s">
-        <v>1199</v>
+        <v>1148</v>
       </c>
       <c r="J302" s="13" t="s">
-        <v>1237</v>
+        <v>1149</v>
       </c>
       <c r="K302" s="13" t="s">
-        <v>1236</v>
+        <v>1147</v>
       </c>
       <c r="L302" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M302" s="14">
-        <v>40844</v>
+      <c r="M302" s="13" t="s">
+        <v>1150</v>
       </c>
       <c r="N302" s="13" t="s">
-        <v>1238</v>
+        <v>1151</v>
       </c>
       <c r="O302" s="13" t="s">
-        <v>1239</v>
+        <v>1206</v>
       </c>
       <c r="P302" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q302" s="13">
-        <v>152406</v>
+        <v>887730</v>
       </c>
       <c r="R302" s="13">
-        <v>153310</v>
+        <v>887969</v>
       </c>
       <c r="S302" s="13" t="s">
         <v>290</v>
       </c>
       <c r="T302" s="13">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="U302" s="13">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="V302" s="13">
-        <v>384</v>
+        <v>46</v>
       </c>
       <c r="W302" s="13">
-        <v>902</v>
+        <v>240</v>
       </c>
       <c r="X302" s="13">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="Y302" s="13">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="Z302" s="13">
-        <v>64.286000000000001</v>
+        <v>84.614999999999995</v>
       </c>
       <c r="AA302" s="13">
-        <v>4.9800000000000004</v>
+        <v>4.25</v>
       </c>
       <c r="AB302" s="13">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="AC302" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD302" s="13">
         <v>0</v>
       </c>
       <c r="AE302" s="13" t="s">
-        <v>1218</v>
+        <v>1207</v>
       </c>
       <c r="AF302" s="13">
-        <v>905</v>
+        <v>240</v>
       </c>
       <c r="AG302" s="13" t="s">
         <v>2080</v>
@@ -38003,7 +38004,7 @@
     </row>
     <row r="303" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A303" s="6" t="s">
-        <v>2044</v>
+        <v>2049</v>
       </c>
       <c r="B303" s="4" t="s">
         <v>1189</v>
@@ -38015,7 +38016,7 @@
         <v>1792</v>
       </c>
       <c r="E303" s="13" t="s">
-        <v>1198</v>
+        <v>1171</v>
       </c>
       <c r="F303" s="13" t="s">
         <v>53</v>
@@ -38027,76 +38028,76 @@
         <v>65</v>
       </c>
       <c r="I303" s="13" t="s">
-        <v>1199</v>
+        <v>1148</v>
       </c>
       <c r="J303" s="13" t="s">
-        <v>1200</v>
+        <v>1172</v>
       </c>
       <c r="K303" s="13" t="s">
-        <v>1198</v>
+        <v>1171</v>
       </c>
       <c r="L303" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M303" s="13" t="s">
-        <v>1201</v>
+        <v>1173</v>
       </c>
       <c r="N303" s="13" t="s">
-        <v>1202</v>
+        <v>1174</v>
       </c>
       <c r="O303" s="13" t="s">
-        <v>1203</v>
+        <v>1257</v>
       </c>
       <c r="P303" s="13" t="s">
         <v>35</v>
       </c>
       <c r="Q303" s="13">
-        <v>1179273</v>
+        <v>3377757</v>
       </c>
       <c r="R303" s="13">
-        <v>1180117</v>
+        <v>3378152</v>
       </c>
       <c r="S303" s="13" t="s">
         <v>290</v>
       </c>
       <c r="T303" s="13">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="U303" s="13">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="V303" s="13">
-        <v>384</v>
+        <v>46</v>
       </c>
       <c r="W303" s="13">
-        <v>845</v>
+        <v>240</v>
       </c>
       <c r="X303" s="13">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="Y303" s="13">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="Z303" s="13">
-        <v>62.024999999999999</v>
+        <v>83.076999999999998</v>
       </c>
       <c r="AA303" s="13">
-        <v>1.54</v>
+        <v>5.01</v>
       </c>
       <c r="AB303" s="13">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AC303" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD303" s="13">
         <v>0</v>
       </c>
       <c r="AE303" s="13" t="s">
-        <v>1197</v>
+        <v>1258</v>
       </c>
       <c r="AF303" s="13">
-        <v>845</v>
+        <v>396</v>
       </c>
       <c r="AG303" s="13" t="s">
         <v>2080</v>
@@ -38104,7 +38105,7 @@
     </row>
     <row r="304" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A304" s="6" t="s">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="B304" s="4" t="s">
         <v>1189</v>
@@ -38116,7 +38117,7 @@
         <v>1792</v>
       </c>
       <c r="E304" s="13" t="s">
-        <v>1253</v>
+        <v>1161</v>
       </c>
       <c r="F304" s="13" t="s">
         <v>53</v>
@@ -38128,76 +38129,76 @@
         <v>65</v>
       </c>
       <c r="I304" s="13" t="s">
-        <v>1199</v>
+        <v>1148</v>
       </c>
       <c r="J304" s="13" t="s">
-        <v>1254</v>
+        <v>1162</v>
       </c>
       <c r="K304" s="13" t="s">
-        <v>1253</v>
+        <v>1161</v>
       </c>
       <c r="L304" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M304" s="13">
-        <v>1</v>
+      <c r="M304" s="13" t="s">
+        <v>1163</v>
       </c>
       <c r="N304" s="13" t="s">
-        <v>1255</v>
+        <v>1164</v>
       </c>
       <c r="O304" s="13" t="s">
-        <v>1256</v>
+        <v>1231</v>
       </c>
       <c r="P304" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q304" s="13">
-        <v>3627558</v>
+        <v>888320</v>
       </c>
       <c r="R304" s="13">
-        <v>3628402</v>
+        <v>888715</v>
       </c>
       <c r="S304" s="13" t="s">
         <v>290</v>
       </c>
       <c r="T304" s="13">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="U304" s="13">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="V304" s="13">
-        <v>384</v>
+        <v>46</v>
       </c>
       <c r="W304" s="13">
-        <v>845</v>
+        <v>240</v>
       </c>
       <c r="X304" s="13">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="Y304" s="13">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="Z304" s="13">
-        <v>61.392000000000003</v>
+        <v>83.076999999999998</v>
       </c>
       <c r="AA304" s="13">
-        <v>4.34</v>
+        <v>8.42</v>
       </c>
       <c r="AB304" s="13">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AC304" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD304" s="13">
         <v>0</v>
       </c>
       <c r="AE304" s="13" t="s">
-        <v>1197</v>
+        <v>1207</v>
       </c>
       <c r="AF304" s="13">
-        <v>845</v>
+        <v>396</v>
       </c>
       <c r="AG304" s="13" t="s">
         <v>2080</v>
@@ -38205,7 +38206,7 @@
     </row>
     <row r="305" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A305" s="6" t="s">
-        <v>2046</v>
+        <v>2051</v>
       </c>
       <c r="B305" s="4" t="s">
         <v>1189</v>
@@ -38217,7 +38218,7 @@
         <v>1792</v>
       </c>
       <c r="E305" s="13" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="F305" s="13" t="s">
         <v>53</v>
@@ -38229,76 +38230,76 @@
         <v>65</v>
       </c>
       <c r="I305" s="13" t="s">
-        <v>1199</v>
+        <v>1148</v>
       </c>
       <c r="J305" s="13" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="K305" s="13" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="L305" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M305" s="13" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="N305" s="13" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="O305" s="13" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="P305" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q305" s="13">
-        <v>2683626</v>
+        <v>891433</v>
       </c>
       <c r="R305" s="13">
-        <v>2684470</v>
+        <v>891618</v>
       </c>
       <c r="S305" s="13" t="s">
         <v>290</v>
       </c>
       <c r="T305" s="13">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="U305" s="13">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="V305" s="13">
-        <v>384</v>
+        <v>1</v>
       </c>
       <c r="W305" s="13">
-        <v>845</v>
+        <v>186</v>
       </c>
       <c r="X305" s="13">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="Y305" s="13">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="Z305" s="13">
-        <v>60.127000000000002</v>
+        <v>83.870999999999995</v>
       </c>
       <c r="AA305" s="13">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="AB305" s="13">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="AC305" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD305" s="13">
         <v>0</v>
       </c>
       <c r="AE305" s="13" t="s">
-        <v>1218</v>
+        <v>1207</v>
       </c>
       <c r="AF305" s="13">
-        <v>845</v>
+        <v>186</v>
       </c>
       <c r="AG305" s="13" t="s">
         <v>2080</v>
@@ -38306,7 +38307,7 @@
     </row>
     <row r="306" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
-        <v>2047</v>
+        <v>2052</v>
       </c>
       <c r="B306" s="4" t="s">
         <v>1189</v>
@@ -38318,7 +38319,7 @@
         <v>1792</v>
       </c>
       <c r="E306" s="13" t="s">
-        <v>1232</v>
+        <v>1245</v>
       </c>
       <c r="F306" s="13" t="s">
         <v>53</v>
@@ -38330,64 +38331,64 @@
         <v>65</v>
       </c>
       <c r="I306" s="13" t="s">
-        <v>1148</v>
+        <v>1246</v>
       </c>
       <c r="J306" s="13" t="s">
-        <v>1209</v>
+        <v>1247</v>
       </c>
       <c r="K306" s="13" t="s">
-        <v>1232</v>
+        <v>1245</v>
       </c>
       <c r="L306" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M306" s="13" t="s">
-        <v>1233</v>
+        <v>1248</v>
       </c>
       <c r="N306" s="13" t="s">
-        <v>1234</v>
+        <v>1249</v>
       </c>
       <c r="O306" s="13" t="s">
-        <v>1235</v>
+        <v>1250</v>
       </c>
       <c r="P306" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q306" s="13">
-        <v>115318</v>
+        <v>2091577</v>
       </c>
       <c r="R306" s="13">
-        <v>115713</v>
+        <v>2091786</v>
       </c>
       <c r="S306" s="13" t="s">
         <v>290</v>
       </c>
       <c r="T306" s="13">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="U306" s="13">
         <v>220</v>
       </c>
       <c r="V306" s="13">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="W306" s="13">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="X306" s="13">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Y306" s="13">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="Z306" s="13">
-        <v>84.614999999999995</v>
+        <v>88.135999999999996</v>
       </c>
       <c r="AA306" s="13">
-        <v>5.13</v>
+        <v>1.06</v>
       </c>
       <c r="AB306" s="13">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="AC306" s="13">
         <v>0</v>
@@ -38399,7 +38400,7 @@
         <v>1207</v>
       </c>
       <c r="AF306" s="13">
-        <v>396</v>
+        <v>210</v>
       </c>
       <c r="AG306" s="13" t="s">
         <v>2080</v>
@@ -38407,7 +38408,7 @@
     </row>
     <row r="307" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
-        <v>2048</v>
+        <v>2053</v>
       </c>
       <c r="B307" s="4" t="s">
         <v>1189</v>
@@ -38419,7 +38420,7 @@
         <v>1792</v>
       </c>
       <c r="E307" s="13" t="s">
-        <v>1147</v>
+        <v>1225</v>
       </c>
       <c r="F307" s="13" t="s">
         <v>53</v>
@@ -38431,76 +38432,76 @@
         <v>65</v>
       </c>
       <c r="I307" s="13" t="s">
-        <v>1148</v>
+        <v>1226</v>
       </c>
       <c r="J307" s="13" t="s">
-        <v>1149</v>
+        <v>1227</v>
       </c>
       <c r="K307" s="13" t="s">
-        <v>1147</v>
+        <v>1225</v>
       </c>
       <c r="L307" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M307" s="13" t="s">
-        <v>1150</v>
+        <v>1228</v>
       </c>
       <c r="N307" s="13" t="s">
-        <v>1151</v>
+        <v>1229</v>
       </c>
       <c r="O307" s="13" t="s">
-        <v>1206</v>
+        <v>1230</v>
       </c>
       <c r="P307" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q307" s="13">
-        <v>887730</v>
+        <v>6970786</v>
       </c>
       <c r="R307" s="13">
-        <v>887969</v>
+        <v>6971067</v>
       </c>
       <c r="S307" s="13" t="s">
         <v>290</v>
       </c>
       <c r="T307" s="13">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="U307" s="13">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="V307" s="13">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="W307" s="13">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="X307" s="13">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="Y307" s="13">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="Z307" s="13">
-        <v>84.614999999999995</v>
+        <v>61.164999999999999</v>
       </c>
       <c r="AA307" s="13">
-        <v>4.25</v>
+        <v>2.72</v>
       </c>
       <c r="AB307" s="13">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AC307" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD307" s="13">
         <v>0</v>
       </c>
       <c r="AE307" s="13" t="s">
-        <v>1207</v>
+        <v>1190</v>
       </c>
       <c r="AF307" s="13">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="AG307" s="13" t="s">
         <v>2080</v>
@@ -38508,7 +38509,7 @@
     </row>
     <row r="308" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
-        <v>2049</v>
+        <v>2054</v>
       </c>
       <c r="B308" s="4" t="s">
         <v>1189</v>
@@ -38520,7 +38521,7 @@
         <v>1792</v>
       </c>
       <c r="E308" s="13" t="s">
-        <v>1171</v>
+        <v>1176</v>
       </c>
       <c r="F308" s="13" t="s">
         <v>53</v>
@@ -38532,76 +38533,76 @@
         <v>65</v>
       </c>
       <c r="I308" s="13" t="s">
-        <v>1148</v>
+        <v>1167</v>
       </c>
       <c r="J308" s="13" t="s">
-        <v>1172</v>
+        <v>1177</v>
       </c>
       <c r="K308" s="13" t="s">
-        <v>1171</v>
+        <v>1176</v>
       </c>
       <c r="L308" s="13" t="s">
-        <v>34</v>
+        <v>333</v>
       </c>
       <c r="M308" s="13" t="s">
-        <v>1173</v>
+        <v>1178</v>
       </c>
       <c r="N308" s="13" t="s">
-        <v>1174</v>
+        <v>1251</v>
       </c>
       <c r="O308" s="13" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="P308" s="13" t="s">
         <v>35</v>
       </c>
       <c r="Q308" s="13">
-        <v>3377757</v>
+        <v>13079961</v>
       </c>
       <c r="R308" s="13">
-        <v>3378152</v>
+        <v>13080233</v>
       </c>
       <c r="S308" s="13" t="s">
         <v>290</v>
       </c>
       <c r="T308" s="13">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="U308" s="13">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="V308" s="13">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="W308" s="13">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="X308" s="13">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="Y308" s="13">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="Z308" s="13">
-        <v>83.076999999999998</v>
+        <v>60.204000000000001</v>
       </c>
       <c r="AA308" s="13">
-        <v>5.01</v>
+        <v>7.1</v>
       </c>
       <c r="AB308" s="13">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="AC308" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD308" s="13">
         <v>0</v>
       </c>
       <c r="AE308" s="13" t="s">
-        <v>1258</v>
+        <v>1205</v>
       </c>
       <c r="AF308" s="13">
-        <v>396</v>
+        <v>273</v>
       </c>
       <c r="AG308" s="13" t="s">
         <v>2080</v>
@@ -38609,7 +38610,7 @@
     </row>
     <row r="309" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
-        <v>2050</v>
+        <v>2055</v>
       </c>
       <c r="B309" s="4" t="s">
         <v>1189</v>
@@ -38621,7 +38622,7 @@
         <v>1792</v>
       </c>
       <c r="E309" s="13" t="s">
-        <v>1161</v>
+        <v>1166</v>
       </c>
       <c r="F309" s="13" t="s">
         <v>53</v>
@@ -38633,76 +38634,76 @@
         <v>65</v>
       </c>
       <c r="I309" s="13" t="s">
-        <v>1148</v>
+        <v>1167</v>
       </c>
       <c r="J309" s="13" t="s">
-        <v>1162</v>
+        <v>1168</v>
       </c>
       <c r="K309" s="13" t="s">
-        <v>1161</v>
+        <v>1166</v>
       </c>
       <c r="L309" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M309" s="13" t="s">
-        <v>1163</v>
+      <c r="M309" s="13">
+        <v>1</v>
       </c>
       <c r="N309" s="13" t="s">
-        <v>1164</v>
+        <v>1169</v>
       </c>
       <c r="O309" s="13" t="s">
-        <v>1231</v>
+        <v>1204</v>
       </c>
       <c r="P309" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q309" s="13">
-        <v>888320</v>
+        <v>9622401</v>
       </c>
       <c r="R309" s="13">
-        <v>888715</v>
+        <v>9622679</v>
       </c>
       <c r="S309" s="13" t="s">
         <v>290</v>
       </c>
       <c r="T309" s="13">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="U309" s="13">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="V309" s="13">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="W309" s="13">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="X309" s="13">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="Y309" s="13">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="Z309" s="13">
-        <v>83.076999999999998</v>
+        <v>59.405999999999999</v>
       </c>
       <c r="AA309" s="13">
-        <v>8.42</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AB309" s="13">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AC309" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD309" s="13">
         <v>0</v>
       </c>
       <c r="AE309" s="13" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="AF309" s="13">
-        <v>396</v>
+        <v>279</v>
       </c>
       <c r="AG309" s="13" t="s">
         <v>2080</v>
@@ -38710,7 +38711,7 @@
     </row>
     <row r="310" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
-        <v>2051</v>
+        <v>2056</v>
       </c>
       <c r="B310" s="4" t="s">
         <v>1189</v>
@@ -38722,7 +38723,7 @@
         <v>1792</v>
       </c>
       <c r="E310" s="13" t="s">
-        <v>1208</v>
+        <v>1219</v>
       </c>
       <c r="F310" s="13" t="s">
         <v>53</v>
@@ -38734,76 +38735,76 @@
         <v>65</v>
       </c>
       <c r="I310" s="13" t="s">
-        <v>1148</v>
+        <v>1220</v>
       </c>
       <c r="J310" s="13" t="s">
-        <v>1209</v>
+        <v>1221</v>
       </c>
       <c r="K310" s="13" t="s">
-        <v>1208</v>
+        <v>1219</v>
       </c>
       <c r="L310" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M310" s="13" t="s">
-        <v>1210</v>
+        <v>1222</v>
       </c>
       <c r="N310" s="13" t="s">
-        <v>1211</v>
+        <v>1223</v>
       </c>
       <c r="O310" s="13" t="s">
-        <v>1212</v>
+        <v>1224</v>
       </c>
       <c r="P310" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q310" s="13">
-        <v>891433</v>
+        <v>4004291</v>
       </c>
       <c r="R310" s="13">
-        <v>891618</v>
+        <v>4004587</v>
       </c>
       <c r="S310" s="13" t="s">
         <v>290</v>
       </c>
       <c r="T310" s="13">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="U310" s="13">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="V310" s="13">
         <v>1</v>
       </c>
       <c r="W310" s="13">
-        <v>186</v>
+        <v>297</v>
       </c>
       <c r="X310" s="13">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="Y310" s="13">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="Z310" s="13">
-        <v>83.870999999999995</v>
+        <v>56.756999999999998</v>
       </c>
       <c r="AA310" s="13">
-        <v>1.93</v>
+        <v>1.32</v>
       </c>
       <c r="AB310" s="13">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC310" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD310" s="13">
         <v>0</v>
       </c>
       <c r="AE310" s="13" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="AF310" s="13">
-        <v>186</v>
+        <v>297</v>
       </c>
       <c r="AG310" s="13" t="s">
         <v>2080</v>
@@ -38811,7 +38812,7 @@
     </row>
     <row r="311" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
-        <v>2052</v>
+        <v>2057</v>
       </c>
       <c r="B311" s="4" t="s">
         <v>1189</v>
@@ -38823,7 +38824,7 @@
         <v>1792</v>
       </c>
       <c r="E311" s="13" t="s">
-        <v>1245</v>
+        <v>64</v>
       </c>
       <c r="F311" s="13" t="s">
         <v>53</v>
@@ -38835,76 +38836,76 @@
         <v>65</v>
       </c>
       <c r="I311" s="13" t="s">
-        <v>1246</v>
+        <v>66</v>
       </c>
       <c r="J311" s="13" t="s">
-        <v>1247</v>
+        <v>67</v>
       </c>
       <c r="K311" s="13" t="s">
-        <v>1245</v>
+        <v>64</v>
       </c>
       <c r="L311" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M311" s="13" t="s">
-        <v>1248</v>
+        <v>68</v>
       </c>
       <c r="N311" s="13" t="s">
-        <v>1249</v>
+        <v>69</v>
       </c>
       <c r="O311" s="13" t="s">
-        <v>1250</v>
+        <v>1188</v>
       </c>
       <c r="P311" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q311" s="13">
-        <v>2091577</v>
+        <v>51847511</v>
       </c>
       <c r="R311" s="13">
-        <v>2091786</v>
+        <v>51847789</v>
       </c>
       <c r="S311" s="13" t="s">
         <v>290</v>
       </c>
       <c r="T311" s="13">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="U311" s="13">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="V311" s="13">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="W311" s="13">
-        <v>210</v>
+        <v>279</v>
       </c>
       <c r="X311" s="13">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="Y311" s="13">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="Z311" s="13">
-        <v>88.135999999999996</v>
+        <v>59.804000000000002</v>
       </c>
       <c r="AA311" s="13">
-        <v>1.06</v>
+        <v>1.95</v>
       </c>
       <c r="AB311" s="13">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AC311" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD311" s="13">
         <v>0</v>
       </c>
       <c r="AE311" s="13" t="s">
-        <v>1207</v>
+        <v>1190</v>
       </c>
       <c r="AF311" s="13">
-        <v>210</v>
+        <v>279</v>
       </c>
       <c r="AG311" s="13" t="s">
         <v>2080</v>
@@ -38912,7 +38913,7 @@
     </row>
     <row r="312" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="B312" s="4" t="s">
         <v>1189</v>
@@ -38924,7 +38925,7 @@
         <v>1792</v>
       </c>
       <c r="E312" s="13" t="s">
-        <v>1225</v>
+        <v>1270</v>
       </c>
       <c r="F312" s="13" t="s">
         <v>53</v>
@@ -38936,34 +38937,34 @@
         <v>65</v>
       </c>
       <c r="I312" s="13" t="s">
-        <v>1226</v>
+        <v>66</v>
       </c>
       <c r="J312" s="13" t="s">
-        <v>1227</v>
+        <v>1271</v>
       </c>
       <c r="K312" s="13" t="s">
-        <v>1225</v>
+        <v>1270</v>
       </c>
       <c r="L312" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M312" s="13" t="s">
-        <v>1228</v>
+        <v>1272</v>
       </c>
       <c r="N312" s="13" t="s">
-        <v>1229</v>
+        <v>1273</v>
       </c>
       <c r="O312" s="13" t="s">
-        <v>1230</v>
+        <v>1274</v>
       </c>
       <c r="P312" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q312" s="13">
-        <v>6970786</v>
+        <v>13086293</v>
       </c>
       <c r="R312" s="13">
-        <v>6971067</v>
+        <v>13086574</v>
       </c>
       <c r="S312" s="13" t="s">
         <v>290</v>
@@ -38984,16 +38985,16 @@
         <v>103</v>
       </c>
       <c r="Y312" s="13">
-        <v>105</v>
+        <v>97.8</v>
       </c>
       <c r="Z312" s="13">
-        <v>61.164999999999999</v>
+        <v>59.222999999999999</v>
       </c>
       <c r="AA312" s="13">
-        <v>2.72</v>
+        <v>2.98</v>
       </c>
       <c r="AB312" s="13">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AC312" s="13">
         <v>3</v>
@@ -39002,7 +39003,7 @@
         <v>0</v>
       </c>
       <c r="AE312" s="13" t="s">
-        <v>1190</v>
+        <v>1205</v>
       </c>
       <c r="AF312" s="13">
         <v>282</v>
@@ -39013,7 +39014,7 @@
     </row>
     <row r="313" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
-        <v>2054</v>
+        <v>2059</v>
       </c>
       <c r="B313" s="4" t="s">
         <v>1189</v>
@@ -39025,7 +39026,7 @@
         <v>1792</v>
       </c>
       <c r="E313" s="13" t="s">
-        <v>1176</v>
+        <v>1259</v>
       </c>
       <c r="F313" s="13" t="s">
         <v>53</v>
@@ -39037,64 +39038,64 @@
         <v>65</v>
       </c>
       <c r="I313" s="13" t="s">
-        <v>1167</v>
+        <v>1226</v>
       </c>
       <c r="J313" s="13" t="s">
-        <v>1177</v>
+        <v>1260</v>
       </c>
       <c r="K313" s="13" t="s">
-        <v>1176</v>
+        <v>1259</v>
       </c>
       <c r="L313" s="13" t="s">
-        <v>333</v>
+        <v>34</v>
       </c>
       <c r="M313" s="13" t="s">
-        <v>1178</v>
+        <v>1261</v>
       </c>
       <c r="N313" s="13" t="s">
-        <v>1251</v>
+        <v>1262</v>
       </c>
       <c r="O313" s="13" t="s">
-        <v>1252</v>
+        <v>1263</v>
       </c>
       <c r="P313" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q313" s="13">
-        <v>13079961</v>
+        <v>3254570</v>
       </c>
       <c r="R313" s="13">
-        <v>13080233</v>
+        <v>3254845</v>
       </c>
       <c r="S313" s="13" t="s">
         <v>290</v>
       </c>
       <c r="T313" s="13">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="U313" s="13">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="V313" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="W313" s="13">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="X313" s="13">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Y313" s="13">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="Z313" s="13">
-        <v>60.204000000000001</v>
+        <v>57.895000000000003</v>
       </c>
       <c r="AA313" s="13">
-        <v>7.1</v>
+        <v>8.26</v>
       </c>
       <c r="AB313" s="13">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AC313" s="13">
         <v>2</v>
@@ -39103,10 +39104,10 @@
         <v>0</v>
       </c>
       <c r="AE313" s="13" t="s">
-        <v>1205</v>
+        <v>1190</v>
       </c>
       <c r="AF313" s="13">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AG313" s="13" t="s">
         <v>2080</v>
@@ -39114,7 +39115,7 @@
     </row>
     <row r="314" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
-        <v>2055</v>
+        <v>2060</v>
       </c>
       <c r="B314" s="4" t="s">
         <v>1189</v>
@@ -39126,7 +39127,7 @@
         <v>1792</v>
       </c>
       <c r="E314" s="13" t="s">
-        <v>1166</v>
+        <v>1264</v>
       </c>
       <c r="F314" s="13" t="s">
         <v>53</v>
@@ -39138,40 +39139,40 @@
         <v>65</v>
       </c>
       <c r="I314" s="13" t="s">
-        <v>1167</v>
+        <v>1265</v>
       </c>
       <c r="J314" s="13" t="s">
-        <v>1168</v>
+        <v>1266</v>
       </c>
       <c r="K314" s="13" t="s">
-        <v>1166</v>
+        <v>1264</v>
       </c>
       <c r="L314" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M314" s="13">
-        <v>1</v>
+      <c r="M314" s="13" t="s">
+        <v>1267</v>
       </c>
       <c r="N314" s="13" t="s">
-        <v>1169</v>
+        <v>1268</v>
       </c>
       <c r="O314" s="13" t="s">
-        <v>1204</v>
+        <v>1269</v>
       </c>
       <c r="P314" s="13" t="s">
         <v>35</v>
       </c>
       <c r="Q314" s="13">
-        <v>9622401</v>
+        <v>4736948</v>
       </c>
       <c r="R314" s="13">
-        <v>9622679</v>
+        <v>4737262</v>
       </c>
       <c r="S314" s="13" t="s">
         <v>290</v>
       </c>
       <c r="T314" s="13">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="U314" s="13">
         <v>258</v>
@@ -39180,25 +39181,25 @@
         <v>1</v>
       </c>
       <c r="W314" s="13">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="X314" s="13">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="Y314" s="13">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="Z314" s="13">
-        <v>59.405999999999999</v>
+        <v>50</v>
       </c>
       <c r="AA314" s="13">
-        <v>2.2799999999999998</v>
+        <v>1.22</v>
       </c>
       <c r="AB314" s="13">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AC314" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD314" s="13">
         <v>0</v>
@@ -39207,7 +39208,7 @@
         <v>1205</v>
       </c>
       <c r="AF314" s="13">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="AG314" s="13" t="s">
         <v>2080</v>
@@ -39215,7 +39216,7 @@
     </row>
     <row r="315" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
-        <v>2056</v>
+        <v>2061</v>
       </c>
       <c r="B315" s="4" t="s">
         <v>1189</v>
@@ -39227,7 +39228,7 @@
         <v>1792</v>
       </c>
       <c r="E315" s="13" t="s">
-        <v>1219</v>
+        <v>1240</v>
       </c>
       <c r="F315" s="13" t="s">
         <v>53</v>
@@ -39239,67 +39240,67 @@
         <v>65</v>
       </c>
       <c r="I315" s="13" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="J315" s="13" t="s">
-        <v>1221</v>
+        <v>1241</v>
       </c>
       <c r="K315" s="13" t="s">
-        <v>1219</v>
+        <v>1240</v>
       </c>
       <c r="L315" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M315" s="13" t="s">
-        <v>1222</v>
+        <v>1242</v>
       </c>
       <c r="N315" s="13" t="s">
-        <v>1223</v>
+        <v>1243</v>
       </c>
       <c r="O315" s="13" t="s">
-        <v>1224</v>
+        <v>1244</v>
       </c>
       <c r="P315" s="13" t="s">
         <v>35</v>
       </c>
       <c r="Q315" s="13">
-        <v>4004291</v>
+        <v>13008834</v>
       </c>
       <c r="R315" s="13">
-        <v>4004587</v>
+        <v>13009115</v>
       </c>
       <c r="S315" s="13" t="s">
         <v>290</v>
       </c>
       <c r="T315" s="13">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="U315" s="13">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="V315" s="13">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="W315" s="13">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="X315" s="13">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="Y315" s="13">
-        <v>101</v>
+        <v>85.5</v>
       </c>
       <c r="Z315" s="13">
-        <v>56.756999999999998</v>
+        <v>54.347999999999999</v>
       </c>
       <c r="AA315" s="13">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AB315" s="13">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC315" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD315" s="13">
         <v>0</v>
@@ -39308,7 +39309,7 @@
         <v>1205</v>
       </c>
       <c r="AF315" s="13">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="AG315" s="13" t="s">
         <v>2080</v>
@@ -39316,19 +39317,19 @@
     </row>
     <row r="316" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
-        <v>2057</v>
+        <v>2062</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>1189</v>
+        <v>1730</v>
       </c>
       <c r="C316" s="12">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D316" s="13" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="E316" s="13" t="s">
-        <v>64</v>
+        <v>1275</v>
       </c>
       <c r="F316" s="13" t="s">
         <v>53</v>
@@ -39337,79 +39338,79 @@
         <v>54</v>
       </c>
       <c r="H316" s="13" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I316" s="13" t="s">
-        <v>66</v>
+        <v>1276</v>
       </c>
       <c r="J316" s="13" t="s">
-        <v>67</v>
+        <v>1277</v>
       </c>
       <c r="K316" s="13" t="s">
-        <v>64</v>
+        <v>1275</v>
       </c>
       <c r="L316" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M316" s="13" t="s">
-        <v>68</v>
+        <v>1278</v>
       </c>
       <c r="N316" s="13" t="s">
-        <v>69</v>
+        <v>1279</v>
       </c>
       <c r="O316" s="13" t="s">
-        <v>1188</v>
+        <v>1280</v>
       </c>
       <c r="P316" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q316" s="13">
-        <v>51847511</v>
+        <v>813</v>
       </c>
       <c r="R316" s="13">
-        <v>51847789</v>
+        <v>1196</v>
       </c>
       <c r="S316" s="13" t="s">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="T316" s="13">
-        <v>159</v>
+        <v>1</v>
       </c>
       <c r="U316" s="13">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="V316" s="13">
         <v>1</v>
       </c>
       <c r="W316" s="13">
-        <v>279</v>
+        <v>384</v>
       </c>
       <c r="X316" s="13">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="Y316" s="13">
+        <v>260</v>
+      </c>
+      <c r="Z316" s="13">
         <v>100</v>
       </c>
-      <c r="Z316" s="13">
-        <v>59.804000000000002</v>
-      </c>
       <c r="AA316" s="13">
-        <v>1.95</v>
+        <v>1.41</v>
       </c>
       <c r="AB316" s="13">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="AC316" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD316" s="13">
         <v>0</v>
       </c>
       <c r="AE316" s="13" t="s">
-        <v>1190</v>
+        <v>1281</v>
       </c>
       <c r="AF316" s="13">
-        <v>279</v>
+        <v>384</v>
       </c>
       <c r="AG316" s="13" t="s">
         <v>2080</v>
@@ -39417,19 +39418,19 @@
     </row>
     <row r="317" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A317" s="6" t="s">
-        <v>2058</v>
+        <v>2063</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>1189</v>
+        <v>1730</v>
       </c>
       <c r="C317" s="12">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D317" s="13" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="E317" s="13" t="s">
-        <v>1270</v>
+        <v>1284</v>
       </c>
       <c r="F317" s="13" t="s">
         <v>53</v>
@@ -39438,79 +39439,79 @@
         <v>54</v>
       </c>
       <c r="H317" s="13" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I317" s="13" t="s">
-        <v>66</v>
+        <v>1276</v>
       </c>
       <c r="J317" s="13" t="s">
-        <v>1271</v>
+        <v>1285</v>
       </c>
       <c r="K317" s="13" t="s">
-        <v>1270</v>
+        <v>1284</v>
       </c>
       <c r="L317" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M317" s="13" t="s">
-        <v>1272</v>
+        <v>1286</v>
       </c>
       <c r="N317" s="13" t="s">
-        <v>1273</v>
+        <v>1287</v>
       </c>
       <c r="O317" s="13" t="s">
-        <v>1274</v>
+        <v>1288</v>
       </c>
       <c r="P317" s="13" t="s">
         <v>35</v>
       </c>
       <c r="Q317" s="13">
-        <v>13086293</v>
+        <v>7632</v>
       </c>
       <c r="R317" s="13">
-        <v>13086574</v>
+        <v>8015</v>
       </c>
       <c r="S317" s="13" t="s">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="T317" s="13">
-        <v>159</v>
+        <v>1</v>
       </c>
       <c r="U317" s="13">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="V317" s="13">
         <v>1</v>
       </c>
       <c r="W317" s="13">
-        <v>282</v>
+        <v>384</v>
       </c>
       <c r="X317" s="13">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="Y317" s="13">
-        <v>97.8</v>
+        <v>260</v>
       </c>
       <c r="Z317" s="13">
-        <v>59.222999999999999</v>
+        <v>100</v>
       </c>
       <c r="AA317" s="13">
-        <v>2.98</v>
+        <v>1.41</v>
       </c>
       <c r="AB317" s="13">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="AC317" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD317" s="13">
         <v>0</v>
       </c>
       <c r="AE317" s="13" t="s">
-        <v>1205</v>
+        <v>1289</v>
       </c>
       <c r="AF317" s="13">
-        <v>282</v>
+        <v>384</v>
       </c>
       <c r="AG317" s="13" t="s">
         <v>2080</v>
@@ -39518,19 +39519,19 @@
     </row>
     <row r="318" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
-        <v>2059</v>
+        <v>2064</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>1189</v>
+        <v>1730</v>
       </c>
       <c r="C318" s="12">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D318" s="13" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="E318" s="13" t="s">
-        <v>1259</v>
+        <v>1290</v>
       </c>
       <c r="F318" s="13" t="s">
         <v>53</v>
@@ -39539,79 +39540,79 @@
         <v>54</v>
       </c>
       <c r="H318" s="13" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I318" s="13" t="s">
-        <v>1226</v>
+        <v>1276</v>
       </c>
       <c r="J318" s="13" t="s">
-        <v>1260</v>
+        <v>1285</v>
       </c>
       <c r="K318" s="13" t="s">
-        <v>1259</v>
+        <v>1290</v>
       </c>
       <c r="L318" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M318" s="13" t="s">
-        <v>1261</v>
+        <v>56</v>
       </c>
       <c r="N318" s="13" t="s">
-        <v>1262</v>
+        <v>1291</v>
       </c>
       <c r="O318" s="13" t="s">
-        <v>1263</v>
+        <v>1292</v>
       </c>
       <c r="P318" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q318" s="13">
-        <v>3254570</v>
+        <v>7632</v>
       </c>
       <c r="R318" s="13">
-        <v>3254845</v>
+        <v>8015</v>
       </c>
       <c r="S318" s="13" t="s">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="T318" s="13">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="U318" s="13">
-        <v>244</v>
+        <v>128</v>
       </c>
       <c r="V318" s="13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="W318" s="13">
-        <v>267</v>
+        <v>384</v>
       </c>
       <c r="X318" s="13">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="Y318" s="13">
-        <v>94</v>
+        <v>260</v>
       </c>
       <c r="Z318" s="13">
-        <v>57.895000000000003</v>
+        <v>100</v>
       </c>
       <c r="AA318" s="13">
-        <v>8.26</v>
+        <v>1.41</v>
       </c>
       <c r="AB318" s="13">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="AC318" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD318" s="13">
         <v>0</v>
       </c>
       <c r="AE318" s="13" t="s">
-        <v>1190</v>
+        <v>1289</v>
       </c>
       <c r="AF318" s="13">
-        <v>276</v>
+        <v>384</v>
       </c>
       <c r="AG318" s="13" t="s">
         <v>2080</v>
@@ -39619,19 +39620,19 @@
     </row>
     <row r="319" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>1189</v>
+        <v>1730</v>
       </c>
       <c r="C319" s="12">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D319" s="13" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="E319" s="13" t="s">
-        <v>1264</v>
+        <v>1275</v>
       </c>
       <c r="F319" s="13" t="s">
         <v>53</v>
@@ -39640,79 +39641,79 @@
         <v>54</v>
       </c>
       <c r="H319" s="13" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I319" s="13" t="s">
-        <v>1265</v>
+        <v>1276</v>
       </c>
       <c r="J319" s="13" t="s">
-        <v>1266</v>
+        <v>1277</v>
       </c>
       <c r="K319" s="13" t="s">
-        <v>1264</v>
+        <v>1275</v>
       </c>
       <c r="L319" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M319" s="13" t="s">
-        <v>1267</v>
+        <v>1278</v>
       </c>
       <c r="N319" s="13" t="s">
-        <v>1268</v>
+        <v>1279</v>
       </c>
       <c r="O319" s="13" t="s">
-        <v>1269</v>
+        <v>1282</v>
       </c>
       <c r="P319" s="13" t="s">
         <v>35</v>
       </c>
       <c r="Q319" s="13">
-        <v>4736948</v>
+        <v>22799</v>
       </c>
       <c r="R319" s="13">
-        <v>4737262</v>
+        <v>23155</v>
       </c>
       <c r="S319" s="13" t="s">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="T319" s="13">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="U319" s="13">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="V319" s="13">
         <v>1</v>
       </c>
       <c r="W319" s="13">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="X319" s="13">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Y319" s="13">
-        <v>89</v>
+        <v>202</v>
       </c>
       <c r="Z319" s="13">
-        <v>50</v>
+        <v>86.555000000000007</v>
       </c>
       <c r="AA319" s="13">
-        <v>1.22</v>
+        <v>1.07</v>
       </c>
       <c r="AB319" s="13">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="AC319" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD319" s="13">
         <v>0</v>
       </c>
       <c r="AE319" s="13" t="s">
-        <v>1205</v>
+        <v>1283</v>
       </c>
       <c r="AF319" s="13">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="AG319" s="13" t="s">
         <v>2080</v>
@@ -39720,19 +39721,19 @@
     </row>
     <row r="320" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A320" s="6" t="s">
-        <v>2061</v>
+        <v>2065</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>1189</v>
+        <v>1730</v>
       </c>
       <c r="C320" s="12">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D320" s="13" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="E320" s="13" t="s">
-        <v>1240</v>
+        <v>1284</v>
       </c>
       <c r="F320" s="13" t="s">
         <v>53</v>
@@ -39741,79 +39742,79 @@
         <v>54</v>
       </c>
       <c r="H320" s="13" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I320" s="13" t="s">
-        <v>1226</v>
+        <v>1276</v>
       </c>
       <c r="J320" s="13" t="s">
-        <v>1241</v>
+        <v>1285</v>
       </c>
       <c r="K320" s="13" t="s">
-        <v>1240</v>
+        <v>1284</v>
       </c>
       <c r="L320" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M320" s="13" t="s">
-        <v>1242</v>
+        <v>1286</v>
       </c>
       <c r="N320" s="13" t="s">
-        <v>1243</v>
+        <v>1287</v>
       </c>
       <c r="O320" s="13" t="s">
-        <v>1244</v>
+        <v>1288</v>
       </c>
       <c r="P320" s="13" t="s">
         <v>35</v>
       </c>
       <c r="Q320" s="13">
-        <v>13008834</v>
+        <v>415</v>
       </c>
       <c r="R320" s="13">
-        <v>13009115</v>
+        <v>951</v>
       </c>
       <c r="S320" s="13" t="s">
-        <v>290</v>
+        <v>2081</v>
       </c>
       <c r="T320" s="13">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="U320" s="13">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="V320" s="13">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="W320" s="13">
-        <v>273</v>
+        <v>537</v>
       </c>
       <c r="X320" s="13">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="Y320" s="13">
-        <v>85.5</v>
+        <v>132</v>
       </c>
       <c r="Z320" s="13">
-        <v>54.347999999999999</v>
+        <v>42.935000000000002</v>
       </c>
       <c r="AA320" s="13">
-        <v>1.36</v>
+        <v>5.2</v>
       </c>
       <c r="AB320" s="13">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AC320" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD320" s="13">
         <v>0</v>
       </c>
       <c r="AE320" s="13" t="s">
-        <v>1205</v>
+        <v>1327</v>
       </c>
       <c r="AF320" s="13">
-        <v>282</v>
+        <v>537</v>
       </c>
       <c r="AG320" s="13" t="s">
         <v>2080</v>
@@ -39821,19 +39822,19 @@
     </row>
     <row r="321" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A321" s="6" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
       <c r="B321" s="4" t="s">
         <v>1730</v>
       </c>
       <c r="C321" s="12">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D321" s="13" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="E321" s="13" t="s">
-        <v>1275</v>
+        <v>1290</v>
       </c>
       <c r="F321" s="13" t="s">
         <v>53</v>
@@ -39848,73 +39849,73 @@
         <v>1276</v>
       </c>
       <c r="J321" s="13" t="s">
-        <v>1277</v>
+        <v>1285</v>
       </c>
       <c r="K321" s="13" t="s">
-        <v>1275</v>
+        <v>1290</v>
       </c>
       <c r="L321" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M321" s="13" t="s">
-        <v>1278</v>
+        <v>56</v>
       </c>
       <c r="N321" s="13" t="s">
-        <v>1279</v>
+        <v>1291</v>
       </c>
       <c r="O321" s="13" t="s">
-        <v>1280</v>
+        <v>1292</v>
       </c>
       <c r="P321" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q321" s="13">
-        <v>813</v>
+        <v>415</v>
       </c>
       <c r="R321" s="13">
-        <v>1196</v>
+        <v>951</v>
       </c>
       <c r="S321" s="13" t="s">
-        <v>76</v>
+        <v>2081</v>
       </c>
       <c r="T321" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U321" s="13">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="V321" s="13">
         <v>1</v>
       </c>
       <c r="W321" s="13">
-        <v>384</v>
+        <v>537</v>
       </c>
       <c r="X321" s="13">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Y321" s="13">
-        <v>260</v>
+        <v>132</v>
       </c>
       <c r="Z321" s="13">
-        <v>100</v>
+        <v>42.935000000000002</v>
       </c>
       <c r="AA321" s="13">
-        <v>1.41</v>
+        <v>5.2</v>
       </c>
       <c r="AB321" s="13">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="AC321" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD321" s="13">
         <v>0</v>
       </c>
       <c r="AE321" s="13" t="s">
-        <v>1281</v>
+        <v>1327</v>
       </c>
       <c r="AF321" s="13">
-        <v>384</v>
+        <v>537</v>
       </c>
       <c r="AG321" s="13" t="s">
         <v>2080</v>
@@ -39922,19 +39923,19 @@
     </row>
     <row r="322" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A322" s="6" t="s">
-        <v>2063</v>
+        <v>2067</v>
       </c>
       <c r="B322" s="4" t="s">
         <v>1730</v>
       </c>
       <c r="C322" s="12">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D322" s="13" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="E322" s="13" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="F322" s="13" t="s">
         <v>53</v>
@@ -39949,73 +39950,73 @@
         <v>1276</v>
       </c>
       <c r="J322" s="13" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="K322" s="13" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="L322" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M322" s="13" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="N322" s="13" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
       <c r="O322" s="13" t="s">
-        <v>1288</v>
+        <v>1325</v>
       </c>
       <c r="P322" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q322" s="13">
-        <v>7632</v>
+        <v>128</v>
       </c>
       <c r="R322" s="13">
-        <v>8015</v>
+        <v>634</v>
       </c>
       <c r="S322" s="13" t="s">
-        <v>76</v>
+        <v>2081</v>
       </c>
       <c r="T322" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U322" s="13">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="V322" s="13">
         <v>1</v>
       </c>
       <c r="W322" s="13">
-        <v>384</v>
+        <v>507</v>
       </c>
       <c r="X322" s="13">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="Y322" s="13">
-        <v>260</v>
+        <v>125</v>
       </c>
       <c r="Z322" s="13">
-        <v>100</v>
+        <v>43.103000000000002</v>
       </c>
       <c r="AA322" s="13">
-        <v>1.41</v>
+        <v>9.65</v>
       </c>
       <c r="AB322" s="13">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="AC322" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD322" s="13">
         <v>0</v>
       </c>
       <c r="AE322" s="13" t="s">
-        <v>1289</v>
+        <v>1326</v>
       </c>
       <c r="AF322" s="13">
-        <v>384</v>
+        <v>507</v>
       </c>
       <c r="AG322" s="13" t="s">
         <v>2080</v>
@@ -40023,19 +40024,19 @@
     </row>
     <row r="323" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A323" s="6" t="s">
-        <v>2064</v>
+        <v>1713</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>1730</v>
+        <v>1713</v>
       </c>
       <c r="C323" s="12">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D323" s="13" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="E323" s="13" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="F323" s="13" t="s">
         <v>53</v>
@@ -40044,67 +40045,67 @@
         <v>54</v>
       </c>
       <c r="H323" s="13" t="s">
-        <v>55</v>
+        <v>1294</v>
       </c>
       <c r="I323" s="13" t="s">
-        <v>1276</v>
+        <v>1295</v>
       </c>
       <c r="J323" s="13" t="s">
-        <v>1285</v>
+        <v>1296</v>
       </c>
       <c r="K323" s="13" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="L323" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M323" s="13" t="s">
-        <v>56</v>
+        <v>1297</v>
       </c>
       <c r="N323" s="13" t="s">
-        <v>1291</v>
+        <v>1298</v>
       </c>
       <c r="O323" s="13" t="s">
-        <v>1292</v>
+        <v>1299</v>
       </c>
       <c r="P323" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q323" s="13">
-        <v>7632</v>
+        <v>3956495</v>
       </c>
       <c r="R323" s="13">
-        <v>8015</v>
+        <v>3957082</v>
       </c>
       <c r="S323" s="13" t="s">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="T323" s="13">
         <v>1</v>
       </c>
       <c r="U323" s="13">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="V323" s="13">
         <v>1</v>
       </c>
       <c r="W323" s="13">
-        <v>384</v>
+        <v>588</v>
       </c>
       <c r="X323" s="13">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="Y323" s="13">
-        <v>260</v>
+        <v>412</v>
       </c>
       <c r="Z323" s="13">
         <v>100</v>
       </c>
       <c r="AA323" s="13">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AB323" s="13">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="AC323" s="13">
         <v>0</v>
@@ -40113,10 +40114,10 @@
         <v>0</v>
       </c>
       <c r="AE323" s="13" t="s">
-        <v>1289</v>
+        <v>1300</v>
       </c>
       <c r="AF323" s="13">
-        <v>384</v>
+        <v>588</v>
       </c>
       <c r="AG323" s="13" t="s">
         <v>2080</v>
@@ -40124,19 +40125,19 @@
     </row>
     <row r="324" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A324" s="6" t="s">
-        <v>2062</v>
+        <v>2068</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>1730</v>
+        <v>1323</v>
       </c>
       <c r="C324" s="12">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D324" s="13" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="E324" s="13" t="s">
-        <v>1275</v>
+        <v>1328</v>
       </c>
       <c r="F324" s="13" t="s">
         <v>53</v>
@@ -40145,67 +40146,67 @@
         <v>54</v>
       </c>
       <c r="H324" s="13" t="s">
-        <v>55</v>
+        <v>1318</v>
       </c>
       <c r="I324" s="13" t="s">
-        <v>1276</v>
+        <v>1329</v>
       </c>
       <c r="J324" s="13" t="s">
-        <v>1277</v>
+        <v>1330</v>
       </c>
       <c r="K324" s="13" t="s">
-        <v>1275</v>
+        <v>1328</v>
       </c>
       <c r="L324" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M324" s="13" t="s">
-        <v>1278</v>
+        <v>56</v>
       </c>
       <c r="N324" s="13" t="s">
-        <v>1279</v>
+        <v>1331</v>
       </c>
       <c r="O324" s="13" t="s">
-        <v>1282</v>
+        <v>1332</v>
       </c>
       <c r="P324" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q324" s="13">
-        <v>22799</v>
+        <v>6093</v>
       </c>
       <c r="R324" s="13">
-        <v>23155</v>
+        <v>8381</v>
       </c>
       <c r="S324" s="13" t="s">
-        <v>76</v>
+        <v>2081</v>
       </c>
       <c r="T324" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U324" s="13">
-        <v>128</v>
+        <v>259</v>
       </c>
       <c r="V324" s="13">
         <v>1</v>
       </c>
       <c r="W324" s="13">
-        <v>357</v>
+        <v>777</v>
       </c>
       <c r="X324" s="13">
-        <v>119</v>
+        <v>259</v>
       </c>
       <c r="Y324" s="13">
-        <v>202</v>
+        <v>496</v>
       </c>
       <c r="Z324" s="13">
-        <v>86.555000000000007</v>
+        <v>99.614000000000004</v>
       </c>
       <c r="AA324" s="13">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="AB324" s="13">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="AC324" s="13">
         <v>0</v>
@@ -40214,10 +40215,10 @@
         <v>0</v>
       </c>
       <c r="AE324" s="13" t="s">
-        <v>1283</v>
+        <v>1333</v>
       </c>
       <c r="AF324" s="13">
-        <v>357</v>
+        <v>2289</v>
       </c>
       <c r="AG324" s="13" t="s">
         <v>2080</v>
@@ -40225,19 +40226,19 @@
     </row>
     <row r="325" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
-        <v>2065</v>
+        <v>2069</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="C325" s="12">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D325" s="13" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="E325" s="13" t="s">
-        <v>1284</v>
+        <v>1317</v>
       </c>
       <c r="F325" s="13" t="s">
         <v>53</v>
@@ -40246,79 +40247,79 @@
         <v>54</v>
       </c>
       <c r="H325" s="13" t="s">
-        <v>55</v>
+        <v>1318</v>
       </c>
       <c r="I325" s="13" t="s">
-        <v>1276</v>
+        <v>1319</v>
       </c>
       <c r="J325" s="13" t="s">
-        <v>1285</v>
+        <v>1320</v>
       </c>
       <c r="K325" s="13" t="s">
-        <v>1284</v>
+        <v>1317</v>
       </c>
       <c r="L325" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M325" s="13" t="s">
-        <v>1286</v>
+        <v>56</v>
       </c>
       <c r="N325" s="13" t="s">
-        <v>1287</v>
+        <v>1321</v>
       </c>
       <c r="O325" s="13" t="s">
-        <v>1288</v>
+        <v>1322</v>
       </c>
       <c r="P325" s="13" t="s">
         <v>35</v>
       </c>
       <c r="Q325" s="13">
-        <v>415</v>
+        <v>2266872</v>
       </c>
       <c r="R325" s="13">
-        <v>951</v>
+        <v>2267294</v>
       </c>
       <c r="S325" s="13" t="s">
         <v>2081</v>
       </c>
       <c r="T325" s="13">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="U325" s="13">
-        <v>189</v>
+        <v>284</v>
       </c>
       <c r="V325" s="13">
         <v>1</v>
       </c>
       <c r="W325" s="13">
-        <v>537</v>
+        <v>423</v>
       </c>
       <c r="X325" s="13">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="Y325" s="13">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="Z325" s="13">
-        <v>42.935000000000002</v>
+        <v>46.052999999999997</v>
       </c>
       <c r="AA325" s="13">
-        <v>5.2</v>
+        <v>6.72</v>
       </c>
       <c r="AB325" s="13">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AC325" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD325" s="13">
         <v>0</v>
       </c>
       <c r="AE325" s="13" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="AF325" s="13">
-        <v>537</v>
+        <v>423</v>
       </c>
       <c r="AG325" s="13" t="s">
         <v>2080</v>
@@ -40326,19 +40327,19 @@
     </row>
     <row r="326" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A326" s="6" t="s">
-        <v>2066</v>
-      </c>
-      <c r="B326" s="4" t="s">
-        <v>1730</v>
+        <v>2095</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>2096</v>
       </c>
       <c r="C326" s="12">
-        <v>368</v>
-      </c>
-      <c r="D326" s="13" t="s">
-        <v>1794</v>
+        <v>372</v>
+      </c>
+      <c r="D326" s="15" t="s">
+        <v>2097</v>
       </c>
       <c r="E326" s="13" t="s">
-        <v>1290</v>
+        <v>1439</v>
       </c>
       <c r="F326" s="13" t="s">
         <v>53</v>
@@ -40347,16 +40348,16 @@
         <v>54</v>
       </c>
       <c r="H326" s="13" t="s">
-        <v>55</v>
+        <v>1440</v>
       </c>
       <c r="I326" s="13" t="s">
-        <v>1276</v>
+        <v>1441</v>
       </c>
       <c r="J326" s="13" t="s">
-        <v>1285</v>
+        <v>1442</v>
       </c>
       <c r="K326" s="13" t="s">
-        <v>1290</v>
+        <v>1439</v>
       </c>
       <c r="L326" s="13" t="s">
         <v>34</v>
@@ -40365,61 +40366,61 @@
         <v>56</v>
       </c>
       <c r="N326" s="13" t="s">
-        <v>1291</v>
+        <v>1443</v>
       </c>
       <c r="O326" s="13" t="s">
-        <v>1292</v>
+        <v>1444</v>
       </c>
       <c r="P326" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q326" s="13">
-        <v>415</v>
+        <v>294383</v>
       </c>
       <c r="R326" s="13">
-        <v>951</v>
+        <v>294574</v>
       </c>
       <c r="S326" s="13" t="s">
-        <v>2081</v>
+        <v>290</v>
       </c>
       <c r="T326" s="13">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="U326" s="13">
-        <v>189</v>
+        <v>93</v>
       </c>
       <c r="V326" s="13">
         <v>1</v>
       </c>
       <c r="W326" s="13">
-        <v>537</v>
+        <v>183</v>
       </c>
       <c r="X326" s="13">
-        <v>184</v>
+        <v>61</v>
       </c>
       <c r="Y326" s="13">
-        <v>132</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="Z326" s="13">
-        <v>42.935000000000002</v>
+        <v>49.18</v>
       </c>
       <c r="AA326" s="13">
-        <v>5.2</v>
+        <v>3.24</v>
       </c>
       <c r="AB326" s="13">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="AC326" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD326" s="13">
         <v>0</v>
       </c>
       <c r="AE326" s="13" t="s">
-        <v>1327</v>
+        <v>1435</v>
       </c>
       <c r="AF326" s="13">
-        <v>537</v>
+        <v>192</v>
       </c>
       <c r="AG326" s="13" t="s">
         <v>2080</v>
@@ -40427,100 +40428,100 @@
     </row>
     <row r="327" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A327" s="6" t="s">
-        <v>2067</v>
+        <v>2070</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C327" s="12">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="D327" s="13" t="s">
-        <v>1794</v>
+        <v>1798</v>
       </c>
       <c r="E327" s="13" t="s">
-        <v>1275</v>
+        <v>1351</v>
       </c>
       <c r="F327" s="13" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G327" s="13" t="s">
-        <v>54</v>
+        <v>1352</v>
       </c>
       <c r="H327" s="13" t="s">
-        <v>55</v>
+        <v>1353</v>
       </c>
       <c r="I327" s="13" t="s">
-        <v>1276</v>
+        <v>1354</v>
       </c>
       <c r="J327" s="13" t="s">
-        <v>1277</v>
+        <v>1355</v>
       </c>
       <c r="K327" s="13" t="s">
-        <v>1275</v>
+        <v>1351</v>
       </c>
       <c r="L327" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M327" s="13" t="s">
-        <v>1278</v>
+        <v>1356</v>
       </c>
       <c r="N327" s="13" t="s">
-        <v>1279</v>
+        <v>1357</v>
       </c>
       <c r="O327" s="13" t="s">
-        <v>1325</v>
+        <v>1358</v>
       </c>
       <c r="P327" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q327" s="13">
-        <v>128</v>
+        <v>435</v>
       </c>
       <c r="R327" s="13">
-        <v>634</v>
+        <v>1620</v>
       </c>
       <c r="S327" s="13" t="s">
-        <v>2081</v>
+        <v>76</v>
       </c>
       <c r="T327" s="13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U327" s="13">
-        <v>179</v>
+        <v>395</v>
       </c>
       <c r="V327" s="13">
         <v>1</v>
       </c>
       <c r="W327" s="13">
-        <v>507</v>
+        <v>1185</v>
       </c>
       <c r="X327" s="13">
-        <v>174</v>
+        <v>395</v>
       </c>
       <c r="Y327" s="13">
-        <v>125</v>
+        <v>660</v>
       </c>
       <c r="Z327" s="13">
-        <v>43.103000000000002</v>
+        <v>100</v>
       </c>
       <c r="AA327" s="13">
-        <v>9.65</v>
+        <v>0</v>
       </c>
       <c r="AB327" s="13">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="AC327" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD327" s="13">
         <v>0</v>
       </c>
       <c r="AE327" s="13" t="s">
-        <v>1326</v>
+        <v>1359</v>
       </c>
       <c r="AF327" s="13">
-        <v>507</v>
+        <v>1186</v>
       </c>
       <c r="AG327" s="13" t="s">
         <v>2080</v>
@@ -40528,88 +40529,88 @@
     </row>
     <row r="328" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A328" s="6" t="s">
-        <v>1713</v>
+        <v>2071</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>1713</v>
+        <v>1451</v>
       </c>
       <c r="C328" s="12">
-        <v>369</v>
+        <v>500</v>
       </c>
       <c r="D328" s="13" t="s">
-        <v>1795</v>
+        <v>1799</v>
       </c>
       <c r="E328" s="13" t="s">
-        <v>1293</v>
+        <v>1445</v>
       </c>
       <c r="F328" s="13" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="G328" s="13" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H328" s="13" t="s">
-        <v>1294</v>
+        <v>302</v>
       </c>
       <c r="I328" s="13" t="s">
-        <v>1295</v>
+        <v>1446</v>
       </c>
       <c r="J328" s="13" t="s">
-        <v>1296</v>
+        <v>1447</v>
       </c>
       <c r="K328" s="13" t="s">
-        <v>1293</v>
+        <v>1445</v>
       </c>
       <c r="L328" s="13" t="s">
-        <v>34</v>
+        <v>333</v>
       </c>
       <c r="M328" s="13" t="s">
-        <v>1297</v>
+        <v>1448</v>
       </c>
       <c r="N328" s="13" t="s">
-        <v>1298</v>
+        <v>1449</v>
       </c>
       <c r="O328" s="13" t="s">
-        <v>1299</v>
+        <v>1450</v>
       </c>
       <c r="P328" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q328" s="13">
-        <v>3956495</v>
+        <v>925</v>
       </c>
       <c r="R328" s="13">
-        <v>3957082</v>
+        <v>1968</v>
       </c>
       <c r="S328" s="13" t="s">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="T328" s="13">
         <v>1</v>
       </c>
       <c r="U328" s="13">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="V328" s="13">
         <v>1</v>
       </c>
       <c r="W328" s="13">
-        <v>588</v>
+        <v>525</v>
       </c>
       <c r="X328" s="13">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="Y328" s="13">
-        <v>412</v>
+        <v>314</v>
       </c>
       <c r="Z328" s="13">
-        <v>100</v>
+        <v>98.286000000000001</v>
       </c>
       <c r="AA328" s="13">
-        <v>1.44</v>
+        <v>9.59</v>
       </c>
       <c r="AB328" s="13">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="AC328" s="13">
         <v>0</v>
@@ -40618,93 +40619,94 @@
         <v>0</v>
       </c>
       <c r="AE328" s="13" t="s">
-        <v>1300</v>
+        <v>1452</v>
       </c>
       <c r="AF328" s="13">
-        <v>588</v>
+        <v>1044</v>
       </c>
       <c r="AG328" s="13" t="s">
         <v>2080</v>
       </c>
+      <c r="AH328" s="19"/>
     </row>
     <row r="329" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
-        <v>2068</v>
+        <v>2072</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>1323</v>
+        <v>1458</v>
       </c>
       <c r="C329" s="12">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="D329" s="13" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="E329" s="13" t="s">
-        <v>1328</v>
+        <v>1453</v>
       </c>
       <c r="F329" s="13" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="G329" s="13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H329" s="13" t="s">
-        <v>1318</v>
+        <v>426</v>
       </c>
       <c r="I329" s="13" t="s">
-        <v>1329</v>
+        <v>661</v>
       </c>
       <c r="J329" s="13" t="s">
-        <v>1330</v>
+        <v>1454</v>
       </c>
       <c r="K329" s="13" t="s">
-        <v>1328</v>
+        <v>1453</v>
       </c>
       <c r="L329" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M329" s="13" t="s">
-        <v>56</v>
+        <v>1455</v>
       </c>
       <c r="N329" s="13" t="s">
-        <v>1331</v>
+        <v>1456</v>
       </c>
       <c r="O329" s="13" t="s">
-        <v>1332</v>
+        <v>1457</v>
       </c>
       <c r="P329" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q329" s="13">
-        <v>6093</v>
+        <v>69181</v>
       </c>
       <c r="R329" s="13">
-        <v>8381</v>
+        <v>70593</v>
       </c>
       <c r="S329" s="13" t="s">
-        <v>2081</v>
+        <v>350</v>
       </c>
       <c r="T329" s="13">
         <v>1</v>
       </c>
       <c r="U329" s="13">
-        <v>259</v>
+        <v>450</v>
       </c>
       <c r="V329" s="13">
         <v>1</v>
       </c>
       <c r="W329" s="13">
-        <v>777</v>
+        <v>1350</v>
       </c>
       <c r="X329" s="13">
-        <v>259</v>
+        <v>450</v>
       </c>
       <c r="Y329" s="13">
-        <v>496</v>
+        <v>892</v>
       </c>
       <c r="Z329" s="13">
-        <v>99.614000000000004</v>
+        <v>100</v>
       </c>
       <c r="AA329" s="13">
         <v>0</v>
@@ -40719,532 +40721,546 @@
         <v>0</v>
       </c>
       <c r="AE329" s="13" t="s">
-        <v>1333</v>
+        <v>1459</v>
       </c>
       <c r="AF329" s="13">
-        <v>2289</v>
+        <v>1413</v>
       </c>
       <c r="AG329" s="13" t="s">
         <v>2080</v>
       </c>
     </row>
-    <row r="330" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A330" s="6" t="s">
-        <v>2069</v>
-      </c>
-      <c r="B330" s="4" t="s">
-        <v>1727</v>
-      </c>
-      <c r="C330" s="12">
-        <v>371</v>
-      </c>
-      <c r="D330" s="13" t="s">
-        <v>1797</v>
-      </c>
-      <c r="E330" s="13" t="s">
-        <v>1317</v>
-      </c>
-      <c r="F330" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G330" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H330" s="13" t="s">
-        <v>1318</v>
-      </c>
-      <c r="I330" s="13" t="s">
-        <v>1319</v>
-      </c>
-      <c r="J330" s="13" t="s">
-        <v>1320</v>
-      </c>
-      <c r="K330" s="13" t="s">
-        <v>1317</v>
-      </c>
-      <c r="L330" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M330" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="N330" s="13" t="s">
-        <v>1321</v>
-      </c>
-      <c r="O330" s="13" t="s">
-        <v>1322</v>
-      </c>
-      <c r="P330" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q330" s="13">
-        <v>2266872</v>
-      </c>
-      <c r="R330" s="13">
-        <v>2267294</v>
-      </c>
-      <c r="S330" s="13" t="s">
-        <v>2081</v>
-      </c>
-      <c r="T330" s="13">
-        <v>137</v>
-      </c>
-      <c r="U330" s="13">
-        <v>284</v>
-      </c>
-      <c r="V330" s="13">
-        <v>1</v>
-      </c>
-      <c r="W330" s="13">
-        <v>423</v>
-      </c>
-      <c r="X330" s="13">
-        <v>152</v>
-      </c>
-      <c r="Y330" s="13">
-        <v>102</v>
-      </c>
-      <c r="Z330" s="13">
-        <v>46.052999999999997</v>
-      </c>
-      <c r="AA330" s="13">
-        <v>6.72</v>
-      </c>
-      <c r="AB330" s="13">
-        <v>28</v>
-      </c>
-      <c r="AC330" s="13">
-        <v>5</v>
-      </c>
-      <c r="AD330" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE330" s="13" t="s">
-        <v>1324</v>
-      </c>
-      <c r="AF330" s="13">
-        <v>423</v>
-      </c>
-      <c r="AG330" s="13" t="s">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="331" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A331" s="6" t="s">
-        <v>2095</v>
-      </c>
-      <c r="B331" s="6" t="s">
-        <v>2096</v>
-      </c>
-      <c r="C331" s="12">
-        <v>372</v>
-      </c>
-      <c r="D331" s="15" t="s">
-        <v>2097</v>
-      </c>
-      <c r="E331" s="13" t="s">
-        <v>1439</v>
-      </c>
-      <c r="F331" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G331" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H331" s="13" t="s">
-        <v>1440</v>
-      </c>
-      <c r="I331" s="13" t="s">
-        <v>1441</v>
-      </c>
-      <c r="J331" s="13" t="s">
-        <v>1442</v>
-      </c>
-      <c r="K331" s="13" t="s">
-        <v>1439</v>
-      </c>
-      <c r="L331" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M331" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="N331" s="13" t="s">
-        <v>1443</v>
-      </c>
-      <c r="O331" s="13" t="s">
-        <v>1444</v>
-      </c>
-      <c r="P331" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q331" s="13">
-        <v>294383</v>
-      </c>
-      <c r="R331" s="13">
-        <v>294574</v>
-      </c>
-      <c r="S331" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="T331" s="13">
-        <v>33</v>
-      </c>
-      <c r="U331" s="13">
-        <v>93</v>
-      </c>
-      <c r="V331" s="13">
-        <v>1</v>
-      </c>
-      <c r="W331" s="13">
-        <v>183</v>
-      </c>
-      <c r="X331" s="13">
-        <v>61</v>
-      </c>
-      <c r="Y331" s="13">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="Z331" s="13">
-        <v>49.18</v>
-      </c>
-      <c r="AA331" s="13">
-        <v>3.24</v>
-      </c>
-      <c r="AB331" s="13">
-        <v>19</v>
-      </c>
-      <c r="AC331" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD331" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE331" s="13" t="s">
-        <v>1435</v>
-      </c>
-      <c r="AF331" s="13">
-        <v>192</v>
-      </c>
-      <c r="AG331" s="13" t="s">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="332" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A332" s="6" t="s">
-        <v>2070</v>
-      </c>
-      <c r="B332" s="4" t="s">
-        <v>1728</v>
-      </c>
-      <c r="C332" s="12">
-        <v>400</v>
-      </c>
-      <c r="D332" s="13" t="s">
-        <v>1798</v>
-      </c>
-      <c r="E332" s="13" t="s">
-        <v>1351</v>
-      </c>
-      <c r="F332" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G332" s="13" t="s">
-        <v>1352</v>
-      </c>
-      <c r="H332" s="13" t="s">
-        <v>1353</v>
-      </c>
-      <c r="I332" s="13" t="s">
-        <v>1354</v>
-      </c>
-      <c r="J332" s="13" t="s">
-        <v>1355</v>
-      </c>
-      <c r="K332" s="13" t="s">
-        <v>1351</v>
-      </c>
-      <c r="L332" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M332" s="13" t="s">
-        <v>1356</v>
-      </c>
-      <c r="N332" s="13" t="s">
-        <v>1357</v>
-      </c>
-      <c r="O332" s="13" t="s">
-        <v>1358</v>
-      </c>
-      <c r="P332" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q332" s="13">
-        <v>435</v>
-      </c>
-      <c r="R332" s="13">
-        <v>1620</v>
-      </c>
-      <c r="S332" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="T332" s="13">
-        <v>1</v>
-      </c>
-      <c r="U332" s="13">
-        <v>395</v>
-      </c>
-      <c r="V332" s="13">
-        <v>1</v>
-      </c>
-      <c r="W332" s="13">
-        <v>1185</v>
-      </c>
-      <c r="X332" s="13">
-        <v>395</v>
-      </c>
-      <c r="Y332" s="13">
-        <v>660</v>
-      </c>
-      <c r="Z332" s="13">
-        <v>100</v>
-      </c>
-      <c r="AA332" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB332" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC332" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD332" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE332" s="13" t="s">
-        <v>1359</v>
-      </c>
-      <c r="AF332" s="13">
-        <v>1186</v>
-      </c>
-      <c r="AG332" s="13" t="s">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="333" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A333" s="6" t="s">
-        <v>2071</v>
-      </c>
-      <c r="B333" s="4" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C333" s="12">
-        <v>500</v>
-      </c>
-      <c r="D333" s="13" t="s">
-        <v>1799</v>
-      </c>
-      <c r="E333" s="13" t="s">
-        <v>1445</v>
-      </c>
-      <c r="F333" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G333" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H333" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="I333" s="13" t="s">
-        <v>1446</v>
-      </c>
-      <c r="J333" s="13" t="s">
-        <v>1447</v>
-      </c>
-      <c r="K333" s="13" t="s">
-        <v>1445</v>
-      </c>
-      <c r="L333" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="M333" s="13" t="s">
-        <v>1448</v>
-      </c>
-      <c r="N333" s="13" t="s">
-        <v>1449</v>
-      </c>
-      <c r="O333" s="13" t="s">
-        <v>1450</v>
-      </c>
-      <c r="P333" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q333" s="13">
-        <v>925</v>
-      </c>
-      <c r="R333" s="13">
-        <v>1968</v>
-      </c>
-      <c r="S333" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="T333" s="13">
-        <v>1</v>
-      </c>
-      <c r="U333" s="13">
-        <v>175</v>
-      </c>
-      <c r="V333" s="13">
-        <v>1</v>
-      </c>
-      <c r="W333" s="13">
-        <v>525</v>
-      </c>
-      <c r="X333" s="13">
-        <v>175</v>
-      </c>
-      <c r="Y333" s="13">
-        <v>314</v>
-      </c>
-      <c r="Z333" s="13">
-        <v>98.286000000000001</v>
-      </c>
-      <c r="AA333" s="13">
-        <v>9.59</v>
-      </c>
-      <c r="AB333" s="13">
-        <v>105</v>
-      </c>
-      <c r="AC333" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD333" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE333" s="13" t="s">
-        <v>1452</v>
-      </c>
-      <c r="AF333" s="13">
-        <v>1044</v>
-      </c>
-      <c r="AG333" s="13" t="s">
-        <v>2080</v>
-      </c>
-      <c r="AH333" s="19"/>
-    </row>
-    <row r="334" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A334" s="6" t="s">
-        <v>2072</v>
-      </c>
-      <c r="B334" s="4" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C334" s="12">
-        <v>500</v>
-      </c>
-      <c r="D334" s="13" t="s">
-        <v>1799</v>
-      </c>
-      <c r="E334" s="13" t="s">
-        <v>1453</v>
-      </c>
-      <c r="F334" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G334" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H334" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="I334" s="13" t="s">
-        <v>661</v>
-      </c>
-      <c r="J334" s="13" t="s">
-        <v>1454</v>
-      </c>
-      <c r="K334" s="13" t="s">
-        <v>1453</v>
-      </c>
-      <c r="L334" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M334" s="13" t="s">
-        <v>1455</v>
-      </c>
-      <c r="N334" s="13" t="s">
-        <v>1456</v>
-      </c>
-      <c r="O334" s="13" t="s">
-        <v>1457</v>
-      </c>
-      <c r="P334" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q334" s="13">
-        <v>69181</v>
-      </c>
-      <c r="R334" s="13">
-        <v>70593</v>
-      </c>
-      <c r="S334" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="T334" s="13">
-        <v>1</v>
-      </c>
-      <c r="U334" s="13">
-        <v>450</v>
-      </c>
-      <c r="V334" s="13">
-        <v>1</v>
-      </c>
-      <c r="W334" s="13">
-        <v>1350</v>
-      </c>
-      <c r="X334" s="13">
-        <v>450</v>
-      </c>
-      <c r="Y334" s="13">
-        <v>892</v>
-      </c>
-      <c r="Z334" s="13">
-        <v>100</v>
-      </c>
-      <c r="AA334" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB334" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC334" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD334" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE334" s="13" t="s">
-        <v>1459</v>
-      </c>
-      <c r="AF334" s="13">
-        <v>1413</v>
-      </c>
-      <c r="AG334" s="13" t="s">
-        <v>2080</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG334">
-    <sortCondition ref="C2:C334"/>
-    <sortCondition ref="B2:B334"/>
-    <sortCondition descending="1" ref="Y2:Y334"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG329">
+    <sortCondition ref="C2:C329"/>
+    <sortCondition ref="B2:B329"/>
+    <sortCondition descending="1" ref="Y2:Y329"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBE6A6D-C5A8-554C-8596-3928359ADB7B}">
+  <dimension ref="A1:AG5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C1" s="12">
+        <v>84</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>1635</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="13">
+        <v>47532</v>
+      </c>
+      <c r="R1" s="13">
+        <v>50801</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" s="13">
+        <v>1</v>
+      </c>
+      <c r="U1" s="13">
+        <v>1090</v>
+      </c>
+      <c r="V1" s="13">
+        <v>1</v>
+      </c>
+      <c r="W1" s="13">
+        <v>3270</v>
+      </c>
+      <c r="X1" s="13">
+        <v>1090</v>
+      </c>
+      <c r="Y1" s="13">
+        <v>2132</v>
+      </c>
+      <c r="Z1" s="13">
+        <v>100</v>
+      </c>
+      <c r="AA1" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>2137</v>
+      </c>
+      <c r="AF1" s="13">
+        <v>3270</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C2" s="12">
+        <v>84</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>1637</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>312771</v>
+      </c>
+      <c r="R2" s="13">
+        <v>315833</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="13">
+        <v>200</v>
+      </c>
+      <c r="U2" s="13">
+        <v>1022</v>
+      </c>
+      <c r="V2" s="13">
+        <v>607</v>
+      </c>
+      <c r="W2" s="13">
+        <v>3063</v>
+      </c>
+      <c r="X2" s="13">
+        <v>847</v>
+      </c>
+      <c r="Y2" s="13">
+        <v>822</v>
+      </c>
+      <c r="Z2" s="13">
+        <v>61.274999999999999</v>
+      </c>
+      <c r="AA2" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="13">
+        <v>12</v>
+      </c>
+      <c r="AD2" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>1585</v>
+      </c>
+      <c r="AF2" s="13">
+        <v>3063</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C3" s="12">
+        <v>84</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>1636</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>8525</v>
+      </c>
+      <c r="R3" s="13">
+        <v>11485</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" s="13">
+        <v>700</v>
+      </c>
+      <c r="U3" s="13">
+        <v>1077</v>
+      </c>
+      <c r="V3" s="13">
+        <v>1795</v>
+      </c>
+      <c r="W3" s="13">
+        <v>2934</v>
+      </c>
+      <c r="X3" s="13">
+        <v>402</v>
+      </c>
+      <c r="Y3" s="13">
+        <v>407</v>
+      </c>
+      <c r="Z3" s="13">
+        <v>59.95</v>
+      </c>
+      <c r="AA3" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="13">
+        <v>8</v>
+      </c>
+      <c r="AD3" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>1585</v>
+      </c>
+      <c r="AF3" s="13">
+        <v>2961</v>
+      </c>
+      <c r="AG3" s="13" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C4" s="12">
+        <v>84</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>1638</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>3395</v>
+      </c>
+      <c r="R4" s="13">
+        <v>6086</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" s="13">
+        <v>649</v>
+      </c>
+      <c r="U4" s="13">
+        <v>961</v>
+      </c>
+      <c r="V4" s="13">
+        <v>1278</v>
+      </c>
+      <c r="W4" s="13">
+        <v>2219</v>
+      </c>
+      <c r="X4" s="13">
+        <v>315</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>354</v>
+      </c>
+      <c r="Z4" s="13">
+        <v>63.174999999999997</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="13" t="s">
+        <v>1639</v>
+      </c>
+      <c r="AF4" s="13">
+        <v>2692</v>
+      </c>
+      <c r="AG4" s="13" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C5" s="12">
+        <v>88</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>14612</v>
+      </c>
+      <c r="R5" s="13">
+        <v>16090</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="T5" s="13">
+        <v>1</v>
+      </c>
+      <c r="U5" s="13">
+        <v>493</v>
+      </c>
+      <c r="V5" s="13">
+        <v>1</v>
+      </c>
+      <c r="W5" s="13">
+        <v>1479</v>
+      </c>
+      <c r="X5" s="13">
+        <v>493</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>917</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>100</v>
+      </c>
+      <c r="AA5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF5" s="13">
+        <v>1479</v>
+      </c>
+      <c r="AG5" s="13" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875C40A4-B7F7-734A-B1FE-15704372306F}">
   <dimension ref="A1:AG10"/>
   <sheetViews>
@@ -42269,7 +42285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05BBB34-B4E9-4243-8006-74091A334D12}">
   <dimension ref="A1:AG23"/>
   <sheetViews>
@@ -44580,12 +44596,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE3059B-C8E6-9746-9B39-69689B020058}">
   <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="F42" sqref="F42:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/parvovirinae/epv-dependo-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F7455C-3C3A-4F4D-BF97-965FCC435736}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F78BB47-BAA8-E24C-B974-19A81CC19256}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="2140" windowWidth="35000" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13320" yWindow="7640" windowWidth="35000" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DONE" sheetId="2" r:id="rId1"/>
@@ -7434,8 +7434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="B338" sqref="A1:AG339"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/parvovirinae/epv-dependo-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF70282-D244-3A4B-825F-299CE3E4DC9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09D0F6A-4CDB-4342-8849-63F3628D199E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27420" yWindow="500" windowWidth="35000" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16200" yWindow="500" windowWidth="35000" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DONE" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7156" uniqueCount="2153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7156" uniqueCount="2154">
   <si>
     <t>Record_ID</t>
   </si>
@@ -6482,6 +6482,9 @@
   </si>
   <si>
     <t>dependo.174-PipPip</t>
+  </si>
+  <si>
+    <t>dependo.6-elephas</t>
   </si>
 </sst>
 </file>
@@ -7434,8 +7437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="B330" sqref="B330"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12001,7 +12004,7 @@
         <v>1813</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>1502</v>
+        <v>2153</v>
       </c>
       <c r="C46" s="12">
         <v>6</v>

--- a/tabular/eve/parvovirinae/epv-dependo-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09D0F6A-4CDB-4342-8849-63F3628D199E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1631EF8-DC0B-3248-821D-E7CACD263E31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16200" yWindow="500" windowWidth="35000" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7438,7 +7438,7 @@
   <dimension ref="A1:AH336"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/parvovirinae/epv-dependo-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F00221E-8E64-7845-B0E4-DF2B24DED99D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1B459E-AF0C-F740-A48C-9C9B5F02BBB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16200" yWindow="500" windowWidth="35000" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6959,7 +6959,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7003,7 +7003,6 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -7378,10 +7377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH326"/>
+  <dimension ref="A1:AG326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="C317" sqref="A1:AG326"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="A1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7489,13 +7488,13 @@
         <v>26</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>2027</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
@@ -7589,14 +7588,14 @@
       <c r="AD2" s="13">
         <v>0</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AE2" s="13">
+        <v>3930</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG2" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="AF2" s="13">
-        <v>3930</v>
-      </c>
-      <c r="AG2" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
@@ -7690,14 +7689,14 @@
       <c r="AD3" s="13">
         <v>0</v>
       </c>
-      <c r="AE3" s="13" t="s">
+      <c r="AE3" s="13">
+        <v>3673</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG3" s="13" t="s">
         <v>230</v>
-      </c>
-      <c r="AF3" s="13">
-        <v>3673</v>
-      </c>
-      <c r="AG3" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
@@ -7791,14 +7790,14 @@
       <c r="AD4" s="13">
         <v>0</v>
       </c>
-      <c r="AE4" s="13" t="s">
+      <c r="AE4" s="13">
+        <v>4204</v>
+      </c>
+      <c r="AF4" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG4" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="AF4" s="13">
-        <v>4204</v>
-      </c>
-      <c r="AG4" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -7892,14 +7891,14 @@
       <c r="AD5" s="13">
         <v>0</v>
       </c>
-      <c r="AE5" s="13" t="s">
+      <c r="AE5" s="13">
+        <v>3855</v>
+      </c>
+      <c r="AF5" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG5" s="13" t="s">
         <v>189</v>
-      </c>
-      <c r="AF5" s="13">
-        <v>3855</v>
-      </c>
-      <c r="AG5" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
@@ -7993,14 +7992,14 @@
       <c r="AD6" s="13">
         <v>0</v>
       </c>
-      <c r="AE6" s="13" t="s">
+      <c r="AE6" s="13">
+        <v>3876</v>
+      </c>
+      <c r="AF6" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG6" s="13" t="s">
         <v>189</v>
-      </c>
-      <c r="AF6" s="13">
-        <v>3876</v>
-      </c>
-      <c r="AG6" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
@@ -8094,14 +8093,14 @@
       <c r="AD7" s="13">
         <v>0</v>
       </c>
-      <c r="AE7" s="13" t="s">
+      <c r="AE7" s="13">
+        <v>3795</v>
+      </c>
+      <c r="AF7" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG7" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="AF7" s="13">
-        <v>3795</v>
-      </c>
-      <c r="AG7" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
@@ -8195,14 +8194,14 @@
       <c r="AD8" s="13">
         <v>0</v>
       </c>
-      <c r="AE8" s="13" t="s">
+      <c r="AE8" s="13">
+        <v>3854</v>
+      </c>
+      <c r="AF8" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG8" s="13" t="s">
         <v>189</v>
-      </c>
-      <c r="AF8" s="13">
-        <v>3854</v>
-      </c>
-      <c r="AG8" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
@@ -8296,14 +8295,14 @@
       <c r="AD9" s="13">
         <v>0</v>
       </c>
-      <c r="AE9" s="13" t="s">
+      <c r="AE9" s="13">
+        <v>3817</v>
+      </c>
+      <c r="AF9" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG9" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="AF9" s="13">
-        <v>3817</v>
-      </c>
-      <c r="AG9" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
@@ -8397,14 +8396,14 @@
       <c r="AD10" s="13">
         <v>0</v>
       </c>
-      <c r="AE10" s="13" t="s">
+      <c r="AE10" s="13">
+        <v>3859</v>
+      </c>
+      <c r="AF10" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG10" s="13" t="s">
         <v>189</v>
-      </c>
-      <c r="AF10" s="13">
-        <v>3859</v>
-      </c>
-      <c r="AG10" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
@@ -8498,14 +8497,14 @@
       <c r="AD11" s="13">
         <v>0</v>
       </c>
-      <c r="AE11" s="13" t="s">
+      <c r="AE11" s="13">
+        <v>3819</v>
+      </c>
+      <c r="AF11" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG11" s="13" t="s">
         <v>189</v>
-      </c>
-      <c r="AF11" s="13">
-        <v>3819</v>
-      </c>
-      <c r="AG11" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
@@ -8599,14 +8598,14 @@
       <c r="AD12" s="13">
         <v>0</v>
       </c>
-      <c r="AE12" s="13" t="s">
+      <c r="AE12" s="13">
+        <v>4106</v>
+      </c>
+      <c r="AF12" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG12" s="13" t="s">
         <v>268</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>4106</v>
-      </c>
-      <c r="AG12" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
@@ -8700,14 +8699,14 @@
       <c r="AD13" s="13">
         <v>0</v>
       </c>
-      <c r="AE13" s="13" t="s">
+      <c r="AE13" s="13">
+        <v>4064</v>
+      </c>
+      <c r="AF13" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG13" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="AF13" s="13">
-        <v>4064</v>
-      </c>
-      <c r="AG13" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
@@ -8801,14 +8800,14 @@
       <c r="AD14" s="13">
         <v>0</v>
       </c>
-      <c r="AE14" s="13" t="s">
+      <c r="AE14" s="13">
+        <v>4110</v>
+      </c>
+      <c r="AF14" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG14" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="AF14" s="13">
-        <v>4110</v>
-      </c>
-      <c r="AG14" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
@@ -8902,14 +8901,14 @@
       <c r="AD15" s="13">
         <v>0</v>
       </c>
-      <c r="AE15" s="13" t="s">
+      <c r="AE15" s="13">
+        <v>4110</v>
+      </c>
+      <c r="AF15" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG15" s="13" t="s">
         <v>268</v>
-      </c>
-      <c r="AF15" s="13">
-        <v>4110</v>
-      </c>
-      <c r="AG15" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
@@ -9003,14 +9002,14 @@
       <c r="AD16" s="13">
         <v>0</v>
       </c>
-      <c r="AE16" s="13" t="s">
+      <c r="AE16" s="13">
+        <v>4173</v>
+      </c>
+      <c r="AF16" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG16" s="13" t="s">
         <v>201</v>
-      </c>
-      <c r="AF16" s="13">
-        <v>4173</v>
-      </c>
-      <c r="AG16" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
@@ -9104,14 +9103,14 @@
       <c r="AD17" s="13">
         <v>0</v>
       </c>
-      <c r="AE17" s="13" t="s">
+      <c r="AE17" s="13">
+        <v>4100</v>
+      </c>
+      <c r="AF17" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG17" s="13" t="s">
         <v>246</v>
-      </c>
-      <c r="AF17" s="13">
-        <v>4100</v>
-      </c>
-      <c r="AG17" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
@@ -9205,14 +9204,14 @@
       <c r="AD18" s="13">
         <v>0</v>
       </c>
-      <c r="AE18" s="13" t="s">
+      <c r="AE18" s="13">
+        <v>4146</v>
+      </c>
+      <c r="AF18" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG18" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="AF18" s="13">
-        <v>4146</v>
-      </c>
-      <c r="AG18" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
@@ -9306,14 +9305,14 @@
       <c r="AD19" s="13">
         <v>0</v>
       </c>
-      <c r="AE19" s="13" t="s">
+      <c r="AE19" s="13">
+        <v>4062</v>
+      </c>
+      <c r="AF19" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG19" s="13" t="s">
         <v>201</v>
-      </c>
-      <c r="AF19" s="13">
-        <v>4062</v>
-      </c>
-      <c r="AG19" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
@@ -9407,14 +9406,14 @@
       <c r="AD20" s="13">
         <v>0</v>
       </c>
-      <c r="AE20" s="13" t="s">
+      <c r="AE20" s="13">
+        <v>3473</v>
+      </c>
+      <c r="AF20" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG20" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="AF20" s="13">
-        <v>3473</v>
-      </c>
-      <c r="AG20" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
@@ -9508,14 +9507,14 @@
       <c r="AD21" s="13">
         <v>0</v>
       </c>
-      <c r="AE21" s="13" t="s">
+      <c r="AE21" s="13">
+        <v>4093</v>
+      </c>
+      <c r="AF21" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG21" s="13" t="s">
         <v>252</v>
-      </c>
-      <c r="AF21" s="13">
-        <v>4093</v>
-      </c>
-      <c r="AG21" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
@@ -9609,14 +9608,14 @@
       <c r="AD22" s="13">
         <v>0</v>
       </c>
-      <c r="AE22" s="13" t="s">
+      <c r="AE22" s="13">
+        <v>4182</v>
+      </c>
+      <c r="AF22" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG22" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="AF22" s="13">
-        <v>4182</v>
-      </c>
-      <c r="AG22" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
@@ -9710,14 +9709,14 @@
       <c r="AD23" s="13">
         <v>0</v>
       </c>
-      <c r="AE23" s="13" t="s">
+      <c r="AE23" s="13">
+        <v>3942</v>
+      </c>
+      <c r="AF23" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG23" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="AF23" s="13">
-        <v>3942</v>
-      </c>
-      <c r="AG23" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
@@ -9811,14 +9810,14 @@
       <c r="AD24" s="13">
         <v>0</v>
       </c>
-      <c r="AE24" s="13" t="s">
+      <c r="AE24" s="13">
+        <v>4113</v>
+      </c>
+      <c r="AF24" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG24" s="13" t="s">
         <v>224</v>
-      </c>
-      <c r="AF24" s="13">
-        <v>4113</v>
-      </c>
-      <c r="AG24" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
@@ -9912,14 +9911,14 @@
       <c r="AD25" s="13">
         <v>0</v>
       </c>
-      <c r="AE25" s="13" t="s">
+      <c r="AE25" s="13">
+        <v>3819</v>
+      </c>
+      <c r="AF25" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG25" s="13" t="s">
         <v>1042</v>
-      </c>
-      <c r="AF25" s="13">
-        <v>3819</v>
-      </c>
-      <c r="AG25" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
@@ -10013,14 +10012,14 @@
       <c r="AD26" s="13">
         <v>0</v>
       </c>
-      <c r="AE26" s="13" t="s">
+      <c r="AE26" s="13">
+        <v>4339</v>
+      </c>
+      <c r="AF26" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG26" s="13" t="s">
         <v>603</v>
-      </c>
-      <c r="AF26" s="13">
-        <v>4339</v>
-      </c>
-      <c r="AG26" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
@@ -10114,14 +10113,14 @@
       <c r="AD27" s="13">
         <v>0</v>
       </c>
-      <c r="AE27" s="13" t="s">
+      <c r="AE27" s="13">
+        <v>4534</v>
+      </c>
+      <c r="AF27" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG27" s="13" t="s">
         <v>567</v>
-      </c>
-      <c r="AF27" s="13">
-        <v>4534</v>
-      </c>
-      <c r="AG27" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
@@ -10215,14 +10214,14 @@
       <c r="AD28" s="13">
         <v>0</v>
       </c>
-      <c r="AE28" s="13" t="s">
+      <c r="AE28" s="13">
+        <v>4349</v>
+      </c>
+      <c r="AF28" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG28" s="13" t="s">
         <v>586</v>
-      </c>
-      <c r="AF28" s="13">
-        <v>4349</v>
-      </c>
-      <c r="AG28" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
@@ -10316,14 +10315,14 @@
       <c r="AD29" s="13">
         <v>0</v>
       </c>
-      <c r="AE29" s="13" t="s">
+      <c r="AE29" s="13">
+        <v>4496</v>
+      </c>
+      <c r="AF29" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG29" s="13" t="s">
         <v>573</v>
-      </c>
-      <c r="AF29" s="13">
-        <v>4496</v>
-      </c>
-      <c r="AG29" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
@@ -10417,14 +10416,14 @@
       <c r="AD30" s="13">
         <v>0</v>
       </c>
-      <c r="AE30" s="13" t="s">
+      <c r="AE30" s="13">
+        <v>4280</v>
+      </c>
+      <c r="AF30" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG30" s="13" t="s">
         <v>586</v>
-      </c>
-      <c r="AF30" s="13">
-        <v>4280</v>
-      </c>
-      <c r="AG30" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
@@ -10518,14 +10517,14 @@
       <c r="AD31" s="13">
         <v>0</v>
       </c>
-      <c r="AE31" s="13" t="s">
+      <c r="AE31" s="13">
+        <v>4321</v>
+      </c>
+      <c r="AF31" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG31" s="13" t="s">
         <v>573</v>
-      </c>
-      <c r="AF31" s="13">
-        <v>4321</v>
-      </c>
-      <c r="AG31" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
@@ -10619,14 +10618,14 @@
       <c r="AD32" s="13">
         <v>0</v>
       </c>
-      <c r="AE32" s="13" t="s">
+      <c r="AE32" s="13">
+        <v>4560</v>
+      </c>
+      <c r="AF32" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG32" s="13" t="s">
         <v>576</v>
-      </c>
-      <c r="AF32" s="13">
-        <v>4560</v>
-      </c>
-      <c r="AG32" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
@@ -10720,14 +10719,14 @@
       <c r="AD33" s="13">
         <v>0</v>
       </c>
-      <c r="AE33" s="13" t="s">
+      <c r="AE33" s="13">
+        <v>3414</v>
+      </c>
+      <c r="AF33" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG33" s="13" t="s">
         <v>586</v>
-      </c>
-      <c r="AF33" s="13">
-        <v>3414</v>
-      </c>
-      <c r="AG33" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
@@ -10821,14 +10820,14 @@
       <c r="AD34" s="13">
         <v>0</v>
       </c>
-      <c r="AE34" s="13" t="s">
+      <c r="AE34" s="13">
+        <v>2861</v>
+      </c>
+      <c r="AF34" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG34" s="13" t="s">
         <v>586</v>
-      </c>
-      <c r="AF34" s="13">
-        <v>2861</v>
-      </c>
-      <c r="AG34" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
@@ -10922,14 +10921,14 @@
       <c r="AD35" s="13">
         <v>0</v>
       </c>
-      <c r="AE35" s="13" t="s">
+      <c r="AE35" s="13">
+        <v>3124</v>
+      </c>
+      <c r="AF35" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG35" s="13" t="s">
         <v>1132</v>
-      </c>
-      <c r="AF35" s="13">
-        <v>3124</v>
-      </c>
-      <c r="AG35" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
@@ -11023,14 +11022,14 @@
       <c r="AD36" s="13">
         <v>0</v>
       </c>
-      <c r="AE36" s="13" t="s">
+      <c r="AE36" s="13">
+        <v>3127</v>
+      </c>
+      <c r="AF36" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG36" s="13" t="s">
         <v>1121</v>
-      </c>
-      <c r="AF36" s="13">
-        <v>3127</v>
-      </c>
-      <c r="AG36" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
@@ -11124,14 +11123,14 @@
       <c r="AD37" s="13">
         <v>0</v>
       </c>
-      <c r="AE37" s="13" t="s">
+      <c r="AE37" s="13">
+        <v>3854</v>
+      </c>
+      <c r="AF37" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG37" s="13" t="s">
         <v>1115</v>
-      </c>
-      <c r="AF37" s="13">
-        <v>3854</v>
-      </c>
-      <c r="AG37" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
@@ -11225,14 +11224,14 @@
       <c r="AD38" s="13">
         <v>0</v>
       </c>
-      <c r="AE38" s="13" t="s">
+      <c r="AE38" s="13">
+        <v>594</v>
+      </c>
+      <c r="AF38" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG38" s="13" t="s">
         <v>1121</v>
-      </c>
-      <c r="AF38" s="13">
-        <v>594</v>
-      </c>
-      <c r="AG38" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
@@ -11326,14 +11325,14 @@
       <c r="AD39" s="13">
         <v>0</v>
       </c>
-      <c r="AE39" s="13" t="s">
+      <c r="AE39" s="13">
+        <v>3905</v>
+      </c>
+      <c r="AF39" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG39" s="13" t="s">
         <v>1328</v>
-      </c>
-      <c r="AF39" s="13">
-        <v>3905</v>
-      </c>
-      <c r="AG39" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
@@ -11427,14 +11426,14 @@
       <c r="AD40" s="13">
         <v>0</v>
       </c>
-      <c r="AE40" s="13" t="s">
+      <c r="AE40" s="13">
+        <v>3944</v>
+      </c>
+      <c r="AF40" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG40" s="13" t="s">
         <v>1329</v>
-      </c>
-      <c r="AF40" s="13">
-        <v>3944</v>
-      </c>
-      <c r="AG40" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
@@ -11528,14 +11527,14 @@
       <c r="AD41" s="13">
         <v>0</v>
       </c>
-      <c r="AE41" s="13" t="s">
+      <c r="AE41" s="13">
+        <v>4041</v>
+      </c>
+      <c r="AF41" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG41" s="13" t="s">
         <v>1328</v>
-      </c>
-      <c r="AF41" s="13">
-        <v>4041</v>
-      </c>
-      <c r="AG41" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
@@ -11629,14 +11628,14 @@
       <c r="AD42" s="13">
         <v>0</v>
       </c>
-      <c r="AE42" s="13" t="s">
+      <c r="AE42" s="13">
+        <v>324</v>
+      </c>
+      <c r="AF42" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG42" s="13" t="s">
         <v>1416</v>
-      </c>
-      <c r="AF42" s="13">
-        <v>324</v>
-      </c>
-      <c r="AG42" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.2">
@@ -11730,14 +11729,14 @@
       <c r="AD43" s="13">
         <v>0</v>
       </c>
-      <c r="AE43" s="13" t="s">
+      <c r="AE43" s="13">
+        <v>324</v>
+      </c>
+      <c r="AF43" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG43" s="13" t="s">
         <v>1416</v>
-      </c>
-      <c r="AF43" s="13">
-        <v>324</v>
-      </c>
-      <c r="AG43" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.2">
@@ -11831,14 +11830,14 @@
       <c r="AD44" s="13">
         <v>0</v>
       </c>
-      <c r="AE44" s="13" t="s">
+      <c r="AE44" s="13">
+        <v>375</v>
+      </c>
+      <c r="AF44" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG44" s="13" t="s">
         <v>1416</v>
-      </c>
-      <c r="AF44" s="13">
-        <v>375</v>
-      </c>
-      <c r="AG44" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.2">
@@ -11932,14 +11931,14 @@
       <c r="AD45" s="13">
         <v>0</v>
       </c>
-      <c r="AE45" s="13" t="s">
+      <c r="AE45" s="13">
+        <v>1752</v>
+      </c>
+      <c r="AF45" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG45" s="13" t="s">
         <v>1488</v>
-      </c>
-      <c r="AF45" s="13">
-        <v>1752</v>
-      </c>
-      <c r="AG45" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.2">
@@ -12033,14 +12032,14 @@
       <c r="AD46" s="13">
         <v>0</v>
       </c>
-      <c r="AE46" s="13" t="s">
+      <c r="AE46" s="13">
+        <v>957</v>
+      </c>
+      <c r="AF46" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG46" s="13" t="s">
         <v>1522</v>
-      </c>
-      <c r="AF46" s="13">
-        <v>957</v>
-      </c>
-      <c r="AG46" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.2">
@@ -12134,14 +12133,14 @@
       <c r="AD47" s="13">
         <v>0</v>
       </c>
-      <c r="AE47" s="13" t="s">
+      <c r="AE47" s="13">
+        <v>723</v>
+      </c>
+      <c r="AF47" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG47" s="13" t="s">
         <v>1531</v>
-      </c>
-      <c r="AF47" s="13">
-        <v>723</v>
-      </c>
-      <c r="AG47" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.2">
@@ -12235,14 +12234,14 @@
       <c r="AD48" s="13">
         <v>0</v>
       </c>
-      <c r="AE48" s="13" t="s">
+      <c r="AE48" s="13">
+        <v>969</v>
+      </c>
+      <c r="AF48" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG48" s="13" t="s">
         <v>1551</v>
-      </c>
-      <c r="AF48" s="13">
-        <v>969</v>
-      </c>
-      <c r="AG48" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.2">
@@ -12336,14 +12335,14 @@
       <c r="AD49" s="13">
         <v>0</v>
       </c>
-      <c r="AE49" s="13" t="s">
+      <c r="AE49" s="13">
+        <v>1792</v>
+      </c>
+      <c r="AF49" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG49" s="13" t="s">
         <v>1553</v>
-      </c>
-      <c r="AF49" s="13">
-        <v>1792</v>
-      </c>
-      <c r="AG49" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.2">
@@ -12437,14 +12436,14 @@
       <c r="AD50" s="13">
         <v>0</v>
       </c>
-      <c r="AE50" s="13" t="s">
+      <c r="AE50" s="13">
+        <v>2843</v>
+      </c>
+      <c r="AF50" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG50" s="13" t="s">
         <v>299</v>
-      </c>
-      <c r="AF50" s="13">
-        <v>2843</v>
-      </c>
-      <c r="AG50" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.2">
@@ -12538,14 +12537,14 @@
       <c r="AD51" s="13">
         <v>0</v>
       </c>
-      <c r="AE51" s="13" t="s">
+      <c r="AE51" s="13">
+        <v>2380</v>
+      </c>
+      <c r="AF51" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG51" s="13" t="s">
         <v>328</v>
-      </c>
-      <c r="AF51" s="13">
-        <v>2380</v>
-      </c>
-      <c r="AG51" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.2">
@@ -12639,14 +12638,14 @@
       <c r="AD52" s="13">
         <v>0</v>
       </c>
-      <c r="AE52" s="13" t="s">
+      <c r="AE52" s="13">
+        <v>2380</v>
+      </c>
+      <c r="AF52" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG52" s="13" t="s">
         <v>308</v>
-      </c>
-      <c r="AF52" s="13">
-        <v>2380</v>
-      </c>
-      <c r="AG52" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.2">
@@ -12740,14 +12739,14 @@
       <c r="AD53" s="13">
         <v>0</v>
       </c>
-      <c r="AE53" s="13" t="s">
+      <c r="AE53" s="13">
+        <v>2380</v>
+      </c>
+      <c r="AF53" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG53" s="13" t="s">
         <v>308</v>
-      </c>
-      <c r="AF53" s="13">
-        <v>2380</v>
-      </c>
-      <c r="AG53" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.2">
@@ -12841,14 +12840,14 @@
       <c r="AD54" s="13">
         <v>0</v>
       </c>
-      <c r="AE54" s="13" t="s">
+      <c r="AE54" s="13">
+        <v>1386</v>
+      </c>
+      <c r="AF54" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG54" s="13" t="s">
         <v>350</v>
-      </c>
-      <c r="AF54" s="13">
-        <v>1386</v>
-      </c>
-      <c r="AG54" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.2">
@@ -12942,14 +12941,14 @@
       <c r="AD55" s="13">
         <v>0</v>
       </c>
-      <c r="AE55" s="13" t="s">
+      <c r="AE55" s="13">
+        <v>1386</v>
+      </c>
+      <c r="AF55" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG55" s="13" t="s">
         <v>364</v>
-      </c>
-      <c r="AF55" s="13">
-        <v>1386</v>
-      </c>
-      <c r="AG55" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.2">
@@ -13043,14 +13042,14 @@
       <c r="AD56" s="13">
         <v>0</v>
       </c>
-      <c r="AE56" s="13" t="s">
+      <c r="AE56" s="13">
+        <v>1386</v>
+      </c>
+      <c r="AF56" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG56" s="13" t="s">
         <v>364</v>
-      </c>
-      <c r="AF56" s="13">
-        <v>1386</v>
-      </c>
-      <c r="AG56" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.2">
@@ -13144,14 +13143,14 @@
       <c r="AD57" s="13">
         <v>0</v>
       </c>
-      <c r="AE57" s="13" t="s">
+      <c r="AE57" s="13">
+        <v>1386</v>
+      </c>
+      <c r="AF57" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG57" s="13" t="s">
         <v>350</v>
-      </c>
-      <c r="AF57" s="13">
-        <v>1386</v>
-      </c>
-      <c r="AG57" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.2">
@@ -13245,14 +13244,14 @@
       <c r="AD58" s="13">
         <v>0</v>
       </c>
-      <c r="AE58" s="13" t="s">
+      <c r="AE58" s="13">
+        <v>753</v>
+      </c>
+      <c r="AF58" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG58" s="13" t="s">
         <v>377</v>
-      </c>
-      <c r="AF58" s="13">
-        <v>753</v>
-      </c>
-      <c r="AG58" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
@@ -13346,14 +13345,14 @@
       <c r="AD59" s="13">
         <v>0</v>
       </c>
-      <c r="AE59" s="13" t="s">
+      <c r="AE59" s="13">
+        <v>459</v>
+      </c>
+      <c r="AF59" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG59" s="13" t="s">
         <v>388</v>
-      </c>
-      <c r="AF59" s="13">
-        <v>459</v>
-      </c>
-      <c r="AG59" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.2">
@@ -13447,14 +13446,14 @@
       <c r="AD60" s="13">
         <v>0</v>
       </c>
-      <c r="AE60" s="13" t="s">
+      <c r="AE60" s="13">
+        <v>363</v>
+      </c>
+      <c r="AF60" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG60" s="13" t="s">
         <v>449</v>
-      </c>
-      <c r="AF60" s="13">
-        <v>363</v>
-      </c>
-      <c r="AG60" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.2">
@@ -13548,14 +13547,14 @@
       <c r="AD61" s="13">
         <v>0</v>
       </c>
-      <c r="AE61" s="13" t="s">
+      <c r="AE61" s="13">
+        <v>363</v>
+      </c>
+      <c r="AF61" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG61" s="13" t="s">
         <v>430</v>
-      </c>
-      <c r="AF61" s="13">
-        <v>363</v>
-      </c>
-      <c r="AG61" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.2">
@@ -13649,14 +13648,14 @@
       <c r="AD62" s="13">
         <v>0</v>
       </c>
-      <c r="AE62" s="13" t="s">
+      <c r="AE62" s="13">
+        <v>321</v>
+      </c>
+      <c r="AF62" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG62" s="13" t="s">
         <v>430</v>
-      </c>
-      <c r="AF62" s="13">
-        <v>321</v>
-      </c>
-      <c r="AG62" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.2">
@@ -13750,14 +13749,14 @@
       <c r="AD63" s="13">
         <v>0</v>
       </c>
-      <c r="AE63" s="13" t="s">
+      <c r="AE63" s="13">
+        <v>231</v>
+      </c>
+      <c r="AF63" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG63" s="13" t="s">
         <v>430</v>
-      </c>
-      <c r="AF63" s="13">
-        <v>231</v>
-      </c>
-      <c r="AG63" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.2">
@@ -13851,14 +13850,14 @@
       <c r="AD64" s="13">
         <v>0</v>
       </c>
-      <c r="AE64" s="13" t="s">
+      <c r="AE64" s="13">
+        <v>231</v>
+      </c>
+      <c r="AF64" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG64" s="13" t="s">
         <v>430</v>
-      </c>
-      <c r="AF64" s="13">
-        <v>231</v>
-      </c>
-      <c r="AG64" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.2">
@@ -13952,14 +13951,14 @@
       <c r="AD65" s="13">
         <v>0</v>
       </c>
-      <c r="AE65" s="13" t="s">
+      <c r="AE65" s="13">
+        <v>237</v>
+      </c>
+      <c r="AF65" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG65" s="13" t="s">
         <v>612</v>
-      </c>
-      <c r="AF65" s="13">
-        <v>237</v>
-      </c>
-      <c r="AG65" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.2">
@@ -14053,14 +14052,14 @@
       <c r="AD66" s="13">
         <v>0</v>
       </c>
-      <c r="AE66" s="13" t="s">
+      <c r="AE66" s="13">
+        <v>237</v>
+      </c>
+      <c r="AF66" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG66" s="13" t="s">
         <v>612</v>
-      </c>
-      <c r="AF66" s="13">
-        <v>237</v>
-      </c>
-      <c r="AG66" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.2">
@@ -14154,14 +14153,14 @@
       <c r="AD67" s="13">
         <v>0</v>
       </c>
-      <c r="AE67" s="13" t="s">
+      <c r="AE67" s="13">
+        <v>237</v>
+      </c>
+      <c r="AF67" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG67" s="13" t="s">
         <v>612</v>
-      </c>
-      <c r="AF67" s="13">
-        <v>237</v>
-      </c>
-      <c r="AG67" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.2">
@@ -14255,14 +14254,14 @@
       <c r="AD68" s="13">
         <v>0</v>
       </c>
-      <c r="AE68" s="13" t="s">
+      <c r="AE68" s="13">
+        <v>237</v>
+      </c>
+      <c r="AF68" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG68" s="13" t="s">
         <v>612</v>
-      </c>
-      <c r="AF68" s="13">
-        <v>237</v>
-      </c>
-      <c r="AG68" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.2">
@@ -14356,14 +14355,14 @@
       <c r="AD69" s="13">
         <v>0</v>
       </c>
-      <c r="AE69" s="13" t="s">
+      <c r="AE69" s="13">
+        <v>237</v>
+      </c>
+      <c r="AF69" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG69" s="13" t="s">
         <v>612</v>
-      </c>
-      <c r="AF69" s="13">
-        <v>237</v>
-      </c>
-      <c r="AG69" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.2">
@@ -14457,14 +14456,14 @@
       <c r="AD70" s="13">
         <v>0</v>
       </c>
-      <c r="AE70" s="13" t="s">
+      <c r="AE70" s="13">
+        <v>237</v>
+      </c>
+      <c r="AF70" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG70" s="13" t="s">
         <v>612</v>
-      </c>
-      <c r="AF70" s="13">
-        <v>237</v>
-      </c>
-      <c r="AG70" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.2">
@@ -14558,14 +14557,14 @@
       <c r="AD71" s="13">
         <v>0</v>
       </c>
-      <c r="AE71" s="13" t="s">
+      <c r="AE71" s="13">
+        <v>237</v>
+      </c>
+      <c r="AF71" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG71" s="13" t="s">
         <v>612</v>
-      </c>
-      <c r="AF71" s="13">
-        <v>237</v>
-      </c>
-      <c r="AG71" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.2">
@@ -14659,14 +14658,14 @@
       <c r="AD72" s="13">
         <v>0</v>
       </c>
-      <c r="AE72" s="13" t="s">
+      <c r="AE72" s="13">
+        <v>237</v>
+      </c>
+      <c r="AF72" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG72" s="13" t="s">
         <v>612</v>
-      </c>
-      <c r="AF72" s="13">
-        <v>237</v>
-      </c>
-      <c r="AG72" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.2">
@@ -14760,14 +14759,14 @@
       <c r="AD73" s="13">
         <v>0</v>
       </c>
-      <c r="AE73" s="13" t="s">
+      <c r="AE73" s="13">
+        <v>150</v>
+      </c>
+      <c r="AF73" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG73" s="13" t="s">
         <v>1072</v>
-      </c>
-      <c r="AF73" s="13">
-        <v>150</v>
-      </c>
-      <c r="AG73" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.2">
@@ -14861,14 +14860,14 @@
       <c r="AD74" s="13">
         <v>0</v>
       </c>
-      <c r="AE74" s="13" t="s">
+      <c r="AE74" s="13">
+        <v>150</v>
+      </c>
+      <c r="AF74" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG74" s="13" t="s">
         <v>1081</v>
-      </c>
-      <c r="AF74" s="13">
-        <v>150</v>
-      </c>
-      <c r="AG74" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.2">
@@ -14962,14 +14961,14 @@
       <c r="AD75" s="13">
         <v>0</v>
       </c>
-      <c r="AE75" s="13" t="s">
+      <c r="AE75" s="13">
+        <v>150</v>
+      </c>
+      <c r="AF75" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG75" s="13" t="s">
         <v>603</v>
-      </c>
-      <c r="AF75" s="13">
-        <v>150</v>
-      </c>
-      <c r="AG75" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.2">
@@ -15063,14 +15062,14 @@
       <c r="AD76" s="13">
         <v>0</v>
       </c>
-      <c r="AE76" s="13" t="s">
+      <c r="AE76" s="13">
+        <v>150</v>
+      </c>
+      <c r="AF76" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG76" s="13" t="s">
         <v>603</v>
-      </c>
-      <c r="AF76" s="13">
-        <v>150</v>
-      </c>
-      <c r="AG76" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.2">
@@ -15164,14 +15163,14 @@
       <c r="AD77" s="13">
         <v>0</v>
       </c>
-      <c r="AE77" s="13" t="s">
+      <c r="AE77" s="13">
+        <v>150</v>
+      </c>
+      <c r="AF77" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG77" s="13" t="s">
         <v>586</v>
-      </c>
-      <c r="AF77" s="13">
-        <v>150</v>
-      </c>
-      <c r="AG77" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.2">
@@ -15265,14 +15264,14 @@
       <c r="AD78" s="13">
         <v>0</v>
       </c>
-      <c r="AE78" s="13" t="s">
+      <c r="AE78" s="13">
+        <v>150</v>
+      </c>
+      <c r="AF78" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG78" s="13" t="s">
         <v>586</v>
-      </c>
-      <c r="AF78" s="13">
-        <v>150</v>
-      </c>
-      <c r="AG78" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.2">
@@ -15366,14 +15365,14 @@
       <c r="AD79" s="13">
         <v>0</v>
       </c>
-      <c r="AE79" s="13" t="s">
+      <c r="AE79" s="13">
+        <v>150</v>
+      </c>
+      <c r="AF79" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG79" s="13" t="s">
         <v>1081</v>
-      </c>
-      <c r="AF79" s="13">
-        <v>150</v>
-      </c>
-      <c r="AG79" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.2">
@@ -15467,14 +15466,14 @@
       <c r="AD80" s="13">
         <v>0</v>
       </c>
-      <c r="AE80" s="13" t="s">
+      <c r="AE80" s="13">
+        <v>165</v>
+      </c>
+      <c r="AF80" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG80" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF80" s="13">
-        <v>165</v>
-      </c>
-      <c r="AG80" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.2">
@@ -15568,14 +15567,14 @@
       <c r="AD81" s="13">
         <v>0</v>
       </c>
-      <c r="AE81" s="13" t="s">
+      <c r="AE81" s="13">
+        <v>243</v>
+      </c>
+      <c r="AF81" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG81" s="13" t="s">
         <v>1074</v>
-      </c>
-      <c r="AF81" s="13">
-        <v>243</v>
-      </c>
-      <c r="AG81" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.2">
@@ -15669,14 +15668,14 @@
       <c r="AD82" s="13">
         <v>0</v>
       </c>
-      <c r="AE82" s="13" t="s">
+      <c r="AE82" s="13">
+        <v>243</v>
+      </c>
+      <c r="AF82" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG82" s="13" t="s">
         <v>1087</v>
-      </c>
-      <c r="AF82" s="13">
-        <v>243</v>
-      </c>
-      <c r="AG82" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.2">
@@ -15770,14 +15769,14 @@
       <c r="AD83" s="13">
         <v>0</v>
       </c>
-      <c r="AE83" s="13" t="s">
+      <c r="AE83" s="13">
+        <v>243</v>
+      </c>
+      <c r="AF83" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG83" s="13" t="s">
         <v>1074</v>
-      </c>
-      <c r="AF83" s="13">
-        <v>243</v>
-      </c>
-      <c r="AG83" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.2">
@@ -15871,14 +15870,14 @@
       <c r="AD84" s="13">
         <v>0</v>
       </c>
-      <c r="AE84" s="13" t="s">
+      <c r="AE84" s="13">
+        <v>165</v>
+      </c>
+      <c r="AF84" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG84" s="13" t="s">
         <v>1087</v>
-      </c>
-      <c r="AF84" s="13">
-        <v>165</v>
-      </c>
-      <c r="AG84" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.2">
@@ -15972,14 +15971,14 @@
       <c r="AD85" s="13">
         <v>0</v>
       </c>
-      <c r="AE85" s="13" t="s">
+      <c r="AE85" s="13">
+        <v>144</v>
+      </c>
+      <c r="AF85" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG85" s="13" t="s">
         <v>1089</v>
-      </c>
-      <c r="AF85" s="13">
-        <v>144</v>
-      </c>
-      <c r="AG85" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.2">
@@ -16073,14 +16072,14 @@
       <c r="AD86" s="13">
         <v>0</v>
       </c>
-      <c r="AE86" s="13" t="s">
+      <c r="AE86" s="13">
+        <v>177</v>
+      </c>
+      <c r="AF86" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG86" s="13" t="s">
         <v>624</v>
-      </c>
-      <c r="AF86" s="13">
-        <v>177</v>
-      </c>
-      <c r="AG86" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.2">
@@ -16174,14 +16173,14 @@
       <c r="AD87" s="13">
         <v>0</v>
       </c>
-      <c r="AE87" s="13" t="s">
+      <c r="AE87" s="13">
+        <v>222</v>
+      </c>
+      <c r="AF87" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG87" s="13" t="s">
         <v>612</v>
-      </c>
-      <c r="AF87" s="13">
-        <v>222</v>
-      </c>
-      <c r="AG87" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.2">
@@ -16275,14 +16274,14 @@
       <c r="AD88" s="13">
         <v>0</v>
       </c>
-      <c r="AE88" s="13" t="s">
+      <c r="AE88" s="13">
+        <v>186</v>
+      </c>
+      <c r="AF88" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG88" s="13" t="s">
         <v>612</v>
-      </c>
-      <c r="AF88" s="13">
-        <v>186</v>
-      </c>
-      <c r="AG88" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.2">
@@ -16376,14 +16375,14 @@
       <c r="AD89" s="13">
         <v>0</v>
       </c>
-      <c r="AE89" s="13" t="s">
+      <c r="AE89" s="13">
+        <v>228</v>
+      </c>
+      <c r="AF89" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG89" s="13" t="s">
         <v>624</v>
-      </c>
-      <c r="AF89" s="13">
-        <v>228</v>
-      </c>
-      <c r="AG89" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.2">
@@ -16477,14 +16476,14 @@
       <c r="AD90" s="13">
         <v>0</v>
       </c>
-      <c r="AE90" s="13" t="s">
+      <c r="AE90" s="13">
+        <v>156</v>
+      </c>
+      <c r="AF90" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG90" s="13" t="s">
         <v>1074</v>
-      </c>
-      <c r="AF90" s="13">
-        <v>156</v>
-      </c>
-      <c r="AG90" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.2">
@@ -16578,14 +16577,14 @@
       <c r="AD91" s="13">
         <v>0</v>
       </c>
-      <c r="AE91" s="13" t="s">
+      <c r="AE91" s="13">
+        <v>183</v>
+      </c>
+      <c r="AF91" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG91" s="13" t="s">
         <v>612</v>
-      </c>
-      <c r="AF91" s="13">
-        <v>183</v>
-      </c>
-      <c r="AG91" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.2">
@@ -16679,14 +16678,14 @@
       <c r="AD92" s="13">
         <v>0</v>
       </c>
-      <c r="AE92" s="13" t="s">
+      <c r="AE92" s="13">
+        <v>471</v>
+      </c>
+      <c r="AF92" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG92" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF92" s="13">
-        <v>471</v>
-      </c>
-      <c r="AG92" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.2">
@@ -16780,14 +16779,14 @@
       <c r="AD93" s="13">
         <v>0</v>
       </c>
-      <c r="AE93" s="13" t="s">
+      <c r="AE93" s="13">
+        <v>726</v>
+      </c>
+      <c r="AF93" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG93" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF93" s="13">
-        <v>726</v>
-      </c>
-      <c r="AG93" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.2">
@@ -16881,14 +16880,14 @@
       <c r="AD94" s="13">
         <v>0</v>
       </c>
-      <c r="AE94" s="13" t="s">
+      <c r="AE94" s="13">
+        <v>717</v>
+      </c>
+      <c r="AF94" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG94" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF94" s="13">
-        <v>717</v>
-      </c>
-      <c r="AG94" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.2">
@@ -16982,14 +16981,14 @@
       <c r="AD95" s="13">
         <v>0</v>
       </c>
-      <c r="AE95" s="13" t="s">
+      <c r="AE95" s="13">
+        <v>471</v>
+      </c>
+      <c r="AF95" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG95" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF95" s="13">
-        <v>471</v>
-      </c>
-      <c r="AG95" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.2">
@@ -17083,14 +17082,14 @@
       <c r="AD96" s="13">
         <v>0</v>
       </c>
-      <c r="AE96" s="13" t="s">
+      <c r="AE96" s="13">
+        <v>474</v>
+      </c>
+      <c r="AF96" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG96" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF96" s="13">
-        <v>474</v>
-      </c>
-      <c r="AG96" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.2">
@@ -17184,14 +17183,14 @@
       <c r="AD97" s="13">
         <v>0</v>
       </c>
-      <c r="AE97" s="13" t="s">
+      <c r="AE97" s="13">
+        <v>441</v>
+      </c>
+      <c r="AF97" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG97" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF97" s="13">
-        <v>441</v>
-      </c>
-      <c r="AG97" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.2">
@@ -17285,14 +17284,14 @@
       <c r="AD98" s="13">
         <v>0</v>
       </c>
-      <c r="AE98" s="13" t="s">
+      <c r="AE98" s="13">
+        <v>651</v>
+      </c>
+      <c r="AF98" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG98" s="13" t="s">
         <v>711</v>
-      </c>
-      <c r="AF98" s="13">
-        <v>651</v>
-      </c>
-      <c r="AG98" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.2">
@@ -17386,14 +17385,14 @@
       <c r="AD99" s="13">
         <v>0</v>
       </c>
-      <c r="AE99" s="13" t="s">
+      <c r="AE99" s="13">
+        <v>669</v>
+      </c>
+      <c r="AF99" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG99" s="13" t="s">
         <v>711</v>
-      </c>
-      <c r="AF99" s="13">
-        <v>669</v>
-      </c>
-      <c r="AG99" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.2">
@@ -17487,14 +17486,14 @@
       <c r="AD100" s="13">
         <v>0</v>
       </c>
-      <c r="AE100" s="13" t="s">
+      <c r="AE100" s="13">
+        <v>756</v>
+      </c>
+      <c r="AF100" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG100" s="13" t="s">
         <v>711</v>
-      </c>
-      <c r="AF100" s="13">
-        <v>756</v>
-      </c>
-      <c r="AG100" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.2">
@@ -17588,14 +17587,14 @@
       <c r="AD101" s="13">
         <v>0</v>
       </c>
-      <c r="AE101" s="13" t="s">
+      <c r="AE101" s="13">
+        <v>408</v>
+      </c>
+      <c r="AF101" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG101" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF101" s="13">
-        <v>408</v>
-      </c>
-      <c r="AG101" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.2">
@@ -17689,14 +17688,14 @@
       <c r="AD102" s="13">
         <v>0</v>
       </c>
-      <c r="AE102" s="13" t="s">
+      <c r="AE102" s="13">
+        <v>408</v>
+      </c>
+      <c r="AF102" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG102" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF102" s="13">
-        <v>408</v>
-      </c>
-      <c r="AG102" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.2">
@@ -17790,14 +17789,14 @@
       <c r="AD103" s="13">
         <v>0</v>
       </c>
-      <c r="AE103" s="13" t="s">
+      <c r="AE103" s="13">
+        <v>519</v>
+      </c>
+      <c r="AF103" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG103" s="13" t="s">
         <v>711</v>
-      </c>
-      <c r="AF103" s="13">
-        <v>519</v>
-      </c>
-      <c r="AG103" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.2">
@@ -17891,14 +17890,14 @@
       <c r="AD104" s="13">
         <v>0</v>
       </c>
-      <c r="AE104" s="13" t="s">
+      <c r="AE104" s="13">
+        <v>366</v>
+      </c>
+      <c r="AF104" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG104" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF104" s="13">
-        <v>366</v>
-      </c>
-      <c r="AG104" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.2">
@@ -17992,14 +17991,14 @@
       <c r="AD105" s="13">
         <v>0</v>
       </c>
-      <c r="AE105" s="13" t="s">
+      <c r="AE105" s="13">
+        <v>630</v>
+      </c>
+      <c r="AF105" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG105" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF105" s="13">
-        <v>630</v>
-      </c>
-      <c r="AG105" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.2">
@@ -18093,14 +18092,14 @@
       <c r="AD106" s="13">
         <v>0</v>
       </c>
-      <c r="AE106" s="13" t="s">
+      <c r="AE106" s="13">
+        <v>366</v>
+      </c>
+      <c r="AF106" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG106" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF106" s="13">
-        <v>366</v>
-      </c>
-      <c r="AG106" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.2">
@@ -18194,14 +18193,14 @@
       <c r="AD107" s="13">
         <v>0</v>
       </c>
-      <c r="AE107" s="13" t="s">
+      <c r="AE107" s="13">
+        <v>408</v>
+      </c>
+      <c r="AF107" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG107" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF107" s="13">
-        <v>408</v>
-      </c>
-      <c r="AG107" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.2">
@@ -18295,14 +18294,14 @@
       <c r="AD108" s="13">
         <v>0</v>
       </c>
-      <c r="AE108" s="13" t="s">
+      <c r="AE108" s="13">
+        <v>369</v>
+      </c>
+      <c r="AF108" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG108" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF108" s="13">
-        <v>369</v>
-      </c>
-      <c r="AG108" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.2">
@@ -18396,14 +18395,14 @@
       <c r="AD109" s="13">
         <v>0</v>
       </c>
-      <c r="AE109" s="13" t="s">
+      <c r="AE109" s="13">
+        <v>462</v>
+      </c>
+      <c r="AF109" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG109" s="13" t="s">
         <v>785</v>
-      </c>
-      <c r="AF109" s="13">
-        <v>462</v>
-      </c>
-      <c r="AG109" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="110" spans="1:33" x14ac:dyDescent="0.2">
@@ -18497,14 +18496,14 @@
       <c r="AD110" s="13">
         <v>0</v>
       </c>
-      <c r="AE110" s="13" t="s">
+      <c r="AE110" s="13">
+        <v>498</v>
+      </c>
+      <c r="AF110" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG110" s="13" t="s">
         <v>785</v>
-      </c>
-      <c r="AF110" s="13">
-        <v>498</v>
-      </c>
-      <c r="AG110" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="111" spans="1:33" x14ac:dyDescent="0.2">
@@ -18598,14 +18597,14 @@
       <c r="AD111" s="13">
         <v>0</v>
       </c>
-      <c r="AE111" s="13" t="s">
+      <c r="AE111" s="13">
+        <v>438</v>
+      </c>
+      <c r="AF111" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG111" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF111" s="13">
-        <v>438</v>
-      </c>
-      <c r="AG111" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="112" spans="1:33" x14ac:dyDescent="0.2">
@@ -18699,14 +18698,14 @@
       <c r="AD112" s="13">
         <v>0</v>
       </c>
-      <c r="AE112" s="13" t="s">
+      <c r="AE112" s="13">
+        <v>438</v>
+      </c>
+      <c r="AF112" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG112" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF112" s="13">
-        <v>438</v>
-      </c>
-      <c r="AG112" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="113" spans="1:33" x14ac:dyDescent="0.2">
@@ -18800,14 +18799,14 @@
       <c r="AD113" s="13">
         <v>0</v>
       </c>
-      <c r="AE113" s="13" t="s">
+      <c r="AE113" s="13">
+        <v>480</v>
+      </c>
+      <c r="AF113" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG113" s="13" t="s">
         <v>711</v>
-      </c>
-      <c r="AF113" s="13">
-        <v>480</v>
-      </c>
-      <c r="AG113" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="114" spans="1:33" x14ac:dyDescent="0.2">
@@ -18901,14 +18900,14 @@
       <c r="AD114" s="13">
         <v>0</v>
       </c>
-      <c r="AE114" s="13" t="s">
+      <c r="AE114" s="13">
+        <v>495</v>
+      </c>
+      <c r="AF114" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG114" s="13" t="s">
         <v>711</v>
-      </c>
-      <c r="AF114" s="13">
-        <v>495</v>
-      </c>
-      <c r="AG114" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="115" spans="1:33" x14ac:dyDescent="0.2">
@@ -19002,14 +19001,14 @@
       <c r="AD115" s="13">
         <v>0</v>
       </c>
-      <c r="AE115" s="13" t="s">
+      <c r="AE115" s="13">
+        <v>657</v>
+      </c>
+      <c r="AF115" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG115" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF115" s="13">
-        <v>657</v>
-      </c>
-      <c r="AG115" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="116" spans="1:33" x14ac:dyDescent="0.2">
@@ -19103,14 +19102,14 @@
       <c r="AD116" s="13">
         <v>0</v>
       </c>
-      <c r="AE116" s="13" t="s">
+      <c r="AE116" s="13">
+        <v>444</v>
+      </c>
+      <c r="AF116" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG116" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF116" s="13">
-        <v>444</v>
-      </c>
-      <c r="AG116" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="117" spans="1:33" x14ac:dyDescent="0.2">
@@ -19204,14 +19203,14 @@
       <c r="AD117" s="13">
         <v>0</v>
       </c>
-      <c r="AE117" s="13" t="s">
+      <c r="AE117" s="13">
+        <v>327</v>
+      </c>
+      <c r="AF117" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG117" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF117" s="13">
-        <v>327</v>
-      </c>
-      <c r="AG117" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="118" spans="1:33" x14ac:dyDescent="0.2">
@@ -19305,14 +19304,14 @@
       <c r="AD118" s="13">
         <v>0</v>
       </c>
-      <c r="AE118" s="13" t="s">
+      <c r="AE118" s="13">
+        <v>375</v>
+      </c>
+      <c r="AF118" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG118" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF118" s="13">
-        <v>375</v>
-      </c>
-      <c r="AG118" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="119" spans="1:33" x14ac:dyDescent="0.2">
@@ -19406,14 +19405,14 @@
       <c r="AD119" s="13">
         <v>0</v>
       </c>
-      <c r="AE119" s="13" t="s">
+      <c r="AE119" s="13">
+        <v>375</v>
+      </c>
+      <c r="AF119" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG119" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF119" s="13">
-        <v>375</v>
-      </c>
-      <c r="AG119" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="120" spans="1:33" x14ac:dyDescent="0.2">
@@ -19507,14 +19506,14 @@
       <c r="AD120" s="13">
         <v>0</v>
       </c>
-      <c r="AE120" s="13" t="s">
+      <c r="AE120" s="13">
+        <v>225</v>
+      </c>
+      <c r="AF120" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG120" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF120" s="13">
-        <v>225</v>
-      </c>
-      <c r="AG120" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="121" spans="1:33" x14ac:dyDescent="0.2">
@@ -19608,14 +19607,14 @@
       <c r="AD121" s="13">
         <v>0</v>
       </c>
-      <c r="AE121" s="13" t="s">
+      <c r="AE121" s="13">
+        <v>225</v>
+      </c>
+      <c r="AF121" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG121" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF121" s="13">
-        <v>225</v>
-      </c>
-      <c r="AG121" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="122" spans="1:33" x14ac:dyDescent="0.2">
@@ -19709,14 +19708,14 @@
       <c r="AD122" s="13">
         <v>0</v>
       </c>
-      <c r="AE122" s="13" t="s">
+      <c r="AE122" s="13">
+        <v>225</v>
+      </c>
+      <c r="AF122" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG122" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF122" s="13">
-        <v>225</v>
-      </c>
-      <c r="AG122" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="123" spans="1:33" x14ac:dyDescent="0.2">
@@ -19810,14 +19809,14 @@
       <c r="AD123" s="13">
         <v>0</v>
       </c>
-      <c r="AE123" s="13" t="s">
+      <c r="AE123" s="13">
+        <v>225</v>
+      </c>
+      <c r="AF123" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG123" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF123" s="13">
-        <v>225</v>
-      </c>
-      <c r="AG123" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="124" spans="1:33" x14ac:dyDescent="0.2">
@@ -19911,14 +19910,14 @@
       <c r="AD124" s="13">
         <v>0</v>
       </c>
-      <c r="AE124" s="13" t="s">
+      <c r="AE124" s="13">
+        <v>300</v>
+      </c>
+      <c r="AF124" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG124" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF124" s="13">
-        <v>300</v>
-      </c>
-      <c r="AG124" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="125" spans="1:33" x14ac:dyDescent="0.2">
@@ -20012,14 +20011,14 @@
       <c r="AD125" s="13">
         <v>0</v>
       </c>
-      <c r="AE125" s="13" t="s">
+      <c r="AE125" s="13">
+        <v>300</v>
+      </c>
+      <c r="AF125" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG125" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF125" s="13">
-        <v>300</v>
-      </c>
-      <c r="AG125" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="126" spans="1:33" x14ac:dyDescent="0.2">
@@ -20113,14 +20112,14 @@
       <c r="AD126" s="13">
         <v>0</v>
       </c>
-      <c r="AE126" s="13" t="s">
+      <c r="AE126" s="13">
+        <v>300</v>
+      </c>
+      <c r="AF126" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG126" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF126" s="13">
-        <v>300</v>
-      </c>
-      <c r="AG126" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="127" spans="1:33" x14ac:dyDescent="0.2">
@@ -20214,14 +20213,14 @@
       <c r="AD127" s="13">
         <v>0</v>
       </c>
-      <c r="AE127" s="13" t="s">
+      <c r="AE127" s="13">
+        <v>300</v>
+      </c>
+      <c r="AF127" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG127" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF127" s="13">
-        <v>300</v>
-      </c>
-      <c r="AG127" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="128" spans="1:33" x14ac:dyDescent="0.2">
@@ -20315,14 +20314,14 @@
       <c r="AD128" s="13">
         <v>0</v>
       </c>
-      <c r="AE128" s="13" t="s">
+      <c r="AE128" s="13">
+        <v>222</v>
+      </c>
+      <c r="AF128" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG128" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF128" s="13">
-        <v>222</v>
-      </c>
-      <c r="AG128" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="129" spans="1:33" x14ac:dyDescent="0.2">
@@ -20416,14 +20415,14 @@
       <c r="AD129" s="13">
         <v>0</v>
       </c>
-      <c r="AE129" s="13" t="s">
+      <c r="AE129" s="13">
+        <v>300</v>
+      </c>
+      <c r="AF129" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG129" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF129" s="13">
-        <v>300</v>
-      </c>
-      <c r="AG129" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="130" spans="1:33" x14ac:dyDescent="0.2">
@@ -20517,14 +20516,14 @@
       <c r="AD130" s="13">
         <v>0</v>
       </c>
-      <c r="AE130" s="13" t="s">
+      <c r="AE130" s="13">
+        <v>300</v>
+      </c>
+      <c r="AF130" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG130" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF130" s="13">
-        <v>300</v>
-      </c>
-      <c r="AG130" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="131" spans="1:33" x14ac:dyDescent="0.2">
@@ -20618,14 +20617,14 @@
       <c r="AD131" s="13">
         <v>0</v>
       </c>
-      <c r="AE131" s="13" t="s">
+      <c r="AE131" s="13">
+        <v>309</v>
+      </c>
+      <c r="AF131" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG131" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF131" s="13">
-        <v>309</v>
-      </c>
-      <c r="AG131" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="132" spans="1:33" x14ac:dyDescent="0.2">
@@ -20719,14 +20718,14 @@
       <c r="AD132" s="13">
         <v>0</v>
       </c>
-      <c r="AE132" s="13" t="s">
+      <c r="AE132" s="13">
+        <v>360</v>
+      </c>
+      <c r="AF132" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG132" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF132" s="13">
-        <v>360</v>
-      </c>
-      <c r="AG132" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="133" spans="1:33" x14ac:dyDescent="0.2">
@@ -20820,14 +20819,14 @@
       <c r="AD133" s="13">
         <v>0</v>
       </c>
-      <c r="AE133" s="13" t="s">
+      <c r="AE133" s="13">
+        <v>387</v>
+      </c>
+      <c r="AF133" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG133" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF133" s="13">
-        <v>387</v>
-      </c>
-      <c r="AG133" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="134" spans="1:33" x14ac:dyDescent="0.2">
@@ -20921,14 +20920,14 @@
       <c r="AD134" s="13">
         <v>0</v>
       </c>
-      <c r="AE134" s="13" t="s">
+      <c r="AE134" s="13">
+        <v>309</v>
+      </c>
+      <c r="AF134" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG134" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF134" s="13">
-        <v>309</v>
-      </c>
-      <c r="AG134" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="135" spans="1:33" x14ac:dyDescent="0.2">
@@ -21022,14 +21021,14 @@
       <c r="AD135" s="13">
         <v>0</v>
       </c>
-      <c r="AE135" s="13" t="s">
+      <c r="AE135" s="13">
+        <v>369</v>
+      </c>
+      <c r="AF135" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG135" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF135" s="13">
-        <v>369</v>
-      </c>
-      <c r="AG135" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="136" spans="1:33" x14ac:dyDescent="0.2">
@@ -21123,14 +21122,14 @@
       <c r="AD136" s="13">
         <v>0</v>
       </c>
-      <c r="AE136" s="13" t="s">
+      <c r="AE136" s="13">
+        <v>240</v>
+      </c>
+      <c r="AF136" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG136" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF136" s="13">
-        <v>240</v>
-      </c>
-      <c r="AG136" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="137" spans="1:33" x14ac:dyDescent="0.2">
@@ -21224,14 +21223,14 @@
       <c r="AD137" s="13">
         <v>0</v>
       </c>
-      <c r="AE137" s="13" t="s">
+      <c r="AE137" s="13">
+        <v>174</v>
+      </c>
+      <c r="AF137" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG137" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF137" s="13">
-        <v>174</v>
-      </c>
-      <c r="AG137" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="138" spans="1:33" x14ac:dyDescent="0.2">
@@ -21325,14 +21324,14 @@
       <c r="AD138" s="13">
         <v>0</v>
       </c>
-      <c r="AE138" s="13" t="s">
+      <c r="AE138" s="13">
+        <v>201</v>
+      </c>
+      <c r="AF138" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG138" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF138" s="13">
-        <v>201</v>
-      </c>
-      <c r="AG138" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="139" spans="1:33" x14ac:dyDescent="0.2">
@@ -21426,14 +21425,14 @@
       <c r="AD139" s="13">
         <v>0</v>
       </c>
-      <c r="AE139" s="13" t="s">
+      <c r="AE139" s="13">
+        <v>165</v>
+      </c>
+      <c r="AF139" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG139" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF139" s="13">
-        <v>165</v>
-      </c>
-      <c r="AG139" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="140" spans="1:33" x14ac:dyDescent="0.2">
@@ -21527,14 +21526,14 @@
       <c r="AD140" s="13">
         <v>0</v>
       </c>
-      <c r="AE140" s="13" t="s">
+      <c r="AE140" s="13">
+        <v>165</v>
+      </c>
+      <c r="AF140" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG140" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF140" s="13">
-        <v>165</v>
-      </c>
-      <c r="AG140" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="141" spans="1:33" x14ac:dyDescent="0.2">
@@ -21628,14 +21627,14 @@
       <c r="AD141" s="13">
         <v>0</v>
       </c>
-      <c r="AE141" s="13" t="s">
+      <c r="AE141" s="13">
+        <v>165</v>
+      </c>
+      <c r="AF141" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG141" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF141" s="13">
-        <v>165</v>
-      </c>
-      <c r="AG141" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="142" spans="1:33" x14ac:dyDescent="0.2">
@@ -21729,14 +21728,14 @@
       <c r="AD142" s="13">
         <v>0</v>
       </c>
-      <c r="AE142" s="13" t="s">
+      <c r="AE142" s="13">
+        <v>165</v>
+      </c>
+      <c r="AF142" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG142" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF142" s="13">
-        <v>165</v>
-      </c>
-      <c r="AG142" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="143" spans="1:33" x14ac:dyDescent="0.2">
@@ -21830,14 +21829,14 @@
       <c r="AD143" s="13">
         <v>0</v>
       </c>
-      <c r="AE143" s="13" t="s">
+      <c r="AE143" s="13">
+        <v>357</v>
+      </c>
+      <c r="AF143" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG143" s="13" t="s">
         <v>711</v>
-      </c>
-      <c r="AF143" s="13">
-        <v>357</v>
-      </c>
-      <c r="AG143" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="144" spans="1:33" x14ac:dyDescent="0.2">
@@ -21931,14 +21930,14 @@
       <c r="AD144" s="13">
         <v>0</v>
       </c>
-      <c r="AE144" s="13" t="s">
+      <c r="AE144" s="13">
+        <v>198</v>
+      </c>
+      <c r="AF144" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG144" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF144" s="13">
-        <v>198</v>
-      </c>
-      <c r="AG144" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="145" spans="1:33" x14ac:dyDescent="0.2">
@@ -22032,14 +22031,14 @@
       <c r="AD145" s="13">
         <v>0</v>
       </c>
-      <c r="AE145" s="13" t="s">
+      <c r="AE145" s="13">
+        <v>198</v>
+      </c>
+      <c r="AF145" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG145" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF145" s="13">
-        <v>198</v>
-      </c>
-      <c r="AG145" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="146" spans="1:33" x14ac:dyDescent="0.2">
@@ -22133,14 +22132,14 @@
       <c r="AD146" s="13">
         <v>0</v>
       </c>
-      <c r="AE146" s="13" t="s">
+      <c r="AE146" s="13">
+        <v>198</v>
+      </c>
+      <c r="AF146" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG146" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF146" s="13">
-        <v>198</v>
-      </c>
-      <c r="AG146" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="147" spans="1:33" x14ac:dyDescent="0.2">
@@ -22234,14 +22233,14 @@
       <c r="AD147" s="13">
         <v>0</v>
       </c>
-      <c r="AE147" s="13" t="s">
+      <c r="AE147" s="13">
+        <v>198</v>
+      </c>
+      <c r="AF147" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG147" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF147" s="13">
-        <v>198</v>
-      </c>
-      <c r="AG147" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="148" spans="1:33" x14ac:dyDescent="0.2">
@@ -22335,14 +22334,14 @@
       <c r="AD148" s="13">
         <v>0</v>
       </c>
-      <c r="AE148" s="13" t="s">
+      <c r="AE148" s="13">
+        <v>198</v>
+      </c>
+      <c r="AF148" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG148" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF148" s="13">
-        <v>198</v>
-      </c>
-      <c r="AG148" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="149" spans="1:33" x14ac:dyDescent="0.2">
@@ -22436,14 +22435,14 @@
       <c r="AD149" s="13">
         <v>0</v>
       </c>
-      <c r="AE149" s="13" t="s">
+      <c r="AE149" s="13">
+        <v>171</v>
+      </c>
+      <c r="AF149" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG149" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF149" s="13">
-        <v>171</v>
-      </c>
-      <c r="AG149" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="150" spans="1:33" x14ac:dyDescent="0.2">
@@ -22537,14 +22536,14 @@
       <c r="AD150" s="13">
         <v>0</v>
       </c>
-      <c r="AE150" s="13" t="s">
+      <c r="AE150" s="13">
+        <v>165</v>
+      </c>
+      <c r="AF150" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG150" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF150" s="13">
-        <v>165</v>
-      </c>
-      <c r="AG150" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="151" spans="1:33" x14ac:dyDescent="0.2">
@@ -22638,14 +22637,14 @@
       <c r="AD151" s="13">
         <v>0</v>
       </c>
-      <c r="AE151" s="13" t="s">
+      <c r="AE151" s="13">
+        <v>165</v>
+      </c>
+      <c r="AF151" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG151" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF151" s="13">
-        <v>165</v>
-      </c>
-      <c r="AG151" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="152" spans="1:33" x14ac:dyDescent="0.2">
@@ -22739,14 +22738,14 @@
       <c r="AD152" s="13">
         <v>0</v>
       </c>
-      <c r="AE152" s="13" t="s">
+      <c r="AE152" s="13">
+        <v>198</v>
+      </c>
+      <c r="AF152" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG152" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF152" s="13">
-        <v>198</v>
-      </c>
-      <c r="AG152" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="153" spans="1:33" x14ac:dyDescent="0.2">
@@ -22840,14 +22839,14 @@
       <c r="AD153" s="13">
         <v>0</v>
       </c>
-      <c r="AE153" s="13" t="s">
+      <c r="AE153" s="13">
+        <v>375</v>
+      </c>
+      <c r="AF153" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG153" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF153" s="13">
-        <v>375</v>
-      </c>
-      <c r="AG153" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="154" spans="1:33" x14ac:dyDescent="0.2">
@@ -22941,14 +22940,14 @@
       <c r="AD154" s="13">
         <v>0</v>
       </c>
-      <c r="AE154" s="13" t="s">
+      <c r="AE154" s="13">
+        <v>198</v>
+      </c>
+      <c r="AF154" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG154" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF154" s="13">
-        <v>198</v>
-      </c>
-      <c r="AG154" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="155" spans="1:33" x14ac:dyDescent="0.2">
@@ -23042,14 +23041,14 @@
       <c r="AD155" s="13">
         <v>0</v>
       </c>
-      <c r="AE155" s="13" t="s">
+      <c r="AE155" s="13">
+        <v>324</v>
+      </c>
+      <c r="AF155" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG155" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF155" s="13">
-        <v>324</v>
-      </c>
-      <c r="AG155" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="156" spans="1:33" x14ac:dyDescent="0.2">
@@ -23143,14 +23142,14 @@
       <c r="AD156" s="13">
         <v>0</v>
       </c>
-      <c r="AE156" s="13" t="s">
+      <c r="AE156" s="13">
+        <v>504</v>
+      </c>
+      <c r="AF156" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG156" s="13" t="s">
         <v>785</v>
-      </c>
-      <c r="AF156" s="13">
-        <v>504</v>
-      </c>
-      <c r="AG156" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="157" spans="1:33" x14ac:dyDescent="0.2">
@@ -23244,14 +23243,14 @@
       <c r="AD157" s="13">
         <v>0</v>
       </c>
-      <c r="AE157" s="13" t="s">
+      <c r="AE157" s="13">
+        <v>294</v>
+      </c>
+      <c r="AF157" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG157" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF157" s="13">
-        <v>294</v>
-      </c>
-      <c r="AG157" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="158" spans="1:33" x14ac:dyDescent="0.2">
@@ -23345,14 +23344,14 @@
       <c r="AD158" s="13">
         <v>0</v>
       </c>
-      <c r="AE158" s="13" t="s">
+      <c r="AE158" s="13">
+        <v>261</v>
+      </c>
+      <c r="AF158" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG158" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF158" s="13">
-        <v>261</v>
-      </c>
-      <c r="AG158" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="159" spans="1:33" x14ac:dyDescent="0.2">
@@ -23446,14 +23445,14 @@
       <c r="AD159" s="13">
         <v>0</v>
       </c>
-      <c r="AE159" s="13" t="s">
+      <c r="AE159" s="13">
+        <v>228</v>
+      </c>
+      <c r="AF159" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG159" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF159" s="13">
-        <v>228</v>
-      </c>
-      <c r="AG159" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="160" spans="1:33" x14ac:dyDescent="0.2">
@@ -23547,14 +23546,14 @@
       <c r="AD160" s="13">
         <v>0</v>
       </c>
-      <c r="AE160" s="13" t="s">
+      <c r="AE160" s="13">
+        <v>162</v>
+      </c>
+      <c r="AF160" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG160" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF160" s="13">
-        <v>162</v>
-      </c>
-      <c r="AG160" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="161" spans="1:33" x14ac:dyDescent="0.2">
@@ -23648,14 +23647,14 @@
       <c r="AD161" s="13">
         <v>0</v>
       </c>
-      <c r="AE161" s="13" t="s">
+      <c r="AE161" s="13">
+        <v>162</v>
+      </c>
+      <c r="AF161" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG161" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF161" s="13">
-        <v>162</v>
-      </c>
-      <c r="AG161" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="162" spans="1:33" x14ac:dyDescent="0.2">
@@ -23749,14 +23748,14 @@
       <c r="AD162" s="13">
         <v>0</v>
       </c>
-      <c r="AE162" s="13" t="s">
+      <c r="AE162" s="13">
+        <v>228</v>
+      </c>
+      <c r="AF162" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG162" s="13" t="s">
         <v>711</v>
-      </c>
-      <c r="AF162" s="13">
-        <v>228</v>
-      </c>
-      <c r="AG162" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="163" spans="1:33" x14ac:dyDescent="0.2">
@@ -23850,14 +23849,14 @@
       <c r="AD163" s="13">
         <v>0</v>
       </c>
-      <c r="AE163" s="13" t="s">
+      <c r="AE163" s="13">
+        <v>171</v>
+      </c>
+      <c r="AF163" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG163" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF163" s="13">
-        <v>171</v>
-      </c>
-      <c r="AG163" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="164" spans="1:33" x14ac:dyDescent="0.2">
@@ -23951,14 +23950,14 @@
       <c r="AD164" s="13">
         <v>0</v>
       </c>
-      <c r="AE164" s="13" t="s">
+      <c r="AE164" s="13">
+        <v>171</v>
+      </c>
+      <c r="AF164" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG164" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF164" s="13">
-        <v>171</v>
-      </c>
-      <c r="AG164" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="165" spans="1:33" x14ac:dyDescent="0.2">
@@ -24052,14 +24051,14 @@
       <c r="AD165" s="13">
         <v>0</v>
       </c>
-      <c r="AE165" s="13" t="s">
+      <c r="AE165" s="13">
+        <v>315</v>
+      </c>
+      <c r="AF165" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG165" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF165" s="13">
-        <v>315</v>
-      </c>
-      <c r="AG165" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="166" spans="1:33" x14ac:dyDescent="0.2">
@@ -24153,14 +24152,14 @@
       <c r="AD166" s="13">
         <v>0</v>
       </c>
-      <c r="AE166" s="13" t="s">
+      <c r="AE166" s="13">
+        <v>129</v>
+      </c>
+      <c r="AF166" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG166" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF166" s="13">
-        <v>129</v>
-      </c>
-      <c r="AG166" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="167" spans="1:33" x14ac:dyDescent="0.2">
@@ -24254,14 +24253,14 @@
       <c r="AD167" s="13">
         <v>0</v>
       </c>
-      <c r="AE167" s="13" t="s">
+      <c r="AE167" s="13">
+        <v>129</v>
+      </c>
+      <c r="AF167" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG167" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="AF167" s="13">
-        <v>129</v>
-      </c>
-      <c r="AG167" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="168" spans="1:33" x14ac:dyDescent="0.2">
@@ -24355,14 +24354,14 @@
       <c r="AD168" s="13">
         <v>0</v>
       </c>
-      <c r="AE168" s="13" t="s">
+      <c r="AE168" s="13">
+        <v>315</v>
+      </c>
+      <c r="AF168" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG168" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF168" s="13">
-        <v>315</v>
-      </c>
-      <c r="AG168" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="169" spans="1:33" x14ac:dyDescent="0.2">
@@ -24456,14 +24455,14 @@
       <c r="AD169" s="13">
         <v>0</v>
       </c>
-      <c r="AE169" s="13" t="s">
+      <c r="AE169" s="13">
+        <v>297</v>
+      </c>
+      <c r="AF169" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG169" s="13" t="s">
         <v>711</v>
-      </c>
-      <c r="AF169" s="13">
-        <v>297</v>
-      </c>
-      <c r="AG169" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="170" spans="1:33" x14ac:dyDescent="0.2">
@@ -24557,14 +24556,14 @@
       <c r="AD170" s="13">
         <v>0</v>
       </c>
-      <c r="AE170" s="13" t="s">
+      <c r="AE170" s="13">
+        <v>192</v>
+      </c>
+      <c r="AF170" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG170" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="AF170" s="13">
-        <v>192</v>
-      </c>
-      <c r="AG170" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="171" spans="1:33" x14ac:dyDescent="0.2">
@@ -24658,14 +24657,14 @@
       <c r="AD171" s="13">
         <v>0</v>
       </c>
-      <c r="AE171" s="13" t="s">
+      <c r="AE171" s="13">
+        <v>470</v>
+      </c>
+      <c r="AF171" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG171" s="13" t="s">
         <v>969</v>
-      </c>
-      <c r="AF171" s="13">
-        <v>470</v>
-      </c>
-      <c r="AG171" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="172" spans="1:33" x14ac:dyDescent="0.2">
@@ -24759,14 +24758,14 @@
       <c r="AD172" s="13">
         <v>0</v>
       </c>
-      <c r="AE172" s="13" t="s">
+      <c r="AE172" s="13">
+        <v>479</v>
+      </c>
+      <c r="AF172" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG172" s="13" t="s">
         <v>984</v>
-      </c>
-      <c r="AF172" s="13">
-        <v>479</v>
-      </c>
-      <c r="AG172" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="173" spans="1:33" x14ac:dyDescent="0.2">
@@ -24860,14 +24859,14 @@
       <c r="AD173" s="13">
         <v>0</v>
       </c>
-      <c r="AE173" s="13" t="s">
+      <c r="AE173" s="13">
+        <v>434</v>
+      </c>
+      <c r="AF173" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG173" s="13" t="s">
         <v>969</v>
-      </c>
-      <c r="AF173" s="13">
-        <v>434</v>
-      </c>
-      <c r="AG173" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="174" spans="1:33" x14ac:dyDescent="0.2">
@@ -24961,14 +24960,14 @@
       <c r="AD174" s="13">
         <v>0</v>
       </c>
-      <c r="AE174" s="13" t="s">
+      <c r="AE174" s="13">
+        <v>521</v>
+      </c>
+      <c r="AF174" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG174" s="13" t="s">
         <v>969</v>
-      </c>
-      <c r="AF174" s="13">
-        <v>521</v>
-      </c>
-      <c r="AG174" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="175" spans="1:33" x14ac:dyDescent="0.2">
@@ -25062,14 +25061,14 @@
       <c r="AD175" s="13">
         <v>0</v>
       </c>
-      <c r="AE175" s="13" t="s">
+      <c r="AE175" s="13">
+        <v>527</v>
+      </c>
+      <c r="AF175" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG175" s="13" t="s">
         <v>969</v>
-      </c>
-      <c r="AF175" s="13">
-        <v>527</v>
-      </c>
-      <c r="AG175" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="176" spans="1:33" x14ac:dyDescent="0.2">
@@ -25163,14 +25162,14 @@
       <c r="AD176" s="13">
         <v>0</v>
       </c>
-      <c r="AE176" s="13" t="s">
+      <c r="AE176" s="13">
+        <v>819</v>
+      </c>
+      <c r="AF176" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG176" s="13" t="s">
         <v>2118</v>
-      </c>
-      <c r="AF176" s="13">
-        <v>819</v>
-      </c>
-      <c r="AG176" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="177" spans="1:33" x14ac:dyDescent="0.2">
@@ -25264,14 +25263,14 @@
       <c r="AD177" s="13">
         <v>0</v>
       </c>
-      <c r="AE177" s="13" t="s">
+      <c r="AE177" s="13">
+        <v>816</v>
+      </c>
+      <c r="AF177" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG177" s="13" t="s">
         <v>2118</v>
-      </c>
-      <c r="AF177" s="13">
-        <v>816</v>
-      </c>
-      <c r="AG177" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="178" spans="1:33" x14ac:dyDescent="0.2">
@@ -25365,14 +25364,14 @@
       <c r="AD178" s="13">
         <v>0</v>
       </c>
-      <c r="AE178" s="13" t="s">
+      <c r="AE178" s="13">
+        <v>750</v>
+      </c>
+      <c r="AF178" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG178" s="13" t="s">
         <v>2118</v>
-      </c>
-      <c r="AF178" s="13">
-        <v>750</v>
-      </c>
-      <c r="AG178" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="179" spans="1:33" x14ac:dyDescent="0.2">
@@ -25466,14 +25465,14 @@
       <c r="AD179" s="13">
         <v>0</v>
       </c>
-      <c r="AE179" s="13" t="s">
+      <c r="AE179" s="13">
+        <v>750</v>
+      </c>
+      <c r="AF179" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG179" s="13" t="s">
         <v>2118</v>
-      </c>
-      <c r="AF179" s="13">
-        <v>750</v>
-      </c>
-      <c r="AG179" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="180" spans="1:33" x14ac:dyDescent="0.2">
@@ -25567,14 +25566,14 @@
       <c r="AD180" s="13">
         <v>0</v>
       </c>
-      <c r="AE180" s="13" t="s">
+      <c r="AE180" s="13">
+        <v>483</v>
+      </c>
+      <c r="AF180" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG180" s="13" t="s">
         <v>2119</v>
-      </c>
-      <c r="AF180" s="13">
-        <v>483</v>
-      </c>
-      <c r="AG180" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="181" spans="1:33" x14ac:dyDescent="0.2">
@@ -25668,14 +25667,14 @@
       <c r="AD181" s="13">
         <v>0</v>
       </c>
-      <c r="AE181" s="13" t="s">
+      <c r="AE181" s="13">
+        <v>480</v>
+      </c>
+      <c r="AF181" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG181" s="13" t="s">
         <v>2119</v>
-      </c>
-      <c r="AF181" s="13">
-        <v>480</v>
-      </c>
-      <c r="AG181" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="182" spans="1:33" x14ac:dyDescent="0.2">
@@ -25769,14 +25768,14 @@
       <c r="AD182" s="13">
         <v>0</v>
       </c>
-      <c r="AE182" s="13" t="s">
+      <c r="AE182" s="13">
+        <v>483</v>
+      </c>
+      <c r="AF182" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG182" s="13" t="s">
         <v>2119</v>
-      </c>
-      <c r="AF182" s="13">
-        <v>483</v>
-      </c>
-      <c r="AG182" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="183" spans="1:33" x14ac:dyDescent="0.2">
@@ -25870,14 +25869,14 @@
       <c r="AD183" s="13">
         <v>0</v>
       </c>
-      <c r="AE183" s="13" t="s">
+      <c r="AE183" s="13">
+        <v>459</v>
+      </c>
+      <c r="AF183" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG183" s="13" t="s">
         <v>2118</v>
-      </c>
-      <c r="AF183" s="13">
-        <v>459</v>
-      </c>
-      <c r="AG183" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="184" spans="1:33" x14ac:dyDescent="0.2">
@@ -25971,14 +25970,14 @@
       <c r="AD184" s="13">
         <v>0</v>
       </c>
-      <c r="AE184" s="13" t="s">
+      <c r="AE184" s="13">
+        <v>413</v>
+      </c>
+      <c r="AF184" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG184" s="13" t="s">
         <v>2118</v>
-      </c>
-      <c r="AF184" s="13">
-        <v>413</v>
-      </c>
-      <c r="AG184" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="185" spans="1:33" x14ac:dyDescent="0.2">
@@ -26072,14 +26071,14 @@
       <c r="AD185" s="13">
         <v>0</v>
       </c>
-      <c r="AE185" s="13" t="s">
+      <c r="AE185" s="13">
+        <v>1929</v>
+      </c>
+      <c r="AF185" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG185" s="13" t="s">
         <v>1029</v>
-      </c>
-      <c r="AF185" s="13">
-        <v>1929</v>
-      </c>
-      <c r="AG185" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="186" spans="1:33" x14ac:dyDescent="0.2">
@@ -26173,14 +26172,14 @@
       <c r="AD186" s="13">
         <v>0</v>
       </c>
-      <c r="AE186" s="13" t="s">
+      <c r="AE186" s="13">
+        <v>1929</v>
+      </c>
+      <c r="AF186" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG186" s="13" t="s">
         <v>1029</v>
-      </c>
-      <c r="AF186" s="13">
-        <v>1929</v>
-      </c>
-      <c r="AG186" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="187" spans="1:33" x14ac:dyDescent="0.2">
@@ -26274,14 +26273,14 @@
       <c r="AD187" s="13">
         <v>0</v>
       </c>
-      <c r="AE187" s="13" t="s">
+      <c r="AE187" s="13">
+        <v>1855</v>
+      </c>
+      <c r="AF187" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG187" s="13" t="s">
         <v>1031</v>
-      </c>
-      <c r="AF187" s="13">
-        <v>1855</v>
-      </c>
-      <c r="AG187" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="188" spans="1:33" x14ac:dyDescent="0.2">
@@ -26375,14 +26374,14 @@
       <c r="AD188" s="13">
         <v>0</v>
       </c>
-      <c r="AE188" s="13" t="s">
+      <c r="AE188" s="13">
+        <v>4072</v>
+      </c>
+      <c r="AF188" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG188" s="13" t="s">
         <v>1044</v>
-      </c>
-      <c r="AF188" s="13">
-        <v>4072</v>
-      </c>
-      <c r="AG188" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="189" spans="1:33" x14ac:dyDescent="0.2">
@@ -26476,14 +26475,14 @@
       <c r="AD189" s="13">
         <v>0</v>
       </c>
-      <c r="AE189" s="13" t="s">
+      <c r="AE189" s="13">
+        <v>3289</v>
+      </c>
+      <c r="AF189" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG189" s="13" t="s">
         <v>498</v>
-      </c>
-      <c r="AF189" s="13">
-        <v>3289</v>
-      </c>
-      <c r="AG189" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="190" spans="1:33" x14ac:dyDescent="0.2">
@@ -26577,14 +26576,14 @@
       <c r="AD190" s="13">
         <v>0</v>
       </c>
-      <c r="AE190" s="13" t="s">
+      <c r="AE190" s="13">
+        <v>3845</v>
+      </c>
+      <c r="AF190" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG190" s="13" t="s">
         <v>521</v>
-      </c>
-      <c r="AF190" s="13">
-        <v>3845</v>
-      </c>
-      <c r="AG190" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="191" spans="1:33" x14ac:dyDescent="0.2">
@@ -26678,14 +26677,14 @@
       <c r="AD191" s="13">
         <v>0</v>
       </c>
-      <c r="AE191" s="13" t="s">
+      <c r="AE191" s="13">
+        <v>3084</v>
+      </c>
+      <c r="AF191" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG191" s="13" t="s">
         <v>515</v>
-      </c>
-      <c r="AF191" s="13">
-        <v>3084</v>
-      </c>
-      <c r="AG191" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="192" spans="1:33" x14ac:dyDescent="0.2">
@@ -26779,14 +26778,14 @@
       <c r="AD192" s="13">
         <v>0</v>
       </c>
-      <c r="AE192" s="13" t="s">
+      <c r="AE192" s="13">
+        <v>3765</v>
+      </c>
+      <c r="AF192" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG192" s="13" t="s">
         <v>2082</v>
-      </c>
-      <c r="AF192" s="13">
-        <v>3765</v>
-      </c>
-      <c r="AG192" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="193" spans="1:33" x14ac:dyDescent="0.2">
@@ -26880,14 +26879,14 @@
       <c r="AD193" s="13">
         <v>0</v>
       </c>
-      <c r="AE193" s="13" t="s">
+      <c r="AE193" s="13">
+        <v>3948</v>
+      </c>
+      <c r="AF193" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG193" s="13" t="s">
         <v>2083</v>
-      </c>
-      <c r="AF193" s="13">
-        <v>3948</v>
-      </c>
-      <c r="AG193" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="194" spans="1:33" x14ac:dyDescent="0.2">
@@ -26981,14 +26980,14 @@
       <c r="AD194" s="13">
         <v>0</v>
       </c>
-      <c r="AE194" s="13" t="s">
+      <c r="AE194" s="13">
+        <v>3300</v>
+      </c>
+      <c r="AF194" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG194" s="13" t="s">
         <v>509</v>
-      </c>
-      <c r="AF194" s="13">
-        <v>3300</v>
-      </c>
-      <c r="AG194" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="195" spans="1:33" x14ac:dyDescent="0.2">
@@ -27082,14 +27081,14 @@
       <c r="AD195" s="13">
         <v>0</v>
       </c>
-      <c r="AE195" s="13" t="s">
+      <c r="AE195" s="13">
+        <v>1896</v>
+      </c>
+      <c r="AF195" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG195" s="13" t="s">
         <v>523</v>
-      </c>
-      <c r="AF195" s="13">
-        <v>1896</v>
-      </c>
-      <c r="AG195" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="196" spans="1:33" x14ac:dyDescent="0.2">
@@ -27183,14 +27182,14 @@
       <c r="AD196" s="13">
         <v>0</v>
       </c>
-      <c r="AE196" s="13" t="s">
+      <c r="AE196" s="13">
+        <v>3842</v>
+      </c>
+      <c r="AF196" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG196" s="13" t="s">
         <v>1309</v>
-      </c>
-      <c r="AF196" s="13">
-        <v>3842</v>
-      </c>
-      <c r="AG196" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="197" spans="1:33" x14ac:dyDescent="0.2">
@@ -27284,14 +27283,14 @@
       <c r="AD197" s="13">
         <v>0</v>
       </c>
-      <c r="AE197" s="13" t="s">
+      <c r="AE197" s="13">
+        <v>2163</v>
+      </c>
+      <c r="AF197" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG197" s="13" t="s">
         <v>1303</v>
-      </c>
-      <c r="AF197" s="13">
-        <v>2163</v>
-      </c>
-      <c r="AG197" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="198" spans="1:33" x14ac:dyDescent="0.2">
@@ -27385,14 +27384,14 @@
       <c r="AD198" s="13">
         <v>0</v>
       </c>
-      <c r="AE198" s="13" t="s">
+      <c r="AE198" s="13">
+        <v>1180</v>
+      </c>
+      <c r="AF198" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG198" s="13" t="s">
         <v>1307</v>
-      </c>
-      <c r="AF198" s="13">
-        <v>1180</v>
-      </c>
-      <c r="AG198" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="199" spans="1:33" x14ac:dyDescent="0.2">
@@ -27486,14 +27485,14 @@
       <c r="AD199" s="13">
         <v>0</v>
       </c>
-      <c r="AE199" s="13" t="s">
+      <c r="AE199" s="13">
+        <v>3270</v>
+      </c>
+      <c r="AF199" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG199" s="13" t="s">
         <v>2081</v>
-      </c>
-      <c r="AF199" s="13">
-        <v>3270</v>
-      </c>
-      <c r="AG199" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="200" spans="1:33" x14ac:dyDescent="0.2">
@@ -27587,14 +27586,14 @@
       <c r="AD200" s="13">
         <v>0</v>
       </c>
-      <c r="AE200" s="13" t="s">
+      <c r="AE200" s="13">
+        <v>4034</v>
+      </c>
+      <c r="AF200" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG200" s="13" t="s">
         <v>478</v>
-      </c>
-      <c r="AF200" s="13">
-        <v>4034</v>
-      </c>
-      <c r="AG200" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="201" spans="1:33" x14ac:dyDescent="0.2">
@@ -27688,14 +27687,14 @@
       <c r="AD201" s="13">
         <v>0</v>
       </c>
-      <c r="AE201" s="13" t="s">
+      <c r="AE201" s="13">
+        <v>3063</v>
+      </c>
+      <c r="AF201" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG201" s="13" t="s">
         <v>1547</v>
-      </c>
-      <c r="AF201" s="13">
-        <v>3063</v>
-      </c>
-      <c r="AG201" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="202" spans="1:33" x14ac:dyDescent="0.2">
@@ -27789,14 +27788,14 @@
       <c r="AD202" s="13">
         <v>0</v>
       </c>
-      <c r="AE202" s="13" t="s">
+      <c r="AE202" s="13">
+        <v>2961</v>
+      </c>
+      <c r="AF202" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG202" s="13" t="s">
         <v>1547</v>
-      </c>
-      <c r="AF202" s="13">
-        <v>2961</v>
-      </c>
-      <c r="AG202" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="203" spans="1:33" x14ac:dyDescent="0.2">
@@ -27890,14 +27889,14 @@
       <c r="AD203" s="13">
         <v>0</v>
       </c>
-      <c r="AE203" s="13" t="s">
+      <c r="AE203" s="13">
+        <v>2692</v>
+      </c>
+      <c r="AF203" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG203" s="13" t="s">
         <v>1601</v>
-      </c>
-      <c r="AF203" s="13">
-        <v>2692</v>
-      </c>
-      <c r="AG203" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="204" spans="1:33" x14ac:dyDescent="0.2">
@@ -27991,14 +27990,14 @@
       <c r="AD204" s="13">
         <v>0</v>
       </c>
-      <c r="AE204" s="13" t="s">
+      <c r="AE204" s="13">
+        <v>1794</v>
+      </c>
+      <c r="AF204" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG204" s="13" t="s">
         <v>2077</v>
-      </c>
-      <c r="AF204" s="13">
-        <v>1794</v>
-      </c>
-      <c r="AG204" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="205" spans="1:33" x14ac:dyDescent="0.2">
@@ -28092,14 +28091,14 @@
       <c r="AD205" s="13">
         <v>0</v>
       </c>
-      <c r="AE205" s="13" t="s">
+      <c r="AE205" s="13">
+        <v>8552</v>
+      </c>
+      <c r="AF205" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG205" s="13" t="s">
         <v>414</v>
-      </c>
-      <c r="AF205" s="13">
-        <v>8552</v>
-      </c>
-      <c r="AG205" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="206" spans="1:33" x14ac:dyDescent="0.2">
@@ -28193,14 +28192,14 @@
       <c r="AD206" s="13">
         <v>0</v>
       </c>
-      <c r="AE206" s="13" t="s">
+      <c r="AE206" s="13">
+        <v>1500</v>
+      </c>
+      <c r="AF206" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG206" s="13" t="s">
         <v>1346</v>
-      </c>
-      <c r="AF206" s="13">
-        <v>1500</v>
-      </c>
-      <c r="AG206" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="207" spans="1:33" x14ac:dyDescent="0.2">
@@ -28294,14 +28293,14 @@
       <c r="AD207" s="13">
         <v>0</v>
       </c>
-      <c r="AE207" s="13" t="s">
+      <c r="AE207" s="13">
+        <v>1515</v>
+      </c>
+      <c r="AF207" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG207" s="13" t="s">
         <v>1361</v>
-      </c>
-      <c r="AF207" s="13">
-        <v>1515</v>
-      </c>
-      <c r="AG207" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="208" spans="1:33" x14ac:dyDescent="0.2">
@@ -28395,14 +28394,14 @@
       <c r="AD208" s="13">
         <v>0</v>
       </c>
-      <c r="AE208" s="13" t="s">
+      <c r="AE208" s="13">
+        <v>1521</v>
+      </c>
+      <c r="AF208" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG208" s="13" t="s">
         <v>1354</v>
-      </c>
-      <c r="AF208" s="13">
-        <v>1521</v>
-      </c>
-      <c r="AG208" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="209" spans="1:33" x14ac:dyDescent="0.2">
@@ -28496,14 +28495,14 @@
       <c r="AD209" s="13">
         <v>0</v>
       </c>
-      <c r="AE209" s="13" t="s">
+      <c r="AE209" s="13">
+        <v>1203</v>
+      </c>
+      <c r="AF209" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG209" s="13" t="s">
         <v>1354</v>
-      </c>
-      <c r="AF209" s="13">
-        <v>1203</v>
-      </c>
-      <c r="AG209" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="210" spans="1:33" x14ac:dyDescent="0.2">
@@ -28597,14 +28596,14 @@
       <c r="AD210" s="13">
         <v>0</v>
       </c>
-      <c r="AE210" s="13" t="s">
+      <c r="AE210" s="13">
+        <v>1203</v>
+      </c>
+      <c r="AF210" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG210" s="13" t="s">
         <v>1354</v>
-      </c>
-      <c r="AF210" s="13">
-        <v>1203</v>
-      </c>
-      <c r="AG210" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="211" spans="1:33" x14ac:dyDescent="0.2">
@@ -28698,14 +28697,14 @@
       <c r="AD211" s="13">
         <v>0</v>
       </c>
-      <c r="AE211" s="13" t="s">
+      <c r="AE211" s="13">
+        <v>525</v>
+      </c>
+      <c r="AF211" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG211" s="13" t="s">
         <v>1365</v>
-      </c>
-      <c r="AF211" s="13">
-        <v>525</v>
-      </c>
-      <c r="AG211" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="212" spans="1:33" x14ac:dyDescent="0.2">
@@ -28799,14 +28798,14 @@
       <c r="AD212" s="13">
         <v>0</v>
       </c>
-      <c r="AE212" s="13" t="s">
+      <c r="AE212" s="13">
+        <v>597</v>
+      </c>
+      <c r="AF212" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG212" s="13" t="s">
         <v>1354</v>
-      </c>
-      <c r="AF212" s="13">
-        <v>597</v>
-      </c>
-      <c r="AG212" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="213" spans="1:33" x14ac:dyDescent="0.2">
@@ -28900,14 +28899,14 @@
       <c r="AD213" s="13">
         <v>0</v>
       </c>
-      <c r="AE213" s="13" t="s">
+      <c r="AE213" s="13">
+        <v>699</v>
+      </c>
+      <c r="AF213" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG213" s="13" t="s">
         <v>1365</v>
-      </c>
-      <c r="AF213" s="13">
-        <v>699</v>
-      </c>
-      <c r="AG213" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="214" spans="1:33" x14ac:dyDescent="0.2">
@@ -29001,14 +29000,14 @@
       <c r="AD214" s="13">
         <v>0</v>
       </c>
-      <c r="AE214" s="13" t="s">
+      <c r="AE214" s="13">
+        <v>1344</v>
+      </c>
+      <c r="AF214" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG214" s="13" t="s">
         <v>1381</v>
-      </c>
-      <c r="AF214" s="13">
-        <v>1344</v>
-      </c>
-      <c r="AG214" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="215" spans="1:33" x14ac:dyDescent="0.2">
@@ -29102,14 +29101,14 @@
       <c r="AD215" s="13">
         <v>0</v>
       </c>
-      <c r="AE215" s="13" t="s">
+      <c r="AE215" s="13">
+        <v>1083</v>
+      </c>
+      <c r="AF215" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG215" s="13" t="s">
         <v>1387</v>
-      </c>
-      <c r="AF215" s="13">
-        <v>1083</v>
-      </c>
-      <c r="AG215" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="216" spans="1:33" x14ac:dyDescent="0.2">
@@ -29203,14 +29202,14 @@
       <c r="AD216" s="13">
         <v>0</v>
       </c>
-      <c r="AE216" s="13" t="s">
+      <c r="AE216" s="13">
+        <v>2083</v>
+      </c>
+      <c r="AF216" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG216" s="13" t="s">
         <v>1390</v>
-      </c>
-      <c r="AF216" s="13">
-        <v>2083</v>
-      </c>
-      <c r="AG216" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="217" spans="1:33" x14ac:dyDescent="0.2">
@@ -29304,14 +29303,14 @@
       <c r="AD217" s="13">
         <v>0</v>
       </c>
-      <c r="AE217" s="13" t="s">
+      <c r="AE217" s="13">
+        <v>854</v>
+      </c>
+      <c r="AF217" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG217" s="13" t="s">
         <v>1398</v>
-      </c>
-      <c r="AF217" s="13">
-        <v>854</v>
-      </c>
-      <c r="AG217" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="218" spans="1:33" x14ac:dyDescent="0.2">
@@ -29405,14 +29404,14 @@
       <c r="AD218" s="13">
         <v>0</v>
       </c>
-      <c r="AE218" s="13" t="s">
+      <c r="AE218" s="13">
+        <v>639</v>
+      </c>
+      <c r="AF218" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG218" s="13" t="s">
         <v>1089</v>
-      </c>
-      <c r="AF218" s="13">
-        <v>639</v>
-      </c>
-      <c r="AG218" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="219" spans="1:33" x14ac:dyDescent="0.2">
@@ -29506,14 +29505,14 @@
       <c r="AD219" s="13">
         <v>0</v>
       </c>
-      <c r="AE219" s="13" t="s">
+      <c r="AE219" s="13">
+        <v>249</v>
+      </c>
+      <c r="AF219" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG219" s="13" t="s">
         <v>1390</v>
-      </c>
-      <c r="AF219" s="13">
-        <v>249</v>
-      </c>
-      <c r="AG219" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="220" spans="1:33" x14ac:dyDescent="0.2">
@@ -29607,14 +29606,14 @@
       <c r="AD220" s="13">
         <v>0</v>
       </c>
-      <c r="AE220" s="13" t="s">
+      <c r="AE220" s="13">
+        <v>990</v>
+      </c>
+      <c r="AF220" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG220" s="13" t="s">
         <v>1596</v>
-      </c>
-      <c r="AF220" s="13">
-        <v>990</v>
-      </c>
-      <c r="AG220" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="221" spans="1:33" x14ac:dyDescent="0.2">
@@ -29708,14 +29707,14 @@
       <c r="AD221" s="13">
         <v>0</v>
       </c>
-      <c r="AE221" s="13" t="s">
+      <c r="AE221" s="13">
+        <v>300</v>
+      </c>
+      <c r="AF221" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG221" s="13" t="s">
         <v>2125</v>
-      </c>
-      <c r="AF221" s="13">
-        <v>300</v>
-      </c>
-      <c r="AG221" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="222" spans="1:33" x14ac:dyDescent="0.2">
@@ -29809,14 +29808,14 @@
       <c r="AD222" s="13">
         <v>0</v>
       </c>
-      <c r="AE222" s="13" t="s">
+      <c r="AE222" s="13">
+        <v>297</v>
+      </c>
+      <c r="AF222" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG222" s="13" t="s">
         <v>2125</v>
-      </c>
-      <c r="AF222" s="13">
-        <v>297</v>
-      </c>
-      <c r="AG222" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="223" spans="1:33" x14ac:dyDescent="0.2">
@@ -29910,14 +29909,14 @@
       <c r="AD223" s="13">
         <v>0</v>
       </c>
-      <c r="AE223" s="13" t="s">
+      <c r="AE223" s="13">
+        <v>297</v>
+      </c>
+      <c r="AF223" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG223" s="13" t="s">
         <v>2125</v>
-      </c>
-      <c r="AF223" s="13">
-        <v>297</v>
-      </c>
-      <c r="AG223" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="224" spans="1:33" x14ac:dyDescent="0.2">
@@ -30011,14 +30010,14 @@
       <c r="AD224" s="13">
         <v>0</v>
       </c>
-      <c r="AE224" s="13" t="s">
+      <c r="AE224" s="13">
+        <v>294</v>
+      </c>
+      <c r="AF224" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG224" s="13" t="s">
         <v>2125</v>
-      </c>
-      <c r="AF224" s="13">
-        <v>294</v>
-      </c>
-      <c r="AG224" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="225" spans="1:33" x14ac:dyDescent="0.2">
@@ -30112,14 +30111,14 @@
       <c r="AD225" s="13">
         <v>0</v>
       </c>
-      <c r="AE225" s="13" t="s">
+      <c r="AE225" s="13">
+        <v>237</v>
+      </c>
+      <c r="AF225" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG225" s="13" t="s">
         <v>2125</v>
-      </c>
-      <c r="AF225" s="13">
-        <v>237</v>
-      </c>
-      <c r="AG225" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="226" spans="1:33" x14ac:dyDescent="0.2">
@@ -30213,14 +30212,14 @@
       <c r="AD226" s="13">
         <v>0</v>
       </c>
-      <c r="AE226" s="13" t="s">
+      <c r="AE226" s="13">
+        <v>2665</v>
+      </c>
+      <c r="AF226" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG226" s="13" t="s">
         <v>76</v>
-      </c>
-      <c r="AF226" s="13">
-        <v>2665</v>
-      </c>
-      <c r="AG226" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="227" spans="1:33" x14ac:dyDescent="0.2">
@@ -30314,14 +30313,14 @@
       <c r="AD227" s="13">
         <v>0</v>
       </c>
-      <c r="AE227" s="13" t="s">
+      <c r="AE227" s="13">
+        <v>4511</v>
+      </c>
+      <c r="AF227" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG227" s="13" t="s">
         <v>407</v>
-      </c>
-      <c r="AF227" s="13">
-        <v>4511</v>
-      </c>
-      <c r="AG227" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="228" spans="1:33" x14ac:dyDescent="0.2">
@@ -30415,14 +30414,14 @@
       <c r="AD228" s="13">
         <v>0</v>
       </c>
-      <c r="AE228" s="13" t="s">
+      <c r="AE228" s="13">
+        <v>3697</v>
+      </c>
+      <c r="AF228" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG228" s="13" t="s">
         <v>1428</v>
-      </c>
-      <c r="AF228" s="13">
-        <v>3697</v>
-      </c>
-      <c r="AG228" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="229" spans="1:33" x14ac:dyDescent="0.2">
@@ -30516,14 +30515,14 @@
       <c r="AD229" s="13">
         <v>0</v>
       </c>
-      <c r="AE229" s="13" t="s">
+      <c r="AE229" s="13">
+        <v>4072</v>
+      </c>
+      <c r="AF229" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG229" s="13" t="s">
         <v>1431</v>
-      </c>
-      <c r="AF229" s="13">
-        <v>4072</v>
-      </c>
-      <c r="AG229" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="230" spans="1:33" x14ac:dyDescent="0.2">
@@ -30617,14 +30616,14 @@
       <c r="AD230" s="13">
         <v>0</v>
       </c>
-      <c r="AE230" s="13" t="s">
+      <c r="AE230" s="13">
+        <v>3672</v>
+      </c>
+      <c r="AF230" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG230" s="13" t="s">
         <v>1435</v>
-      </c>
-      <c r="AF230" s="13">
-        <v>3672</v>
-      </c>
-      <c r="AG230" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="231" spans="1:33" x14ac:dyDescent="0.2">
@@ -30718,14 +30717,14 @@
       <c r="AD231" s="13">
         <v>0</v>
       </c>
-      <c r="AE231" s="13" t="s">
+      <c r="AE231" s="13">
+        <v>3379</v>
+      </c>
+      <c r="AF231" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG231" s="13" t="s">
         <v>407</v>
-      </c>
-      <c r="AF231" s="13">
-        <v>3379</v>
-      </c>
-      <c r="AG231" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="232" spans="1:33" x14ac:dyDescent="0.2">
@@ -30819,14 +30818,14 @@
       <c r="AD232" s="13">
         <v>0</v>
       </c>
-      <c r="AE232" s="13" t="s">
+      <c r="AE232" s="13">
+        <v>1102</v>
+      </c>
+      <c r="AF232" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG232" s="13" t="s">
         <v>398</v>
-      </c>
-      <c r="AF232" s="13">
-        <v>1102</v>
-      </c>
-      <c r="AG232" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="233" spans="1:33" x14ac:dyDescent="0.2">
@@ -30920,14 +30919,14 @@
       <c r="AD233" s="13">
         <v>0</v>
       </c>
-      <c r="AE233" s="13" t="s">
+      <c r="AE233" s="13">
+        <v>827</v>
+      </c>
+      <c r="AF233" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG233" s="13" t="s">
         <v>2128</v>
-      </c>
-      <c r="AF233" s="13">
-        <v>827</v>
-      </c>
-      <c r="AG233" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="234" spans="1:33" x14ac:dyDescent="0.2">
@@ -31021,14 +31020,14 @@
       <c r="AD234" s="13">
         <v>0</v>
       </c>
-      <c r="AE234" s="13" t="s">
+      <c r="AE234" s="13">
+        <v>827</v>
+      </c>
+      <c r="AF234" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG234" s="13" t="s">
         <v>2129</v>
-      </c>
-      <c r="AF234" s="13">
-        <v>827</v>
-      </c>
-      <c r="AG234" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="235" spans="1:33" x14ac:dyDescent="0.2">
@@ -31122,14 +31121,14 @@
       <c r="AD235" s="13">
         <v>0</v>
       </c>
-      <c r="AE235" s="13" t="s">
+      <c r="AE235" s="13">
+        <v>591</v>
+      </c>
+      <c r="AF235" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG235" s="13" t="s">
         <v>2128</v>
-      </c>
-      <c r="AF235" s="13">
-        <v>591</v>
-      </c>
-      <c r="AG235" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="236" spans="1:33" x14ac:dyDescent="0.2">
@@ -31223,14 +31222,14 @@
       <c r="AD236" s="13">
         <v>0</v>
       </c>
-      <c r="AE236" s="13" t="s">
+      <c r="AE236" s="13">
+        <v>384</v>
+      </c>
+      <c r="AF236" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG236" s="13" t="s">
         <v>370</v>
-      </c>
-      <c r="AF236" s="13">
-        <v>384</v>
-      </c>
-      <c r="AG236" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="237" spans="1:33" x14ac:dyDescent="0.2">
@@ -31324,14 +31323,14 @@
       <c r="AD237" s="13">
         <v>0</v>
       </c>
-      <c r="AE237" s="13" t="s">
+      <c r="AE237" s="13">
+        <v>318</v>
+      </c>
+      <c r="AF237" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG237" s="13" t="s">
         <v>370</v>
-      </c>
-      <c r="AF237" s="13">
-        <v>318</v>
-      </c>
-      <c r="AG237" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="238" spans="1:33" x14ac:dyDescent="0.2">
@@ -31425,14 +31424,14 @@
       <c r="AD238" s="13">
         <v>0</v>
       </c>
-      <c r="AE238" s="13" t="s">
+      <c r="AE238" s="13">
+        <v>318</v>
+      </c>
+      <c r="AF238" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG238" s="13" t="s">
         <v>370</v>
-      </c>
-      <c r="AF238" s="13">
-        <v>318</v>
-      </c>
-      <c r="AG238" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="239" spans="1:33" x14ac:dyDescent="0.2">
@@ -31526,14 +31525,14 @@
       <c r="AD239" s="13">
         <v>0</v>
       </c>
-      <c r="AE239" s="13" t="s">
+      <c r="AE239" s="13">
+        <v>450</v>
+      </c>
+      <c r="AF239" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG239" s="13" t="s">
         <v>370</v>
-      </c>
-      <c r="AF239" s="13">
-        <v>450</v>
-      </c>
-      <c r="AG239" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="240" spans="1:33" x14ac:dyDescent="0.2">
@@ -31627,14 +31626,14 @@
       <c r="AD240" s="13">
         <v>0</v>
       </c>
-      <c r="AE240" s="13" t="s">
+      <c r="AE240" s="13">
+        <v>432</v>
+      </c>
+      <c r="AF240" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG240" s="13" t="s">
         <v>370</v>
-      </c>
-      <c r="AF240" s="13">
-        <v>432</v>
-      </c>
-      <c r="AG240" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="241" spans="1:33" x14ac:dyDescent="0.2">
@@ -31728,14 +31727,14 @@
       <c r="AD241" s="13">
         <v>0</v>
       </c>
-      <c r="AE241" s="13" t="s">
+      <c r="AE241" s="13">
+        <v>1445</v>
+      </c>
+      <c r="AF241" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG241" s="13" t="s">
         <v>1463</v>
-      </c>
-      <c r="AF241" s="13">
-        <v>1445</v>
-      </c>
-      <c r="AG241" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="242" spans="1:33" x14ac:dyDescent="0.2">
@@ -31829,14 +31828,14 @@
       <c r="AD242" s="13">
         <v>0</v>
       </c>
-      <c r="AE242" s="13" t="s">
+      <c r="AE242" s="13">
+        <v>1445</v>
+      </c>
+      <c r="AF242" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG242" s="13" t="s">
         <v>1463</v>
-      </c>
-      <c r="AF242" s="13">
-        <v>1445</v>
-      </c>
-      <c r="AG242" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="243" spans="1:33" x14ac:dyDescent="0.2">
@@ -31930,14 +31929,14 @@
       <c r="AD243" s="13">
         <v>0</v>
       </c>
-      <c r="AE243" s="13" t="s">
+      <c r="AE243" s="13">
+        <v>1445</v>
+      </c>
+      <c r="AF243" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG243" s="13" t="s">
         <v>1463</v>
-      </c>
-      <c r="AF243" s="13">
-        <v>1445</v>
-      </c>
-      <c r="AG243" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="244" spans="1:33" x14ac:dyDescent="0.2">
@@ -32031,14 +32030,14 @@
       <c r="AD244" s="13">
         <v>0</v>
       </c>
-      <c r="AE244" s="13" t="s">
+      <c r="AE244" s="13">
+        <v>1040</v>
+      </c>
+      <c r="AF244" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG244" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="AF244" s="13">
-        <v>1040</v>
-      </c>
-      <c r="AG244" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="245" spans="1:33" x14ac:dyDescent="0.2">
@@ -32132,14 +32131,14 @@
       <c r="AD245">
         <v>0</v>
       </c>
-      <c r="AE245" t="s">
+      <c r="AE245">
+        <v>1555</v>
+      </c>
+      <c r="AF245" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG245" t="s">
         <v>1354</v>
-      </c>
-      <c r="AF245">
-        <v>1555</v>
-      </c>
-      <c r="AG245" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="246" spans="1:33" x14ac:dyDescent="0.2">
@@ -32233,14 +32232,14 @@
       <c r="AD246" s="13">
         <v>0</v>
       </c>
-      <c r="AE246" s="13" t="s">
+      <c r="AE246" s="13">
+        <v>864</v>
+      </c>
+      <c r="AF246" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG246" s="13" t="s">
         <v>1478</v>
-      </c>
-      <c r="AF246" s="13">
-        <v>864</v>
-      </c>
-      <c r="AG246" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="247" spans="1:33" x14ac:dyDescent="0.2">
@@ -32334,14 +32333,14 @@
       <c r="AD247" s="13">
         <v>0</v>
       </c>
-      <c r="AE247" s="13" t="s">
+      <c r="AE247" s="13">
+        <v>779</v>
+      </c>
+      <c r="AF247" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG247" s="13" t="s">
         <v>290</v>
-      </c>
-      <c r="AF247" s="13">
-        <v>779</v>
-      </c>
-      <c r="AG247" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="248" spans="1:33" x14ac:dyDescent="0.2">
@@ -32435,14 +32434,14 @@
       <c r="AD248" s="13">
         <v>0</v>
       </c>
-      <c r="AE248" s="13" t="s">
+      <c r="AE248" s="13">
+        <v>204</v>
+      </c>
+      <c r="AF248" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG248" s="13" t="s">
         <v>1354</v>
-      </c>
-      <c r="AF248" s="13">
-        <v>204</v>
-      </c>
-      <c r="AG248" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="249" spans="1:33" x14ac:dyDescent="0.2">
@@ -32536,14 +32535,14 @@
       <c r="AD249" s="13">
         <v>0</v>
       </c>
-      <c r="AE249" s="13" t="s">
+      <c r="AE249" s="13">
+        <v>4458</v>
+      </c>
+      <c r="AF249" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG249" s="13" t="s">
         <v>421</v>
-      </c>
-      <c r="AF249" s="13">
-        <v>4458</v>
-      </c>
-      <c r="AG249" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="250" spans="1:33" x14ac:dyDescent="0.2">
@@ -32637,14 +32636,14 @@
       <c r="AD250" s="13">
         <v>0</v>
       </c>
-      <c r="AE250" s="13" t="s">
+      <c r="AE250" s="13">
+        <v>3193</v>
+      </c>
+      <c r="AF250" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG250" s="13" t="s">
         <v>451</v>
-      </c>
-      <c r="AF250" s="13">
-        <v>3193</v>
-      </c>
-      <c r="AG250" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="251" spans="1:33" x14ac:dyDescent="0.2">
@@ -32738,14 +32737,14 @@
       <c r="AD251" s="13">
         <v>0</v>
       </c>
-      <c r="AE251" s="13" t="s">
+      <c r="AE251" s="13">
+        <v>3933</v>
+      </c>
+      <c r="AF251" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG251" s="13" t="s">
         <v>453</v>
-      </c>
-      <c r="AF251" s="13">
-        <v>3933</v>
-      </c>
-      <c r="AG251" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="252" spans="1:33" x14ac:dyDescent="0.2">
@@ -32839,14 +32838,14 @@
       <c r="AD252" s="13">
         <v>0</v>
       </c>
-      <c r="AE252" s="13" t="s">
+      <c r="AE252" s="13">
+        <v>267</v>
+      </c>
+      <c r="AF252" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG252" s="13" t="s">
         <v>1555</v>
-      </c>
-      <c r="AF252" s="13">
-        <v>267</v>
-      </c>
-      <c r="AG252" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="253" spans="1:33" x14ac:dyDescent="0.2">
@@ -32940,14 +32939,14 @@
       <c r="AD253" s="13">
         <v>0</v>
       </c>
-      <c r="AE253" s="13" t="s">
+      <c r="AE253" s="13">
+        <v>443</v>
+      </c>
+      <c r="AF253" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG253" s="13" t="s">
         <v>1557</v>
-      </c>
-      <c r="AF253" s="13">
-        <v>443</v>
-      </c>
-      <c r="AG253" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="254" spans="1:33" x14ac:dyDescent="0.2">
@@ -33041,14 +33040,14 @@
       <c r="AD254" s="13">
         <v>0</v>
       </c>
-      <c r="AE254" s="13" t="s">
+      <c r="AE254" s="13">
+        <v>300</v>
+      </c>
+      <c r="AF254" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG254" s="13" t="s">
         <v>540</v>
-      </c>
-      <c r="AF254" s="13">
-        <v>300</v>
-      </c>
-      <c r="AG254" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="255" spans="1:33" x14ac:dyDescent="0.2">
@@ -33142,14 +33141,14 @@
       <c r="AD255" s="13">
         <v>0</v>
       </c>
-      <c r="AE255" s="13" t="s">
+      <c r="AE255" s="13">
+        <v>300</v>
+      </c>
+      <c r="AF255" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG255" s="13" t="s">
         <v>534</v>
-      </c>
-      <c r="AF255" s="13">
-        <v>300</v>
-      </c>
-      <c r="AG255" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="256" spans="1:33" x14ac:dyDescent="0.2">
@@ -33243,14 +33242,14 @@
       <c r="AD256" s="13">
         <v>0</v>
       </c>
-      <c r="AE256" s="13" t="s">
+      <c r="AE256" s="13">
+        <v>585</v>
+      </c>
+      <c r="AF256" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG256" s="13" t="s">
         <v>534</v>
-      </c>
-      <c r="AF256" s="13">
-        <v>585</v>
-      </c>
-      <c r="AG256" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="257" spans="1:33" x14ac:dyDescent="0.2">
@@ -33344,14 +33343,14 @@
       <c r="AD257" s="13">
         <v>0</v>
       </c>
-      <c r="AE257" s="13" t="s">
+      <c r="AE257" s="13">
+        <v>309</v>
+      </c>
+      <c r="AF257" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG257" s="13" t="s">
         <v>540</v>
-      </c>
-      <c r="AF257" s="13">
-        <v>309</v>
-      </c>
-      <c r="AG257" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="258" spans="1:33" x14ac:dyDescent="0.2">
@@ -33445,14 +33444,14 @@
       <c r="AD258" s="13">
         <v>0</v>
       </c>
-      <c r="AE258" s="13" t="s">
+      <c r="AE258" s="13">
+        <v>303</v>
+      </c>
+      <c r="AF258" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG258" s="13" t="s">
         <v>540</v>
-      </c>
-      <c r="AF258" s="13">
-        <v>303</v>
-      </c>
-      <c r="AG258" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="259" spans="1:33" x14ac:dyDescent="0.2">
@@ -33546,14 +33545,14 @@
       <c r="AD259" s="13">
         <v>0</v>
       </c>
-      <c r="AE259" s="13" t="s">
+      <c r="AE259" s="13">
+        <v>249</v>
+      </c>
+      <c r="AF259" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG259" s="13" t="s">
         <v>540</v>
-      </c>
-      <c r="AF259" s="13">
-        <v>249</v>
-      </c>
-      <c r="AG259" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="260" spans="1:33" x14ac:dyDescent="0.2">
@@ -33647,14 +33646,14 @@
       <c r="AD260" s="13">
         <v>0</v>
       </c>
-      <c r="AE260" s="13" t="s">
+      <c r="AE260" s="13">
+        <v>441</v>
+      </c>
+      <c r="AF260" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG260" s="13" t="s">
         <v>557</v>
-      </c>
-      <c r="AF260" s="13">
-        <v>441</v>
-      </c>
-      <c r="AG260" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="261" spans="1:33" x14ac:dyDescent="0.2">
@@ -33748,14 +33747,14 @@
       <c r="AD261" s="13">
         <v>0</v>
       </c>
-      <c r="AE261" s="13" t="s">
+      <c r="AE261" s="13">
+        <v>3150</v>
+      </c>
+      <c r="AF261" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG261" s="13" t="s">
         <v>1547</v>
-      </c>
-      <c r="AF261" s="13">
-        <v>3150</v>
-      </c>
-      <c r="AG261" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="262" spans="1:33" x14ac:dyDescent="0.2">
@@ -33849,14 +33848,14 @@
       <c r="AD262" s="13">
         <v>0</v>
       </c>
-      <c r="AE262" s="13" t="s">
+      <c r="AE262" s="13">
+        <v>3861</v>
+      </c>
+      <c r="AF262" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG262" s="13" t="s">
         <v>1136</v>
-      </c>
-      <c r="AF262" s="13">
-        <v>3861</v>
-      </c>
-      <c r="AG262" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="263" spans="1:33" x14ac:dyDescent="0.2">
@@ -33950,14 +33949,14 @@
       <c r="AD263" s="13">
         <v>0</v>
       </c>
-      <c r="AE263" s="13" t="s">
+      <c r="AE263" s="13">
+        <v>3006</v>
+      </c>
+      <c r="AF263" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG263" s="13" t="s">
         <v>2078</v>
-      </c>
-      <c r="AF263" s="13">
-        <v>3006</v>
-      </c>
-      <c r="AG263" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="264" spans="1:33" x14ac:dyDescent="0.2">
@@ -34051,14 +34050,14 @@
       <c r="AD264" s="13">
         <v>0</v>
       </c>
-      <c r="AE264" s="13" t="s">
+      <c r="AE264" s="13">
+        <v>2707</v>
+      </c>
+      <c r="AF264" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG264" s="13" t="s">
         <v>1534</v>
-      </c>
-      <c r="AF264" s="13">
-        <v>2707</v>
-      </c>
-      <c r="AG264" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="265" spans="1:33" x14ac:dyDescent="0.2">
@@ -34152,14 +34151,14 @@
       <c r="AD265" s="13">
         <v>0</v>
       </c>
-      <c r="AE265" s="13" t="s">
+      <c r="AE265" s="13">
+        <v>3025</v>
+      </c>
+      <c r="AF265" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG265" s="13" t="s">
         <v>1547</v>
-      </c>
-      <c r="AF265" s="13">
-        <v>3025</v>
-      </c>
-      <c r="AG265" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="266" spans="1:33" x14ac:dyDescent="0.2">
@@ -34253,14 +34252,14 @@
       <c r="AD266" s="13">
         <v>0</v>
       </c>
-      <c r="AE266" s="13" t="s">
+      <c r="AE266" s="13">
+        <v>3473</v>
+      </c>
+      <c r="AF266" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG266" s="13" t="s">
         <v>2079</v>
-      </c>
-      <c r="AF266" s="13">
-        <v>3473</v>
-      </c>
-      <c r="AG266" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="267" spans="1:33" x14ac:dyDescent="0.2">
@@ -34354,14 +34353,14 @@
       <c r="AD267" s="13">
         <v>0</v>
       </c>
-      <c r="AE267" s="13" t="s">
+      <c r="AE267" s="13">
+        <v>3796</v>
+      </c>
+      <c r="AF267" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG267" s="13" t="s">
         <v>1537</v>
-      </c>
-      <c r="AF267" s="13">
-        <v>3796</v>
-      </c>
-      <c r="AG267" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="268" spans="1:33" x14ac:dyDescent="0.2">
@@ -34455,14 +34454,14 @@
       <c r="AD268" s="13">
         <v>0</v>
       </c>
-      <c r="AE268" s="13" t="s">
+      <c r="AE268" s="13">
+        <v>3511</v>
+      </c>
+      <c r="AF268" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG268" s="13" t="s">
         <v>1541</v>
-      </c>
-      <c r="AF268" s="13">
-        <v>3511</v>
-      </c>
-      <c r="AG268" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="269" spans="1:33" x14ac:dyDescent="0.2">
@@ -34556,14 +34555,14 @@
       <c r="AD269" s="13">
         <v>0</v>
       </c>
-      <c r="AE269" s="13" t="s">
+      <c r="AE269" s="13">
+        <v>3338</v>
+      </c>
+      <c r="AF269" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG269" s="13" t="s">
         <v>2080</v>
-      </c>
-      <c r="AF269" s="13">
-        <v>3338</v>
-      </c>
-      <c r="AG269" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="270" spans="1:33" x14ac:dyDescent="0.2">
@@ -34657,14 +34656,14 @@
       <c r="AD270" s="13">
         <v>0</v>
       </c>
-      <c r="AE270" s="13" t="s">
+      <c r="AE270" s="13">
+        <v>270</v>
+      </c>
+      <c r="AF270" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG270" s="13" t="s">
         <v>1539</v>
-      </c>
-      <c r="AF270" s="13">
-        <v>270</v>
-      </c>
-      <c r="AG270" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="271" spans="1:33" x14ac:dyDescent="0.2">
@@ -34758,14 +34757,14 @@
       <c r="AD271" s="13">
         <v>0</v>
       </c>
-      <c r="AE271" s="13" t="s">
+      <c r="AE271" s="13">
+        <v>2305</v>
+      </c>
+      <c r="AF271" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG271" s="13" t="s">
         <v>1655</v>
-      </c>
-      <c r="AF271" s="13">
-        <v>2305</v>
-      </c>
-      <c r="AG271" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="272" spans="1:33" x14ac:dyDescent="0.2">
@@ -34859,14 +34858,14 @@
       <c r="AD272" s="13">
         <v>0</v>
       </c>
-      <c r="AE272" s="13" t="s">
+      <c r="AE272" s="13">
+        <v>1479</v>
+      </c>
+      <c r="AF272" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG272" s="13" t="s">
         <v>116</v>
-      </c>
-      <c r="AF272" s="13">
-        <v>1479</v>
-      </c>
-      <c r="AG272" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="273" spans="1:33" x14ac:dyDescent="0.2">
@@ -34960,14 +34959,14 @@
       <c r="AD273" s="13">
         <v>0</v>
       </c>
-      <c r="AE273" s="13" t="s">
+      <c r="AE273" s="13">
+        <v>651</v>
+      </c>
+      <c r="AF273" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG273" s="13" t="s">
         <v>290</v>
-      </c>
-      <c r="AF273" s="13">
-        <v>651</v>
-      </c>
-      <c r="AG273" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="274" spans="1:33" x14ac:dyDescent="0.2">
@@ -35061,14 +35060,14 @@
       <c r="AD274" s="13">
         <v>0</v>
       </c>
-      <c r="AE274" s="13" t="s">
+      <c r="AE274" s="13">
+        <v>3874</v>
+      </c>
+      <c r="AF274" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG274" s="13" t="s">
         <v>1507</v>
-      </c>
-      <c r="AF274" s="13">
-        <v>3874</v>
-      </c>
-      <c r="AG274" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="275" spans="1:33" x14ac:dyDescent="0.2">
@@ -35162,14 +35161,14 @@
       <c r="AD275" s="13">
         <v>0</v>
       </c>
-      <c r="AE275" s="13" t="s">
+      <c r="AE275" s="13">
+        <v>576</v>
+      </c>
+      <c r="AF275" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG275" s="13" t="s">
         <v>1509</v>
-      </c>
-      <c r="AF275" s="13">
-        <v>576</v>
-      </c>
-      <c r="AG275" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="276" spans="1:33" x14ac:dyDescent="0.2">
@@ -35263,14 +35262,14 @@
       <c r="AD276" s="13">
         <v>0</v>
       </c>
-      <c r="AE276" s="13" t="s">
+      <c r="AE276" s="13">
+        <v>1939</v>
+      </c>
+      <c r="AF276" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG276" s="13" t="s">
         <v>1567</v>
-      </c>
-      <c r="AF276" s="13">
-        <v>1939</v>
-      </c>
-      <c r="AG276" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="277" spans="1:33" x14ac:dyDescent="0.2">
@@ -35364,14 +35363,14 @@
       <c r="AD277" s="13">
         <v>0</v>
       </c>
-      <c r="AE277" s="13" t="s">
+      <c r="AE277" s="13">
+        <v>1668</v>
+      </c>
+      <c r="AF277" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG277" s="13" t="s">
         <v>136</v>
-      </c>
-      <c r="AF277" s="13">
-        <v>1668</v>
-      </c>
-      <c r="AG277" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="278" spans="1:33" x14ac:dyDescent="0.2">
@@ -35465,14 +35464,14 @@
       <c r="AD278" s="13">
         <v>0</v>
       </c>
-      <c r="AE278" s="13" t="s">
+      <c r="AE278" s="13">
+        <v>3726</v>
+      </c>
+      <c r="AF278" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG278" s="13" t="s">
         <v>459</v>
-      </c>
-      <c r="AF278" s="13">
-        <v>3726</v>
-      </c>
-      <c r="AG278" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="279" spans="1:33" x14ac:dyDescent="0.2">
@@ -35566,14 +35565,14 @@
       <c r="AD279" s="13">
         <v>0</v>
       </c>
-      <c r="AE279" s="13" t="s">
+      <c r="AE279" s="13">
+        <v>1743</v>
+      </c>
+      <c r="AF279" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG279" s="13" t="s">
         <v>475</v>
-      </c>
-      <c r="AF279" s="13">
-        <v>1743</v>
-      </c>
-      <c r="AG279" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="280" spans="1:33" x14ac:dyDescent="0.2">
@@ -35667,14 +35666,14 @@
       <c r="AD280" s="13">
         <v>0</v>
       </c>
-      <c r="AE280" s="13" t="s">
+      <c r="AE280" s="13">
+        <v>1744</v>
+      </c>
+      <c r="AF280" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG280" s="13" t="s">
         <v>473</v>
-      </c>
-      <c r="AF280" s="13">
-        <v>1744</v>
-      </c>
-      <c r="AG280" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="281" spans="1:33" x14ac:dyDescent="0.2">
@@ -35768,14 +35767,14 @@
       <c r="AD281" s="13">
         <v>0</v>
       </c>
-      <c r="AE281" s="13" t="s">
+      <c r="AE281" s="13">
+        <v>2072</v>
+      </c>
+      <c r="AF281" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG281" s="13" t="s">
         <v>491</v>
-      </c>
-      <c r="AF281" s="13">
-        <v>2072</v>
-      </c>
-      <c r="AG281" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="282" spans="1:33" x14ac:dyDescent="0.2">
@@ -35869,14 +35868,14 @@
       <c r="AD282" s="13">
         <v>0</v>
       </c>
-      <c r="AE282" s="13" t="s">
+      <c r="AE282" s="13">
+        <v>3569</v>
+      </c>
+      <c r="AF282" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG282" s="13" t="s">
         <v>486</v>
-      </c>
-      <c r="AF282" s="13">
-        <v>3569</v>
-      </c>
-      <c r="AG282" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="283" spans="1:33" x14ac:dyDescent="0.2">
@@ -35970,14 +35969,14 @@
       <c r="AD283" s="13">
         <v>0</v>
       </c>
-      <c r="AE283" s="13" t="s">
+      <c r="AE283" s="13">
+        <v>1060</v>
+      </c>
+      <c r="AF283" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG283" s="13" t="s">
         <v>2050</v>
-      </c>
-      <c r="AF283" s="13">
-        <v>1060</v>
-      </c>
-      <c r="AG283" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="284" spans="1:33" x14ac:dyDescent="0.2">
@@ -36071,14 +36070,14 @@
       <c r="AD284" s="13">
         <v>0</v>
       </c>
-      <c r="AE284" s="13" t="s">
+      <c r="AE284" s="13">
+        <v>1211</v>
+      </c>
+      <c r="AF284" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG284" s="13" t="s">
         <v>1072</v>
-      </c>
-      <c r="AF284" s="13">
-        <v>1211</v>
-      </c>
-      <c r="AG284" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="285" spans="1:33" x14ac:dyDescent="0.2">
@@ -36172,14 +36171,14 @@
       <c r="AD285" s="13">
         <v>0</v>
       </c>
-      <c r="AE285" s="13" t="s">
+      <c r="AE285" s="13">
+        <v>4001</v>
+      </c>
+      <c r="AF285" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG285" s="13" t="s">
         <v>652</v>
-      </c>
-      <c r="AF285" s="13">
-        <v>4001</v>
-      </c>
-      <c r="AG285" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="286" spans="1:33" x14ac:dyDescent="0.2">
@@ -36273,14 +36272,14 @@
       <c r="AD286" s="13">
         <v>0</v>
       </c>
-      <c r="AE286" s="13" t="s">
+      <c r="AE286" s="13">
+        <v>1731</v>
+      </c>
+      <c r="AF286" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG286" s="13" t="s">
         <v>650</v>
-      </c>
-      <c r="AF286" s="13">
-        <v>1731</v>
-      </c>
-      <c r="AG286" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="287" spans="1:33" x14ac:dyDescent="0.2">
@@ -36374,14 +36373,14 @@
       <c r="AD287" s="13">
         <v>0</v>
       </c>
-      <c r="AE287" s="13" t="s">
+      <c r="AE287" s="13">
+        <v>204</v>
+      </c>
+      <c r="AF287" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG287" s="13" t="s">
         <v>643</v>
-      </c>
-      <c r="AF287" s="13">
-        <v>204</v>
-      </c>
-      <c r="AG287" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="288" spans="1:33" x14ac:dyDescent="0.2">
@@ -36475,14 +36474,14 @@
       <c r="AD288" s="13">
         <v>0</v>
       </c>
-      <c r="AE288" s="13" t="s">
+      <c r="AE288" s="13">
+        <v>3013</v>
+      </c>
+      <c r="AF288" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG288" s="13" t="s">
         <v>961</v>
-      </c>
-      <c r="AF288" s="13">
-        <v>3013</v>
-      </c>
-      <c r="AG288" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="289" spans="1:33" x14ac:dyDescent="0.2">
@@ -36576,14 +36575,14 @@
       <c r="AD289" s="13">
         <v>0</v>
       </c>
-      <c r="AE289" s="13" t="s">
+      <c r="AE289" s="13">
+        <v>327</v>
+      </c>
+      <c r="AF289" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG289" s="13" t="s">
         <v>1147</v>
-      </c>
-      <c r="AF289" s="13">
-        <v>327</v>
-      </c>
-      <c r="AG289" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="290" spans="1:33" x14ac:dyDescent="0.2">
@@ -36677,14 +36676,14 @@
       <c r="AD290" s="13">
         <v>0</v>
       </c>
-      <c r="AE290" s="13" t="s">
+      <c r="AE290" s="13">
+        <v>360</v>
+      </c>
+      <c r="AF290" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG290" s="13" t="s">
         <v>1147</v>
-      </c>
-      <c r="AF290" s="13">
-        <v>360</v>
-      </c>
-      <c r="AG290" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="291" spans="1:33" x14ac:dyDescent="0.2">
@@ -36778,14 +36777,14 @@
       <c r="AD291" s="13">
         <v>0</v>
       </c>
-      <c r="AE291" s="13" t="s">
+      <c r="AE291" s="13">
+        <v>345</v>
+      </c>
+      <c r="AF291" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG291" s="13" t="s">
         <v>1147</v>
-      </c>
-      <c r="AF291" s="13">
-        <v>345</v>
-      </c>
-      <c r="AG291" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="292" spans="1:33" x14ac:dyDescent="0.2">
@@ -36879,14 +36878,14 @@
       <c r="AD292" s="13">
         <v>0</v>
       </c>
-      <c r="AE292" s="13" t="s">
+      <c r="AE292" s="13">
+        <v>327</v>
+      </c>
+      <c r="AF292" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG292" s="13" t="s">
         <v>1147</v>
-      </c>
-      <c r="AF292" s="13">
-        <v>327</v>
-      </c>
-      <c r="AG292" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="293" spans="1:33" x14ac:dyDescent="0.2">
@@ -36980,14 +36979,14 @@
       <c r="AD293" s="13">
         <v>0</v>
       </c>
-      <c r="AE293" s="13" t="s">
+      <c r="AE293" s="13">
+        <v>366</v>
+      </c>
+      <c r="AF293" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG293" s="13" t="s">
         <v>1180</v>
-      </c>
-      <c r="AF293" s="13">
-        <v>366</v>
-      </c>
-      <c r="AG293" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="294" spans="1:33" x14ac:dyDescent="0.2">
@@ -37081,14 +37080,14 @@
       <c r="AD294" s="13">
         <v>0</v>
       </c>
-      <c r="AE294" s="13" t="s">
+      <c r="AE294" s="13">
+        <v>327</v>
+      </c>
+      <c r="AF294" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG294" s="13" t="s">
         <v>1147</v>
-      </c>
-      <c r="AF294" s="13">
-        <v>327</v>
-      </c>
-      <c r="AG294" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="295" spans="1:33" x14ac:dyDescent="0.2">
@@ -37182,14 +37181,14 @@
       <c r="AD295" s="13">
         <v>0</v>
       </c>
-      <c r="AE295" s="13" t="s">
+      <c r="AE295" s="13">
+        <v>468</v>
+      </c>
+      <c r="AF295" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG295" s="13" t="s">
         <v>1147</v>
-      </c>
-      <c r="AF295" s="13">
-        <v>468</v>
-      </c>
-      <c r="AG295" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="296" spans="1:33" x14ac:dyDescent="0.2">
@@ -37283,14 +37282,14 @@
       <c r="AD296" s="13">
         <v>0</v>
       </c>
-      <c r="AE296" s="13" t="s">
+      <c r="AE296" s="13">
+        <v>968</v>
+      </c>
+      <c r="AF296" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG296" s="13" t="s">
         <v>1190</v>
-      </c>
-      <c r="AF296" s="13">
-        <v>968</v>
-      </c>
-      <c r="AG296" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="297" spans="1:33" x14ac:dyDescent="0.2">
@@ -37384,14 +37383,14 @@
       <c r="AD297" s="13">
         <v>0</v>
       </c>
-      <c r="AE297" s="13" t="s">
+      <c r="AE297" s="13">
+        <v>905</v>
+      </c>
+      <c r="AF297" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG297" s="13" t="s">
         <v>1211</v>
-      </c>
-      <c r="AF297" s="13">
-        <v>905</v>
-      </c>
-      <c r="AG297" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="298" spans="1:33" x14ac:dyDescent="0.2">
@@ -37485,14 +37484,14 @@
       <c r="AD298" s="13">
         <v>0</v>
       </c>
-      <c r="AE298" s="13" t="s">
+      <c r="AE298" s="13">
+        <v>845</v>
+      </c>
+      <c r="AF298" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG298" s="13" t="s">
         <v>1190</v>
-      </c>
-      <c r="AF298" s="13">
-        <v>845</v>
-      </c>
-      <c r="AG298" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="299" spans="1:33" x14ac:dyDescent="0.2">
@@ -37586,14 +37585,14 @@
       <c r="AD299" s="13">
         <v>0</v>
       </c>
-      <c r="AE299" s="13" t="s">
+      <c r="AE299" s="13">
+        <v>845</v>
+      </c>
+      <c r="AF299" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG299" s="13" t="s">
         <v>1190</v>
-      </c>
-      <c r="AF299" s="13">
-        <v>845</v>
-      </c>
-      <c r="AG299" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="300" spans="1:33" x14ac:dyDescent="0.2">
@@ -37687,14 +37686,14 @@
       <c r="AD300" s="13">
         <v>0</v>
       </c>
-      <c r="AE300" s="13" t="s">
+      <c r="AE300" s="13">
+        <v>845</v>
+      </c>
+      <c r="AF300" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG300" s="13" t="s">
         <v>1211</v>
-      </c>
-      <c r="AF300" s="13">
-        <v>845</v>
-      </c>
-      <c r="AG300" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="301" spans="1:33" x14ac:dyDescent="0.2">
@@ -37788,14 +37787,14 @@
       <c r="AD301" s="13">
         <v>0</v>
       </c>
-      <c r="AE301" s="13" t="s">
+      <c r="AE301" s="13">
+        <v>396</v>
+      </c>
+      <c r="AF301" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG301" s="13" t="s">
         <v>1200</v>
-      </c>
-      <c r="AF301" s="13">
-        <v>396</v>
-      </c>
-      <c r="AG301" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="302" spans="1:33" x14ac:dyDescent="0.2">
@@ -37889,14 +37888,14 @@
       <c r="AD302" s="13">
         <v>0</v>
       </c>
-      <c r="AE302" s="13" t="s">
+      <c r="AE302" s="13">
+        <v>240</v>
+      </c>
+      <c r="AF302" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG302" s="13" t="s">
         <v>1200</v>
-      </c>
-      <c r="AF302" s="13">
-        <v>240</v>
-      </c>
-      <c r="AG302" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="303" spans="1:33" x14ac:dyDescent="0.2">
@@ -37990,14 +37989,14 @@
       <c r="AD303" s="13">
         <v>0</v>
       </c>
-      <c r="AE303" s="13" t="s">
+      <c r="AE303" s="13">
+        <v>396</v>
+      </c>
+      <c r="AF303" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG303" s="13" t="s">
         <v>1251</v>
-      </c>
-      <c r="AF303" s="13">
-        <v>396</v>
-      </c>
-      <c r="AG303" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="304" spans="1:33" x14ac:dyDescent="0.2">
@@ -38091,14 +38090,14 @@
       <c r="AD304" s="13">
         <v>0</v>
       </c>
-      <c r="AE304" s="13" t="s">
+      <c r="AE304" s="13">
+        <v>396</v>
+      </c>
+      <c r="AF304" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG304" s="13" t="s">
         <v>1200</v>
-      </c>
-      <c r="AF304" s="13">
-        <v>396</v>
-      </c>
-      <c r="AG304" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="305" spans="1:33" x14ac:dyDescent="0.2">
@@ -38192,14 +38191,14 @@
       <c r="AD305" s="13">
         <v>0</v>
       </c>
-      <c r="AE305" s="13" t="s">
+      <c r="AE305" s="13">
+        <v>186</v>
+      </c>
+      <c r="AF305" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG305" s="13" t="s">
         <v>1200</v>
-      </c>
-      <c r="AF305" s="13">
-        <v>186</v>
-      </c>
-      <c r="AG305" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="306" spans="1:33" x14ac:dyDescent="0.2">
@@ -38293,14 +38292,14 @@
       <c r="AD306" s="13">
         <v>0</v>
       </c>
-      <c r="AE306" s="13" t="s">
+      <c r="AE306" s="13">
+        <v>210</v>
+      </c>
+      <c r="AF306" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG306" s="13" t="s">
         <v>1200</v>
-      </c>
-      <c r="AF306" s="13">
-        <v>210</v>
-      </c>
-      <c r="AG306" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="307" spans="1:33" x14ac:dyDescent="0.2">
@@ -38394,14 +38393,14 @@
       <c r="AD307" s="13">
         <v>0</v>
       </c>
-      <c r="AE307" s="13" t="s">
+      <c r="AE307" s="13">
+        <v>282</v>
+      </c>
+      <c r="AF307" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG307" s="13" t="s">
         <v>1183</v>
-      </c>
-      <c r="AF307" s="13">
-        <v>282</v>
-      </c>
-      <c r="AG307" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="308" spans="1:33" x14ac:dyDescent="0.2">
@@ -38495,14 +38494,14 @@
       <c r="AD308" s="13">
         <v>0</v>
       </c>
-      <c r="AE308" s="13" t="s">
+      <c r="AE308" s="13">
+        <v>273</v>
+      </c>
+      <c r="AF308" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG308" s="13" t="s">
         <v>1198</v>
-      </c>
-      <c r="AF308" s="13">
-        <v>273</v>
-      </c>
-      <c r="AG308" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="309" spans="1:33" x14ac:dyDescent="0.2">
@@ -38596,14 +38595,14 @@
       <c r="AD309" s="13">
         <v>0</v>
       </c>
-      <c r="AE309" s="13" t="s">
+      <c r="AE309" s="13">
+        <v>279</v>
+      </c>
+      <c r="AF309" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG309" s="13" t="s">
         <v>1198</v>
-      </c>
-      <c r="AF309" s="13">
-        <v>279</v>
-      </c>
-      <c r="AG309" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="310" spans="1:33" x14ac:dyDescent="0.2">
@@ -38697,14 +38696,14 @@
       <c r="AD310" s="13">
         <v>0</v>
       </c>
-      <c r="AE310" s="13" t="s">
+      <c r="AE310" s="13">
+        <v>297</v>
+      </c>
+      <c r="AF310" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG310" s="13" t="s">
         <v>1198</v>
-      </c>
-      <c r="AF310" s="13">
-        <v>297</v>
-      </c>
-      <c r="AG310" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="311" spans="1:33" x14ac:dyDescent="0.2">
@@ -38798,14 +38797,14 @@
       <c r="AD311" s="13">
         <v>0</v>
       </c>
-      <c r="AE311" s="13" t="s">
+      <c r="AE311" s="13">
+        <v>279</v>
+      </c>
+      <c r="AF311" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG311" s="13" t="s">
         <v>1183</v>
-      </c>
-      <c r="AF311" s="13">
-        <v>279</v>
-      </c>
-      <c r="AG311" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="312" spans="1:33" x14ac:dyDescent="0.2">
@@ -38899,14 +38898,14 @@
       <c r="AD312" s="13">
         <v>0</v>
       </c>
-      <c r="AE312" s="13" t="s">
+      <c r="AE312" s="13">
+        <v>282</v>
+      </c>
+      <c r="AF312" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG312" s="13" t="s">
         <v>1198</v>
-      </c>
-      <c r="AF312" s="13">
-        <v>282</v>
-      </c>
-      <c r="AG312" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="313" spans="1:33" x14ac:dyDescent="0.2">
@@ -39000,14 +38999,14 @@
       <c r="AD313" s="13">
         <v>0</v>
       </c>
-      <c r="AE313" s="13" t="s">
+      <c r="AE313" s="13">
+        <v>276</v>
+      </c>
+      <c r="AF313" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG313" s="13" t="s">
         <v>1183</v>
-      </c>
-      <c r="AF313" s="13">
-        <v>276</v>
-      </c>
-      <c r="AG313" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="314" spans="1:33" x14ac:dyDescent="0.2">
@@ -39101,14 +39100,14 @@
       <c r="AD314" s="13">
         <v>0</v>
       </c>
-      <c r="AE314" s="13" t="s">
+      <c r="AE314" s="13">
+        <v>315</v>
+      </c>
+      <c r="AF314" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG314" s="13" t="s">
         <v>1198</v>
-      </c>
-      <c r="AF314" s="13">
-        <v>315</v>
-      </c>
-      <c r="AG314" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="315" spans="1:33" x14ac:dyDescent="0.2">
@@ -39202,14 +39201,14 @@
       <c r="AD315" s="13">
         <v>0</v>
       </c>
-      <c r="AE315" s="13" t="s">
+      <c r="AE315" s="13">
+        <v>282</v>
+      </c>
+      <c r="AF315" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG315" s="13" t="s">
         <v>1198</v>
-      </c>
-      <c r="AF315" s="13">
-        <v>282</v>
-      </c>
-      <c r="AG315" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="316" spans="1:33" x14ac:dyDescent="0.2">
@@ -39303,14 +39302,14 @@
       <c r="AD316" s="13">
         <v>0</v>
       </c>
-      <c r="AE316" s="13" t="s">
+      <c r="AE316" s="13">
+        <v>384</v>
+      </c>
+      <c r="AF316" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG316" s="13" t="s">
         <v>1274</v>
-      </c>
-      <c r="AF316" s="13">
-        <v>384</v>
-      </c>
-      <c r="AG316" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="317" spans="1:33" x14ac:dyDescent="0.2">
@@ -39404,14 +39403,14 @@
       <c r="AD317" s="13">
         <v>0</v>
       </c>
-      <c r="AE317" s="13" t="s">
+      <c r="AE317" s="13">
+        <v>384</v>
+      </c>
+      <c r="AF317" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG317" s="13" t="s">
         <v>1282</v>
-      </c>
-      <c r="AF317" s="13">
-        <v>384</v>
-      </c>
-      <c r="AG317" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="318" spans="1:33" x14ac:dyDescent="0.2">
@@ -39505,14 +39504,14 @@
       <c r="AD318" s="13">
         <v>0</v>
       </c>
-      <c r="AE318" s="13" t="s">
+      <c r="AE318" s="13">
+        <v>384</v>
+      </c>
+      <c r="AF318" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG318" s="13" t="s">
         <v>1282</v>
-      </c>
-      <c r="AF318" s="13">
-        <v>384</v>
-      </c>
-      <c r="AG318" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="319" spans="1:33" x14ac:dyDescent="0.2">
@@ -39606,14 +39605,14 @@
       <c r="AD319" s="13">
         <v>0</v>
       </c>
-      <c r="AE319" s="13" t="s">
+      <c r="AE319" s="13">
+        <v>357</v>
+      </c>
+      <c r="AF319" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG319" s="13" t="s">
         <v>1276</v>
-      </c>
-      <c r="AF319" s="13">
-        <v>357</v>
-      </c>
-      <c r="AG319" s="13" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="320" spans="1:33" x14ac:dyDescent="0.2">
@@ -39707,17 +39706,17 @@
       <c r="AD320" s="13">
         <v>0</v>
       </c>
-      <c r="AE320" s="13" t="s">
+      <c r="AE320" s="13">
+        <v>537</v>
+      </c>
+      <c r="AF320" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG320" s="13" t="s">
         <v>1319</v>
       </c>
-      <c r="AF320" s="13">
-        <v>537</v>
-      </c>
-      <c r="AG320" s="13" t="s">
-        <v>2028</v>
-      </c>
     </row>
-    <row r="321" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A321" s="6" t="s">
         <v>2017</v>
       </c>
@@ -39808,17 +39807,17 @@
       <c r="AD321" s="13">
         <v>0</v>
       </c>
-      <c r="AE321" s="13" t="s">
+      <c r="AE321" s="13">
+        <v>537</v>
+      </c>
+      <c r="AF321" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG321" s="13" t="s">
         <v>1319</v>
       </c>
-      <c r="AF321" s="13">
-        <v>537</v>
-      </c>
-      <c r="AG321" s="13" t="s">
-        <v>2028</v>
-      </c>
     </row>
-    <row r="322" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A322" s="6" t="s">
         <v>2018</v>
       </c>
@@ -39909,17 +39908,17 @@
       <c r="AD322" s="13">
         <v>0</v>
       </c>
-      <c r="AE322" s="13" t="s">
+      <c r="AE322" s="13">
+        <v>507</v>
+      </c>
+      <c r="AF322" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG322" s="13" t="s">
         <v>1318</v>
       </c>
-      <c r="AF322" s="13">
-        <v>507</v>
-      </c>
-      <c r="AG322" s="13" t="s">
-        <v>2028</v>
-      </c>
     </row>
-    <row r="323" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A323" s="6" t="s">
         <v>1675</v>
       </c>
@@ -40010,17 +40009,17 @@
       <c r="AD323" s="13">
         <v>0</v>
       </c>
-      <c r="AE323" s="13" t="s">
+      <c r="AE323" s="13">
+        <v>588</v>
+      </c>
+      <c r="AF323" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG323" s="13" t="s">
         <v>1293</v>
       </c>
-      <c r="AF323" s="13">
-        <v>588</v>
-      </c>
-      <c r="AG323" s="13" t="s">
-        <v>2028</v>
-      </c>
     </row>
-    <row r="324" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A324" s="6" t="s">
         <v>2019</v>
       </c>
@@ -40111,17 +40110,17 @@
       <c r="AD324" s="13">
         <v>0</v>
       </c>
-      <c r="AE324" s="13" t="s">
+      <c r="AE324" s="13">
+        <v>2289</v>
+      </c>
+      <c r="AF324" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG324" s="13" t="s">
         <v>1325</v>
       </c>
-      <c r="AF324" s="13">
-        <v>2289</v>
-      </c>
-      <c r="AG324" s="13" t="s">
-        <v>2028</v>
-      </c>
     </row>
-    <row r="325" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
         <v>2020</v>
       </c>
@@ -40212,17 +40211,17 @@
       <c r="AD325" s="13">
         <v>0</v>
       </c>
-      <c r="AE325" s="13" t="s">
+      <c r="AE325" s="13">
+        <v>423</v>
+      </c>
+      <c r="AF325" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG325" s="13" t="s">
         <v>1316</v>
       </c>
-      <c r="AF325" s="13">
-        <v>423</v>
-      </c>
-      <c r="AG325" s="13" t="s">
-        <v>2028</v>
-      </c>
     </row>
-    <row r="326" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A326" s="6" t="s">
         <v>2042</v>
       </c>
@@ -40313,19 +40312,18 @@
       <c r="AD326" s="13">
         <v>0</v>
       </c>
-      <c r="AE326" s="13" t="s">
+      <c r="AE326" s="13">
+        <v>192</v>
+      </c>
+      <c r="AF326" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AG326" s="13" t="s">
         <v>1416</v>
       </c>
-      <c r="AF326" s="13">
-        <v>192</v>
-      </c>
-      <c r="AG326" s="13" t="s">
-        <v>2028</v>
-      </c>
-      <c r="AH326" s="19"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG326">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF326">
     <sortCondition ref="C2:C326"/>
     <sortCondition ref="B2:B326"/>
     <sortCondition descending="1" ref="Y2:Y326"/>
@@ -43065,101 +43063,101 @@
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A16" s="20">
+      <c r="A16" s="19">
         <v>27</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>1671</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="21" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="L16" s="21" t="s">
+      <c r="L16" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="M16" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="N16" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="O16" s="21" t="s">
+      <c r="O16" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P16" s="21" t="s">
+      <c r="P16" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="21">
+      <c r="Q16" s="20">
         <v>243560</v>
       </c>
-      <c r="R16" s="21">
+      <c r="R16" s="20">
         <v>244303</v>
       </c>
-      <c r="S16" s="21" t="s">
+      <c r="S16" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="T16" s="21">
-        <v>1</v>
-      </c>
-      <c r="U16" s="21">
+      <c r="T16" s="20">
+        <v>1</v>
+      </c>
+      <c r="U16" s="20">
         <v>248</v>
       </c>
-      <c r="V16" s="21">
-        <v>1</v>
-      </c>
-      <c r="W16" s="21">
+      <c r="V16" s="20">
+        <v>1</v>
+      </c>
+      <c r="W16" s="20">
         <v>744</v>
       </c>
-      <c r="X16" s="21">
+      <c r="X16" s="20">
         <v>248</v>
       </c>
-      <c r="Y16" s="21">
+      <c r="Y16" s="20">
         <v>506</v>
       </c>
-      <c r="Z16" s="21">
+      <c r="Z16" s="20">
         <v>100</v>
       </c>
-      <c r="AA16" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="21" t="s">
+      <c r="AA16" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="20">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="AF16" s="21">
+      <c r="AF16" s="20">
         <v>744</v>
       </c>
-      <c r="AG16" s="21" t="s">
+      <c r="AG16" s="20" t="s">
         <v>92</v>
       </c>
     </row>
@@ -43263,101 +43261,101 @@
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A18" s="23">
+      <c r="A18" s="22">
         <v>16</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>1623</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="24" t="s">
         <v>1671</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="24" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="K18" s="24" t="s">
+      <c r="K18" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="L18" s="24" t="s">
+      <c r="L18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="M18" s="24" t="s">
+      <c r="M18" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="N18" s="24" t="s">
+      <c r="N18" s="23" t="s">
         <v>1635</v>
       </c>
-      <c r="O18" s="24" t="s">
+      <c r="O18" s="23" t="s">
         <v>1636</v>
       </c>
-      <c r="P18" s="24" t="s">
+      <c r="P18" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="23">
         <v>13652894</v>
       </c>
-      <c r="R18" s="24">
+      <c r="R18" s="23">
         <v>13654833</v>
       </c>
-      <c r="S18" s="24" t="s">
+      <c r="S18" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="T18" s="24">
+      <c r="T18" s="23">
         <v>366</v>
       </c>
-      <c r="U18" s="24">
+      <c r="U18" s="23">
         <v>823</v>
       </c>
-      <c r="V18" s="24">
+      <c r="V18" s="23">
         <v>90</v>
       </c>
-      <c r="W18" s="24">
+      <c r="W18" s="23">
         <v>1616</v>
       </c>
-      <c r="X18" s="24">
+      <c r="X18" s="23">
         <v>533</v>
       </c>
-      <c r="Y18" s="24">
+      <c r="Y18" s="23">
         <v>148</v>
       </c>
-      <c r="Z18" s="24">
+      <c r="Z18" s="23">
         <v>36.023000000000003</v>
       </c>
-      <c r="AA18" s="24">
+      <c r="AA18" s="23">
         <v>2.74</v>
       </c>
-      <c r="AB18" s="24">
+      <c r="AB18" s="23">
         <v>68</v>
       </c>
-      <c r="AC18" s="24">
+      <c r="AC18" s="23">
         <v>15</v>
       </c>
-      <c r="AD18" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="24" t="s">
+      <c r="AD18" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="23" t="s">
         <v>1637</v>
       </c>
-      <c r="AF18" s="24">
+      <c r="AF18" s="23">
         <v>1940</v>
       </c>
-      <c r="AG18" s="24" t="s">
+      <c r="AG18" s="23" t="s">
         <v>1638</v>
       </c>
     </row>

--- a/tabular/eve/parvovirinae/epv-dependo-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1B459E-AF0C-F740-A48C-9C9B5F02BBB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF1B43D-0739-8D4F-85BD-F47C56BA2E13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16200" yWindow="500" windowWidth="35000" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7379,8 +7379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="A1:AE1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/parvovirinae/epv-dependo-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF1B43D-0739-8D4F-85BD-F47C56BA2E13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25321E2E-232F-7447-8F13-85B91FE7F041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16200" yWindow="500" windowWidth="35000" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DONE" sheetId="2" r:id="rId1"/>
@@ -7379,8 +7379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG326"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/parvovirinae/epv-dependo-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366C3D6F-E825-DA45-BA94-581BB4E0F614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6869E0-2B07-8446-BD11-814354F29E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16760" yWindow="2820" windowWidth="27980" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5942,8 +5942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B42" sqref="A1:AG219"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5957,6 +5957,7 @@
     <col min="8" max="8" width="18.5" customWidth="1"/>
     <col min="9" max="9" width="20.33203125" customWidth="1"/>
     <col min="15" max="15" width="20.5" customWidth="1"/>
+    <col min="32" max="32" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
